--- a/MC3020_E24.xlsx
+++ b/MC3020_E24.xlsx
@@ -42,9 +42,6 @@
     <t>Mid_exam</t>
   </si>
   <si>
-    <t>2023/E/189</t>
-  </si>
-  <si>
     <t>AHAMED R.A.</t>
   </si>
   <si>
@@ -1230,7 +1227,10 @@
     <t>MADHUSHALANI R.</t>
   </si>
   <si>
-    <t>SAMARANAYAKE S.R.MM.D.</t>
+    <t>2021/E/052</t>
+  </si>
+  <si>
+    <t>AHAMED  B.S.S</t>
   </si>
 </sst>
 </file>
@@ -1495,19 +1495,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="thin">
@@ -1578,45 +1565,10 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1633,17 +1585,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1675,6 +1616,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1689,7 +1683,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1702,9 +1696,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1718,13 +1712,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="10" borderId="11" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="10" borderId="10" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1736,16 +1730,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1753,36 +1747,6 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="13" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1800,7 +1764,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1809,19 +1773,19 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1845,18 +1809,55 @@
     <xf numFmtId="1" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="60% - Accent1 2" xfId="1"/>
@@ -2148,8 +2149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H226"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:H199"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="H198" sqref="H198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2184,2789 +2185,3185 @@
         <v>6</v>
       </c>
       <c r="H1" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="32" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="42" t="s">
+      <c r="B2" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="20"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="17"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="21"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="17"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="22"/>
       <c r="E4" s="21"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="17"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="65">
+        <v>50</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="22"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="17"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="22"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="17"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="65">
+        <v>50</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="21"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="17"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="22"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="17"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="22"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="17"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="22"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="17"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="22"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="17"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="22"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="17"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="65">
+        <v>50</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="22"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="17"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="22"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="17"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="65">
+        <v>50</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="22"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="17"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="22"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="17"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="17"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="22"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="17"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="65">
+        <v>50</v>
+      </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="22"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="17"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="22"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="17"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="65">
+        <v>50</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="22"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="17"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="22"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="17"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="22"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="17"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="21"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="17"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="65">
+        <v>50</v>
+      </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="21"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="17"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="65">
+        <v>50</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="21"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="17"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="21"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="17"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="22"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="17"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="65">
+        <v>50</v>
+      </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="22"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="17"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="22"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="17"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="21"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="17"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="65">
+        <v>50</v>
+      </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="21"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="17"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="65">
+        <v>50</v>
+      </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="42" t="s">
+      <c r="A33" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="21"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="17"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="65">
+        <v>50</v>
+      </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="22"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="17"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="65">
+        <v>50</v>
+      </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="21"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="17"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="42" t="s">
+      <c r="A36" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="21"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="17"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="42" t="s">
+      <c r="A37" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="22"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="17"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="42" t="s">
+      <c r="A38" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="22"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="17"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="65">
+        <v>50</v>
+      </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="42" t="s">
+      <c r="A39" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="22"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="17"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="42" t="s">
+      <c r="A40" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="22"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="17"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="42" t="s">
+      <c r="A41" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="22"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="17"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="42" t="s">
+      <c r="A42" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="22"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="17"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="42" t="s">
+      <c r="A43" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="22"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="17"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="65">
+        <v>50</v>
+      </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="42" t="s">
+      <c r="A44" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="21"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="17"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="42" t="s">
+      <c r="A45" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="21"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="17"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="42" t="s">
+      <c r="A46" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="22"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="17"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="42" t="s">
-        <v>100</v>
+      <c r="A47" s="32" t="s">
+        <v>99</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="22"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="17"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="42" t="s">
+      <c r="A48" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="22"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="17"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="65">
+        <v>50</v>
+      </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="42" t="s">
+      <c r="A49" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="22"/>
-      <c r="E49" s="44"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="17"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="42" t="s">
+      <c r="A50" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="22"/>
-      <c r="E50" s="44"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="17"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="65">
+        <v>50</v>
+      </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="42" t="s">
+      <c r="A51" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="22"/>
-      <c r="E51" s="44"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="17"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="57"/>
+      <c r="H51" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="42" t="s">
+      <c r="A52" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="22"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="17"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="42" t="s">
+      <c r="A53" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="22"/>
-      <c r="E53" s="44"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="17"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="57"/>
+      <c r="H53" s="65">
+        <v>50</v>
+      </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="42" t="s">
+      <c r="A54" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="22"/>
-      <c r="E54" s="44"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="17"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="44"/>
+      <c r="G54" s="57"/>
+      <c r="H54" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="42" t="s">
+      <c r="A55" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="22"/>
-      <c r="E55" s="44"/>
-      <c r="F55" s="54"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="17"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="57"/>
+      <c r="H55" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="42" t="s">
+      <c r="A56" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="21"/>
-      <c r="E56" s="44"/>
-      <c r="F56" s="54"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="17"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="42" t="s">
+      <c r="A57" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="22"/>
-      <c r="E57" s="44"/>
-      <c r="F57" s="54"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="17"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="57"/>
+      <c r="H57" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="42" t="s">
+      <c r="A58" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="C58" s="10"/>
       <c r="D58" s="22"/>
-      <c r="E58" s="44"/>
-      <c r="F58" s="54"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="17"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="44"/>
+      <c r="G58" s="57"/>
+      <c r="H58" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="42" t="s">
+      <c r="A59" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="22"/>
-      <c r="E59" s="44"/>
-      <c r="F59" s="54"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="17"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="57"/>
+      <c r="H59" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="42" t="s">
+      <c r="A60" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="C60" s="10"/>
       <c r="D60" s="22"/>
-      <c r="E60" s="44"/>
-      <c r="F60" s="54"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="17"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="44"/>
+      <c r="G60" s="57"/>
+      <c r="H60" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="42" t="s">
+      <c r="A61" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
-      <c r="E61" s="45"/>
-      <c r="F61" s="55"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="17"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="45"/>
+      <c r="G61" s="58"/>
+      <c r="H61" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="42" t="s">
+      <c r="A62" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="C62" s="10"/>
       <c r="D62" s="22"/>
-      <c r="E62" s="44"/>
-      <c r="F62" s="54"/>
-      <c r="G62" s="30"/>
-      <c r="H62" s="17"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="57"/>
+      <c r="H62" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="42" t="s">
+      <c r="A63" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="C63" s="10"/>
       <c r="D63" s="22"/>
-      <c r="E63" s="44"/>
-      <c r="F63" s="54"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="17"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="44"/>
+      <c r="G63" s="57"/>
+      <c r="H63" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="42" t="s">
+      <c r="A64" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="C64" s="10"/>
       <c r="D64" s="22"/>
-      <c r="E64" s="44"/>
-      <c r="F64" s="54"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="17"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="44"/>
+      <c r="G64" s="57"/>
+      <c r="H64" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="42" t="s">
+      <c r="A65" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="22"/>
-      <c r="E65" s="44"/>
-      <c r="F65" s="54"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="17"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="44"/>
+      <c r="G65" s="57"/>
+      <c r="H65" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="42" t="s">
+      <c r="A66" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="C66" s="10"/>
       <c r="D66" s="22"/>
-      <c r="E66" s="44"/>
-      <c r="F66" s="54"/>
-      <c r="G66" s="30"/>
-      <c r="H66" s="17"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="44"/>
+      <c r="G66" s="57"/>
+      <c r="H66" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="42" t="s">
+      <c r="A67" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="21"/>
-      <c r="E67" s="44"/>
-      <c r="F67" s="54"/>
-      <c r="G67" s="30"/>
-      <c r="H67" s="17"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="44"/>
+      <c r="G67" s="57"/>
+      <c r="H67" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="42" t="s">
+      <c r="A68" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>143</v>
       </c>
       <c r="C68" s="10"/>
       <c r="D68" s="22"/>
-      <c r="E68" s="44"/>
-      <c r="F68" s="54"/>
-      <c r="G68" s="30"/>
-      <c r="H68" s="17"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="44"/>
+      <c r="G68" s="57"/>
+      <c r="H68" s="65">
+        <v>50</v>
+      </c>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="42" t="s">
+      <c r="A69" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="C69" s="10"/>
       <c r="D69" s="22"/>
-      <c r="E69" s="44"/>
-      <c r="F69" s="54"/>
-      <c r="G69" s="32"/>
-      <c r="H69" s="17"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="59"/>
+      <c r="H69" s="65">
+        <v>50</v>
+      </c>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="42" t="s">
+      <c r="A70" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="C70" s="10"/>
       <c r="D70" s="22"/>
-      <c r="E70" s="44"/>
-      <c r="F70" s="54"/>
-      <c r="G70" s="30"/>
-      <c r="H70" s="17"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="44"/>
+      <c r="G70" s="57"/>
+      <c r="H70" s="65">
+        <v>50</v>
+      </c>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="42" t="s">
+      <c r="A71" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="C71" s="10"/>
       <c r="D71" s="22"/>
-      <c r="E71" s="44"/>
-      <c r="F71" s="54"/>
-      <c r="G71" s="30"/>
-      <c r="H71" s="17"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="44"/>
+      <c r="G71" s="57"/>
+      <c r="H71" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="42" t="s">
+      <c r="A72" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="C72" s="10"/>
       <c r="D72" s="22"/>
-      <c r="E72" s="44"/>
-      <c r="F72" s="54"/>
-      <c r="G72" s="30"/>
-      <c r="H72" s="17"/>
+      <c r="E72" s="34"/>
+      <c r="F72" s="44"/>
+      <c r="G72" s="57"/>
+      <c r="H72" s="65">
+        <v>50</v>
+      </c>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="42" t="s">
+      <c r="A73" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="C73" s="10"/>
       <c r="D73" s="22"/>
-      <c r="E73" s="44"/>
-      <c r="F73" s="54"/>
-      <c r="G73" s="30"/>
-      <c r="H73" s="17"/>
+      <c r="E73" s="34"/>
+      <c r="F73" s="44"/>
+      <c r="G73" s="57"/>
+      <c r="H73" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="42" t="s">
+      <c r="A74" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="22"/>
-      <c r="E74" s="44"/>
-      <c r="F74" s="54"/>
-      <c r="G74" s="32"/>
-      <c r="H74" s="17"/>
+      <c r="E74" s="34"/>
+      <c r="F74" s="44"/>
+      <c r="G74" s="59"/>
+      <c r="H74" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="42" t="s">
+      <c r="A75" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="C75" s="10"/>
       <c r="D75" s="22"/>
-      <c r="E75" s="44"/>
-      <c r="F75" s="54"/>
-      <c r="G75" s="32"/>
-      <c r="H75" s="17"/>
+      <c r="E75" s="34"/>
+      <c r="F75" s="44"/>
+      <c r="G75" s="59"/>
+      <c r="H75" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="42" t="s">
+      <c r="A76" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="C76" s="10"/>
       <c r="D76" s="22"/>
-      <c r="E76" s="44"/>
-      <c r="F76" s="54"/>
-      <c r="G76" s="30"/>
-      <c r="H76" s="17"/>
+      <c r="E76" s="34"/>
+      <c r="F76" s="44"/>
+      <c r="G76" s="57"/>
+      <c r="H76" s="65">
+        <v>50</v>
+      </c>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="42" t="s">
+      <c r="A77" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="C77" s="10"/>
       <c r="D77" s="22"/>
-      <c r="E77" s="44"/>
-      <c r="F77" s="54"/>
-      <c r="G77" s="30"/>
-      <c r="H77" s="17"/>
+      <c r="E77" s="34"/>
+      <c r="F77" s="44"/>
+      <c r="G77" s="57"/>
+      <c r="H77" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="42" t="s">
+      <c r="A78" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="C78" s="10"/>
       <c r="D78" s="22"/>
-      <c r="E78" s="44"/>
-      <c r="F78" s="54"/>
-      <c r="G78" s="30"/>
-      <c r="H78" s="17"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="44"/>
+      <c r="G78" s="57"/>
+      <c r="H78" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="42" t="s">
+      <c r="A79" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="C79" s="10"/>
       <c r="D79" s="10"/>
-      <c r="E79" s="45"/>
-      <c r="F79" s="55"/>
-      <c r="G79" s="31"/>
-      <c r="H79" s="17"/>
+      <c r="E79" s="35"/>
+      <c r="F79" s="45"/>
+      <c r="G79" s="58"/>
+      <c r="H79" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="42" t="s">
+      <c r="A80" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="C80" s="10"/>
       <c r="D80" s="21"/>
-      <c r="E80" s="44"/>
-      <c r="F80" s="54"/>
-      <c r="G80" s="30"/>
-      <c r="H80" s="17"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="44"/>
+      <c r="G80" s="57"/>
+      <c r="H80" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="42" t="s">
+      <c r="A81" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="C81" s="10"/>
       <c r="D81" s="21"/>
-      <c r="E81" s="44"/>
-      <c r="F81" s="54"/>
-      <c r="G81" s="30"/>
-      <c r="H81" s="17"/>
+      <c r="E81" s="34"/>
+      <c r="F81" s="44"/>
+      <c r="G81" s="57"/>
+      <c r="H81" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="42" t="s">
+      <c r="A82" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="C82" s="10"/>
       <c r="D82" s="22"/>
-      <c r="E82" s="44"/>
-      <c r="F82" s="54"/>
-      <c r="G82" s="30"/>
-      <c r="H82" s="17"/>
+      <c r="E82" s="34"/>
+      <c r="F82" s="44"/>
+      <c r="G82" s="57"/>
+      <c r="H82" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="42" t="s">
+      <c r="A83" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>173</v>
       </c>
       <c r="C83" s="10"/>
       <c r="D83" s="22"/>
-      <c r="E83" s="44"/>
-      <c r="F83" s="54"/>
-      <c r="G83" s="30"/>
-      <c r="H83" s="17"/>
+      <c r="E83" s="34"/>
+      <c r="F83" s="44"/>
+      <c r="G83" s="57"/>
+      <c r="H83" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="42" t="s">
+      <c r="A84" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>175</v>
       </c>
       <c r="C84" s="10"/>
       <c r="D84" s="22"/>
-      <c r="E84" s="44"/>
-      <c r="F84" s="54"/>
-      <c r="G84" s="30"/>
-      <c r="H84" s="17"/>
+      <c r="E84" s="34"/>
+      <c r="F84" s="44"/>
+      <c r="G84" s="57"/>
+      <c r="H84" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="42" t="s">
+      <c r="A85" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="B85" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="C85" s="10"/>
       <c r="D85" s="22"/>
-      <c r="E85" s="44"/>
-      <c r="F85" s="54"/>
-      <c r="G85" s="30"/>
-      <c r="H85" s="17"/>
+      <c r="E85" s="34"/>
+      <c r="F85" s="44"/>
+      <c r="G85" s="57"/>
+      <c r="H85" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="42" t="s">
+      <c r="A86" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>179</v>
       </c>
       <c r="C86" s="10"/>
       <c r="D86" s="22"/>
-      <c r="E86" s="44"/>
-      <c r="F86" s="54"/>
-      <c r="G86" s="32"/>
-      <c r="H86" s="17"/>
+      <c r="E86" s="34"/>
+      <c r="F86" s="44"/>
+      <c r="G86" s="59"/>
+      <c r="H86" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="42" t="s">
+      <c r="A87" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>181</v>
       </c>
       <c r="C87" s="10"/>
       <c r="D87" s="22"/>
-      <c r="E87" s="44"/>
-      <c r="F87" s="54"/>
-      <c r="G87" s="30"/>
-      <c r="H87" s="17"/>
+      <c r="E87" s="34"/>
+      <c r="F87" s="44"/>
+      <c r="G87" s="57"/>
+      <c r="H87" s="65">
+        <v>50</v>
+      </c>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="42" t="s">
+      <c r="A88" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="C88" s="10"/>
       <c r="D88" s="10"/>
-      <c r="E88" s="45"/>
-      <c r="F88" s="55"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="17"/>
+      <c r="E88" s="35"/>
+      <c r="F88" s="45"/>
+      <c r="G88" s="58"/>
+      <c r="H88" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="42" t="s">
+      <c r="A89" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="C89" s="10"/>
       <c r="D89" s="22"/>
-      <c r="E89" s="44"/>
-      <c r="F89" s="54"/>
-      <c r="G89" s="30"/>
-      <c r="H89" s="17"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="44"/>
+      <c r="G89" s="57"/>
+      <c r="H89" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="42" t="s">
+      <c r="A90" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="C90" s="10"/>
       <c r="D90" s="22"/>
-      <c r="E90" s="44"/>
-      <c r="F90" s="54"/>
-      <c r="G90" s="30"/>
-      <c r="H90" s="17"/>
+      <c r="E90" s="34"/>
+      <c r="F90" s="44"/>
+      <c r="G90" s="57"/>
+      <c r="H90" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="42" t="s">
+      <c r="A91" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>189</v>
       </c>
       <c r="C91" s="10"/>
       <c r="D91" s="22"/>
-      <c r="E91" s="44"/>
-      <c r="F91" s="54"/>
-      <c r="G91" s="30"/>
-      <c r="H91" s="17"/>
+      <c r="E91" s="34"/>
+      <c r="F91" s="44"/>
+      <c r="G91" s="57"/>
+      <c r="H91" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="42" t="s">
+      <c r="A92" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="C92" s="10"/>
       <c r="D92" s="21"/>
-      <c r="E92" s="44"/>
-      <c r="F92" s="54"/>
-      <c r="G92" s="30"/>
-      <c r="H92" s="17"/>
+      <c r="E92" s="34"/>
+      <c r="F92" s="44"/>
+      <c r="G92" s="57"/>
+      <c r="H92" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="42" t="s">
+      <c r="A93" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="B93" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>193</v>
       </c>
       <c r="C93" s="10"/>
       <c r="D93" s="22"/>
-      <c r="E93" s="44"/>
-      <c r="F93" s="54"/>
-      <c r="G93" s="32"/>
-      <c r="H93" s="17"/>
+      <c r="E93" s="34"/>
+      <c r="F93" s="44"/>
+      <c r="G93" s="59"/>
+      <c r="H93" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="42" t="s">
+      <c r="A94" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>195</v>
       </c>
       <c r="C94" s="10"/>
       <c r="D94" s="22"/>
-      <c r="E94" s="44"/>
-      <c r="F94" s="54"/>
-      <c r="G94" s="30"/>
-      <c r="H94" s="17"/>
+      <c r="E94" s="34"/>
+      <c r="F94" s="44"/>
+      <c r="G94" s="57"/>
+      <c r="H94" s="65">
+        <v>50</v>
+      </c>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="42" t="s">
+      <c r="A95" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="B95" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>197</v>
       </c>
       <c r="C95" s="10"/>
       <c r="D95" s="22"/>
-      <c r="E95" s="44"/>
-      <c r="F95" s="54"/>
-      <c r="G95" s="30"/>
-      <c r="H95" s="17"/>
+      <c r="E95" s="34"/>
+      <c r="F95" s="44"/>
+      <c r="G95" s="57"/>
+      <c r="H95" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" s="42" t="s">
+      <c r="A96" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>199</v>
       </c>
       <c r="C96" s="10"/>
       <c r="D96" s="21"/>
-      <c r="E96" s="44"/>
-      <c r="F96" s="54"/>
-      <c r="G96" s="30"/>
-      <c r="H96" s="17"/>
+      <c r="E96" s="34"/>
+      <c r="F96" s="44"/>
+      <c r="G96" s="57"/>
+      <c r="H96" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="42" t="s">
+      <c r="A97" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>201</v>
       </c>
       <c r="C97" s="10"/>
       <c r="D97" s="22"/>
-      <c r="E97" s="44"/>
-      <c r="F97" s="54"/>
-      <c r="G97" s="30"/>
-      <c r="H97" s="17"/>
+      <c r="E97" s="34"/>
+      <c r="F97" s="44"/>
+      <c r="G97" s="57"/>
+      <c r="H97" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98" s="42" t="s">
+      <c r="A98" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="B98" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>203</v>
       </c>
       <c r="C98" s="10"/>
       <c r="D98" s="22"/>
-      <c r="E98" s="44"/>
-      <c r="F98" s="54"/>
-      <c r="G98" s="30"/>
-      <c r="H98" s="17"/>
+      <c r="E98" s="34"/>
+      <c r="F98" s="44"/>
+      <c r="G98" s="57"/>
+      <c r="H98" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="42" t="s">
+      <c r="A99" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="B99" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>205</v>
       </c>
       <c r="C99" s="10"/>
       <c r="D99" s="22"/>
-      <c r="E99" s="44"/>
-      <c r="F99" s="54"/>
-      <c r="G99" s="30"/>
-      <c r="H99" s="17"/>
+      <c r="E99" s="34"/>
+      <c r="F99" s="44"/>
+      <c r="G99" s="57"/>
+      <c r="H99" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" s="42" t="s">
+      <c r="A100" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="B100" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>207</v>
       </c>
       <c r="C100" s="10"/>
       <c r="D100" s="10"/>
-      <c r="E100" s="45"/>
-      <c r="F100" s="55"/>
-      <c r="G100" s="31"/>
-      <c r="H100" s="17"/>
+      <c r="E100" s="35"/>
+      <c r="F100" s="45"/>
+      <c r="G100" s="58"/>
+      <c r="H100" s="65">
+        <v>50</v>
+      </c>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="42" t="s">
+      <c r="A101" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="B101" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>209</v>
       </c>
       <c r="C101" s="10"/>
       <c r="D101" s="22"/>
-      <c r="E101" s="44"/>
-      <c r="F101" s="54"/>
-      <c r="G101" s="30"/>
-      <c r="H101" s="17"/>
+      <c r="E101" s="34"/>
+      <c r="F101" s="44"/>
+      <c r="G101" s="57"/>
+      <c r="H101" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="102" spans="1:8">
-      <c r="A102" s="42" t="s">
+      <c r="A102" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="B102" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="C102" s="10"/>
       <c r="D102" s="22"/>
-      <c r="E102" s="44"/>
-      <c r="F102" s="54"/>
-      <c r="G102" s="30"/>
-      <c r="H102" s="17"/>
+      <c r="E102" s="34"/>
+      <c r="F102" s="44"/>
+      <c r="G102" s="57"/>
+      <c r="H102" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="42" t="s">
+      <c r="A103" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="B103" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>213</v>
       </c>
       <c r="C103" s="10"/>
       <c r="D103" s="21"/>
-      <c r="E103" s="44"/>
-      <c r="F103" s="54"/>
-      <c r="G103" s="30"/>
-      <c r="H103" s="17"/>
+      <c r="E103" s="34"/>
+      <c r="F103" s="44"/>
+      <c r="G103" s="57"/>
+      <c r="H103" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104" s="42" t="s">
+      <c r="A104" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="B104" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>215</v>
       </c>
       <c r="C104" s="10"/>
       <c r="D104" s="21"/>
-      <c r="E104" s="44"/>
-      <c r="F104" s="54"/>
-      <c r="G104" s="32"/>
-      <c r="H104" s="17"/>
+      <c r="E104" s="34"/>
+      <c r="F104" s="44"/>
+      <c r="G104" s="59"/>
+      <c r="H104" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105" s="42" t="s">
+      <c r="A105" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="B105" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>217</v>
       </c>
       <c r="C105" s="10"/>
       <c r="D105" s="22"/>
-      <c r="E105" s="44"/>
-      <c r="F105" s="54"/>
-      <c r="G105" s="30"/>
-      <c r="H105" s="17"/>
+      <c r="E105" s="34"/>
+      <c r="F105" s="44"/>
+      <c r="G105" s="57"/>
+      <c r="H105" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106" s="42" t="s">
+      <c r="A106" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="B106" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>219</v>
       </c>
       <c r="C106" s="10"/>
       <c r="D106" s="22"/>
-      <c r="E106" s="44"/>
-      <c r="F106" s="54"/>
-      <c r="G106" s="30"/>
-      <c r="H106" s="17"/>
+      <c r="E106" s="34"/>
+      <c r="F106" s="44"/>
+      <c r="G106" s="57"/>
+      <c r="H106" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107" s="42" t="s">
+      <c r="A107" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="B107" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>221</v>
       </c>
       <c r="C107" s="10"/>
       <c r="D107" s="23"/>
-      <c r="E107" s="44"/>
-      <c r="F107" s="54"/>
-      <c r="G107" s="30"/>
-      <c r="H107" s="17"/>
+      <c r="E107" s="34"/>
+      <c r="F107" s="44"/>
+      <c r="G107" s="57"/>
+      <c r="H107" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="108" spans="1:8">
-      <c r="A108" s="42" t="s">
+      <c r="A108" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="B108" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>223</v>
       </c>
       <c r="C108" s="10"/>
       <c r="D108" s="23"/>
-      <c r="E108" s="44"/>
-      <c r="F108" s="54"/>
-      <c r="G108" s="30"/>
-      <c r="H108" s="17"/>
+      <c r="E108" s="34"/>
+      <c r="F108" s="44"/>
+      <c r="G108" s="57"/>
+      <c r="H108" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="42" t="s">
+      <c r="A109" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="B109" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>225</v>
       </c>
       <c r="C109" s="10"/>
       <c r="D109" s="23"/>
-      <c r="E109" s="44"/>
-      <c r="F109" s="54"/>
-      <c r="G109" s="30"/>
-      <c r="H109" s="17"/>
+      <c r="E109" s="34"/>
+      <c r="F109" s="44"/>
+      <c r="G109" s="57"/>
+      <c r="H109" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="42" t="s">
+      <c r="A110" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="B110" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>227</v>
       </c>
       <c r="C110" s="10"/>
       <c r="D110" s="23"/>
-      <c r="E110" s="44"/>
-      <c r="F110" s="54"/>
-      <c r="G110" s="30"/>
-      <c r="H110" s="17"/>
+      <c r="E110" s="34"/>
+      <c r="F110" s="44"/>
+      <c r="G110" s="57"/>
+      <c r="H110" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="42" t="s">
+      <c r="A111" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="B111" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>229</v>
       </c>
       <c r="C111" s="10"/>
       <c r="D111" s="23"/>
-      <c r="E111" s="44"/>
-      <c r="F111" s="54"/>
-      <c r="G111" s="30"/>
-      <c r="H111" s="17"/>
+      <c r="E111" s="34"/>
+      <c r="F111" s="44"/>
+      <c r="G111" s="57"/>
+      <c r="H111" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="112" spans="1:8">
-      <c r="A112" s="42" t="s">
+      <c r="A112" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="B112" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>231</v>
       </c>
       <c r="C112" s="10"/>
       <c r="D112" s="23"/>
-      <c r="E112" s="44"/>
-      <c r="F112" s="54"/>
-      <c r="G112" s="30"/>
-      <c r="H112" s="17"/>
+      <c r="E112" s="34"/>
+      <c r="F112" s="44"/>
+      <c r="G112" s="57"/>
+      <c r="H112" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="42" t="s">
+      <c r="A113" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="B113" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>233</v>
       </c>
       <c r="C113" s="10"/>
       <c r="D113" s="23"/>
-      <c r="E113" s="44"/>
-      <c r="F113" s="54"/>
-      <c r="G113" s="30"/>
-      <c r="H113" s="17"/>
+      <c r="E113" s="34"/>
+      <c r="F113" s="44"/>
+      <c r="G113" s="57"/>
+      <c r="H113" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="114" spans="1:8">
-      <c r="A114" s="42" t="s">
-        <v>234</v>
+      <c r="A114" s="32" t="s">
+        <v>233</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C114" s="10"/>
       <c r="D114" s="23"/>
-      <c r="E114" s="44"/>
-      <c r="F114" s="54"/>
-      <c r="G114" s="30"/>
-      <c r="H114" s="17"/>
+      <c r="E114" s="34"/>
+      <c r="F114" s="44"/>
+      <c r="G114" s="57"/>
+      <c r="H114" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="42" t="s">
+      <c r="A115" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="B115" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>236</v>
       </c>
       <c r="C115" s="10"/>
       <c r="D115" s="23"/>
-      <c r="E115" s="44"/>
-      <c r="F115" s="54"/>
-      <c r="G115" s="30"/>
-      <c r="H115" s="17"/>
+      <c r="E115" s="34"/>
+      <c r="F115" s="44"/>
+      <c r="G115" s="57"/>
+      <c r="H115" s="65">
+        <v>50</v>
+      </c>
     </row>
     <row r="116" spans="1:8">
-      <c r="A116" s="42" t="s">
+      <c r="A116" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="B116" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>238</v>
       </c>
       <c r="C116" s="10"/>
       <c r="D116" s="21"/>
-      <c r="E116" s="44"/>
-      <c r="F116" s="54"/>
-      <c r="G116" s="30"/>
-      <c r="H116" s="17"/>
+      <c r="E116" s="34"/>
+      <c r="F116" s="44"/>
+      <c r="G116" s="57"/>
+      <c r="H116" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="42" t="s">
+      <c r="A117" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="B117" s="3" t="s">
         <v>239</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>240</v>
       </c>
       <c r="C117" s="10"/>
       <c r="D117" s="21"/>
-      <c r="E117" s="44"/>
-      <c r="F117" s="54"/>
-      <c r="G117" s="30"/>
-      <c r="H117" s="17"/>
+      <c r="E117" s="34"/>
+      <c r="F117" s="44"/>
+      <c r="G117" s="57"/>
+      <c r="H117" s="65">
+        <v>50</v>
+      </c>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" s="42" t="s">
+      <c r="A118" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="B118" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>242</v>
       </c>
       <c r="C118" s="10"/>
       <c r="D118" s="21"/>
-      <c r="E118" s="44"/>
-      <c r="F118" s="54"/>
-      <c r="G118" s="30"/>
-      <c r="H118" s="17"/>
+      <c r="E118" s="34"/>
+      <c r="F118" s="44"/>
+      <c r="G118" s="57"/>
+      <c r="H118" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="42" t="s">
+      <c r="A119" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="B119" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="C119" s="10"/>
       <c r="D119" s="23"/>
-      <c r="E119" s="44"/>
-      <c r="F119" s="54"/>
-      <c r="G119" s="30"/>
-      <c r="H119" s="17"/>
+      <c r="E119" s="34"/>
+      <c r="F119" s="44"/>
+      <c r="G119" s="57"/>
+      <c r="H119" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="42" t="s">
+      <c r="A120" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="B120" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>246</v>
       </c>
       <c r="C120" s="10"/>
       <c r="D120" s="23"/>
-      <c r="E120" s="44"/>
-      <c r="F120" s="54"/>
-      <c r="G120" s="30"/>
-      <c r="H120" s="17"/>
+      <c r="E120" s="34"/>
+      <c r="F120" s="44"/>
+      <c r="G120" s="57"/>
+      <c r="H120" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121" s="42" t="s">
+      <c r="A121" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="B121" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>248</v>
       </c>
       <c r="C121" s="10"/>
       <c r="D121" s="23"/>
-      <c r="E121" s="44"/>
-      <c r="F121" s="54"/>
-      <c r="G121" s="30"/>
-      <c r="H121" s="17"/>
+      <c r="E121" s="34"/>
+      <c r="F121" s="44"/>
+      <c r="G121" s="57"/>
+      <c r="H121" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="122" spans="1:8">
-      <c r="A122" s="42" t="s">
+      <c r="A122" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="B122" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>250</v>
       </c>
       <c r="C122" s="10"/>
       <c r="D122" s="23"/>
-      <c r="E122" s="44"/>
-      <c r="F122" s="54"/>
-      <c r="G122" s="30"/>
-      <c r="H122" s="17"/>
+      <c r="E122" s="34"/>
+      <c r="F122" s="44"/>
+      <c r="G122" s="57"/>
+      <c r="H122" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="123" spans="1:8">
-      <c r="A123" s="42" t="s">
+      <c r="A123" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="B123" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>252</v>
       </c>
       <c r="C123" s="10"/>
       <c r="D123" s="21"/>
-      <c r="E123" s="44"/>
-      <c r="F123" s="54"/>
-      <c r="G123" s="30"/>
-      <c r="H123" s="17"/>
+      <c r="E123" s="34"/>
+      <c r="F123" s="44"/>
+      <c r="G123" s="57"/>
+      <c r="H123" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="124" spans="1:8">
-      <c r="A124" s="42" t="s">
+      <c r="A124" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="B124" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>254</v>
       </c>
       <c r="C124" s="10"/>
       <c r="D124" s="23"/>
-      <c r="E124" s="44"/>
-      <c r="F124" s="54"/>
-      <c r="G124" s="30"/>
-      <c r="H124" s="17"/>
+      <c r="E124" s="34"/>
+      <c r="F124" s="44"/>
+      <c r="G124" s="57"/>
+      <c r="H124" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="42" t="s">
+      <c r="A125" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="B125" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="C125" s="10"/>
       <c r="D125" s="21"/>
-      <c r="E125" s="44"/>
-      <c r="F125" s="54"/>
-      <c r="G125" s="30"/>
-      <c r="H125" s="17"/>
+      <c r="E125" s="34"/>
+      <c r="F125" s="44"/>
+      <c r="G125" s="57"/>
+      <c r="H125" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="126" spans="1:8">
-      <c r="A126" s="42" t="s">
+      <c r="A126" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="B126" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>258</v>
       </c>
       <c r="C126" s="10"/>
       <c r="D126" s="21"/>
-      <c r="E126" s="44"/>
-      <c r="F126" s="54"/>
-      <c r="G126" s="30"/>
-      <c r="H126" s="17"/>
+      <c r="E126" s="34"/>
+      <c r="F126" s="44"/>
+      <c r="G126" s="57"/>
+      <c r="H126" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="127" spans="1:8">
-      <c r="A127" s="42" t="s">
+      <c r="A127" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="B127" s="3" t="s">
         <v>259</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>260</v>
       </c>
       <c r="C127" s="10"/>
       <c r="D127" s="23"/>
-      <c r="E127" s="44"/>
-      <c r="F127" s="54"/>
-      <c r="G127" s="30"/>
-      <c r="H127" s="17"/>
+      <c r="E127" s="34"/>
+      <c r="F127" s="44"/>
+      <c r="G127" s="57"/>
+      <c r="H127" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="128" spans="1:8">
-      <c r="A128" s="42" t="s">
+      <c r="A128" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="B128" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>262</v>
       </c>
       <c r="C128" s="10"/>
       <c r="D128" s="23"/>
-      <c r="E128" s="44"/>
-      <c r="F128" s="54"/>
-      <c r="G128" s="30"/>
-      <c r="H128" s="17"/>
+      <c r="E128" s="34"/>
+      <c r="F128" s="44"/>
+      <c r="G128" s="57"/>
+      <c r="H128" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="129" spans="1:8">
-      <c r="A129" s="42" t="s">
+      <c r="A129" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="B129" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>264</v>
       </c>
       <c r="C129" s="10"/>
       <c r="D129" s="23"/>
-      <c r="E129" s="44"/>
-      <c r="F129" s="54"/>
-      <c r="G129" s="30"/>
-      <c r="H129" s="17"/>
+      <c r="E129" s="34"/>
+      <c r="F129" s="44"/>
+      <c r="G129" s="57"/>
+      <c r="H129" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="130" spans="1:8">
-      <c r="A130" s="42" t="s">
+      <c r="A130" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="B130" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>266</v>
       </c>
       <c r="C130" s="10"/>
       <c r="D130" s="23"/>
-      <c r="E130" s="44"/>
-      <c r="F130" s="54"/>
-      <c r="G130" s="30"/>
-      <c r="H130" s="17"/>
+      <c r="E130" s="34"/>
+      <c r="F130" s="44"/>
+      <c r="G130" s="57"/>
+      <c r="H130" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="131" spans="1:8">
-      <c r="A131" s="42" t="s">
+      <c r="A131" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="B131" s="3" t="s">
         <v>267</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>268</v>
       </c>
       <c r="C131" s="10"/>
       <c r="D131" s="23"/>
-      <c r="E131" s="44"/>
-      <c r="F131" s="54"/>
-      <c r="G131" s="30"/>
-      <c r="H131" s="17"/>
+      <c r="E131" s="34"/>
+      <c r="F131" s="44"/>
+      <c r="G131" s="57"/>
+      <c r="H131" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="132" spans="1:8">
-      <c r="A132" s="42" t="s">
+      <c r="A132" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="B132" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>270</v>
       </c>
       <c r="C132" s="10"/>
       <c r="D132" s="23"/>
-      <c r="E132" s="44"/>
-      <c r="F132" s="54"/>
-      <c r="G132" s="30"/>
-      <c r="H132" s="17"/>
+      <c r="E132" s="34"/>
+      <c r="F132" s="44"/>
+      <c r="G132" s="57"/>
+      <c r="H132" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="133" spans="1:8">
-      <c r="A133" s="42" t="s">
+      <c r="A133" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="B133" s="3" t="s">
         <v>271</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>272</v>
       </c>
       <c r="C133" s="10"/>
       <c r="D133" s="23"/>
-      <c r="E133" s="44"/>
-      <c r="F133" s="54"/>
-      <c r="G133" s="30"/>
-      <c r="H133" s="17"/>
+      <c r="E133" s="34"/>
+      <c r="F133" s="44"/>
+      <c r="G133" s="57"/>
+      <c r="H133" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="134" spans="1:8">
-      <c r="A134" s="42" t="s">
+      <c r="A134" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="B134" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>274</v>
       </c>
       <c r="C134" s="10"/>
       <c r="D134" s="23"/>
-      <c r="E134" s="44"/>
-      <c r="F134" s="54"/>
-      <c r="G134" s="30"/>
-      <c r="H134" s="17"/>
+      <c r="E134" s="34"/>
+      <c r="F134" s="44"/>
+      <c r="G134" s="57"/>
+      <c r="H134" s="65">
+        <v>50</v>
+      </c>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="42" t="s">
+      <c r="A135" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="B135" s="3" t="s">
         <v>275</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>276</v>
       </c>
       <c r="C135" s="10"/>
       <c r="D135" s="23"/>
-      <c r="E135" s="44"/>
-      <c r="F135" s="54"/>
-      <c r="G135" s="30"/>
-      <c r="H135" s="17"/>
+      <c r="E135" s="34"/>
+      <c r="F135" s="44"/>
+      <c r="G135" s="57"/>
+      <c r="H135" s="65">
+        <v>50</v>
+      </c>
     </row>
     <row r="136" spans="1:8">
-      <c r="A136" s="42" t="s">
+      <c r="A136" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="B136" s="3" t="s">
         <v>277</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>278</v>
       </c>
       <c r="C136" s="10"/>
       <c r="D136" s="23"/>
-      <c r="E136" s="44"/>
-      <c r="F136" s="54"/>
-      <c r="G136" s="30"/>
-      <c r="H136" s="17"/>
+      <c r="E136" s="34"/>
+      <c r="F136" s="44"/>
+      <c r="G136" s="57"/>
+      <c r="H136" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="137" spans="1:8">
-      <c r="A137" s="42" t="s">
+      <c r="A137" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="B137" s="3" t="s">
         <v>279</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>280</v>
       </c>
       <c r="C137" s="10"/>
       <c r="D137" s="23"/>
-      <c r="E137" s="44"/>
-      <c r="F137" s="54"/>
-      <c r="G137" s="30"/>
-      <c r="H137" s="17"/>
+      <c r="E137" s="34"/>
+      <c r="F137" s="44"/>
+      <c r="G137" s="57"/>
+      <c r="H137" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="138" spans="1:8">
-      <c r="A138" s="42" t="s">
+      <c r="A138" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="B138" s="3" t="s">
         <v>281</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>282</v>
       </c>
       <c r="C138" s="10"/>
       <c r="D138" s="10"/>
-      <c r="E138" s="45"/>
-      <c r="F138" s="55"/>
-      <c r="G138" s="31"/>
-      <c r="H138" s="17"/>
+      <c r="E138" s="35"/>
+      <c r="F138" s="45"/>
+      <c r="G138" s="58"/>
+      <c r="H138" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="139" spans="1:8">
-      <c r="A139" s="42" t="s">
+      <c r="A139" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="B139" s="3" t="s">
         <v>283</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>284</v>
       </c>
       <c r="C139" s="10"/>
       <c r="D139" s="21"/>
-      <c r="E139" s="44"/>
-      <c r="F139" s="54"/>
-      <c r="G139" s="30"/>
-      <c r="H139" s="17"/>
+      <c r="E139" s="34"/>
+      <c r="F139" s="44"/>
+      <c r="G139" s="57"/>
+      <c r="H139" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="140" spans="1:8">
-      <c r="A140" s="42" t="s">
+      <c r="A140" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="B140" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>286</v>
       </c>
       <c r="C140" s="10"/>
       <c r="D140" s="23"/>
-      <c r="E140" s="44"/>
-      <c r="F140" s="54"/>
-      <c r="G140" s="33"/>
-      <c r="H140" s="17"/>
+      <c r="E140" s="34"/>
+      <c r="F140" s="44"/>
+      <c r="G140" s="60"/>
+      <c r="H140" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="141" spans="1:8">
-      <c r="A141" s="42" t="s">
+      <c r="A141" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="B141" s="3" t="s">
         <v>287</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>288</v>
       </c>
       <c r="C141" s="10"/>
       <c r="D141" s="21"/>
-      <c r="E141" s="44"/>
-      <c r="F141" s="54"/>
-      <c r="G141" s="34"/>
-      <c r="H141" s="17"/>
+      <c r="E141" s="34"/>
+      <c r="F141" s="44"/>
+      <c r="G141" s="61"/>
+      <c r="H141" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="142" spans="1:8">
-      <c r="A142" s="42" t="s">
+      <c r="A142" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="B142" s="3" t="s">
         <v>289</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>290</v>
       </c>
       <c r="C142" s="10"/>
       <c r="D142" s="23"/>
-      <c r="E142" s="44"/>
-      <c r="F142" s="54"/>
-      <c r="G142" s="29"/>
-      <c r="H142" s="17"/>
+      <c r="E142" s="34"/>
+      <c r="F142" s="44"/>
+      <c r="G142" s="56"/>
+      <c r="H142" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="42" t="s">
+      <c r="A143" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="B143" s="3" t="s">
         <v>291</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>292</v>
       </c>
       <c r="C143" s="10"/>
       <c r="D143" s="10"/>
-      <c r="E143" s="45"/>
-      <c r="F143" s="55"/>
-      <c r="G143" s="31"/>
-      <c r="H143" s="17"/>
+      <c r="E143" s="35"/>
+      <c r="F143" s="45"/>
+      <c r="G143" s="58"/>
+      <c r="H143" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="144" spans="1:8">
-      <c r="A144" s="42" t="s">
+      <c r="A144" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="B144" s="3" t="s">
         <v>293</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>294</v>
       </c>
       <c r="C144" s="10"/>
       <c r="D144" s="23"/>
-      <c r="E144" s="44"/>
-      <c r="F144" s="54"/>
-      <c r="G144" s="30"/>
-      <c r="H144" s="17"/>
+      <c r="E144" s="34"/>
+      <c r="F144" s="44"/>
+      <c r="G144" s="57"/>
+      <c r="H144" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="145" spans="1:8">
-      <c r="A145" s="42" t="s">
+      <c r="A145" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="B145" s="3" t="s">
         <v>295</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>296</v>
       </c>
       <c r="C145" s="10"/>
       <c r="D145" s="23"/>
-      <c r="E145" s="44"/>
-      <c r="F145" s="54"/>
-      <c r="G145" s="30"/>
-      <c r="H145" s="17"/>
+      <c r="E145" s="34"/>
+      <c r="F145" s="44"/>
+      <c r="G145" s="57"/>
+      <c r="H145" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="146" spans="1:8">
-      <c r="A146" s="42" t="s">
+      <c r="A146" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="B146" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>298</v>
       </c>
       <c r="C146" s="10"/>
       <c r="D146" s="23"/>
-      <c r="E146" s="44"/>
-      <c r="F146" s="54"/>
-      <c r="G146" s="30"/>
-      <c r="H146" s="17"/>
+      <c r="E146" s="34"/>
+      <c r="F146" s="44"/>
+      <c r="G146" s="57"/>
+      <c r="H146" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="147" spans="1:8">
-      <c r="A147" s="42" t="s">
+      <c r="A147" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="B147" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>300</v>
       </c>
       <c r="C147" s="10"/>
       <c r="D147" s="23"/>
-      <c r="E147" s="44"/>
-      <c r="F147" s="54"/>
-      <c r="G147" s="30"/>
-      <c r="H147" s="17"/>
+      <c r="E147" s="34"/>
+      <c r="F147" s="44"/>
+      <c r="G147" s="57"/>
+      <c r="H147" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="148" spans="1:8">
-      <c r="A148" s="42" t="s">
+      <c r="A148" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="B148" s="3" t="s">
         <v>301</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>302</v>
       </c>
       <c r="C148" s="10"/>
       <c r="D148" s="23"/>
-      <c r="E148" s="44"/>
-      <c r="F148" s="54"/>
-      <c r="G148" s="30"/>
-      <c r="H148" s="17"/>
+      <c r="E148" s="34"/>
+      <c r="F148" s="44"/>
+      <c r="G148" s="57"/>
+      <c r="H148" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="149" spans="1:8">
-      <c r="A149" s="42" t="s">
+      <c r="A149" s="32" t="s">
+        <v>302</v>
+      </c>
+      <c r="B149" s="3" t="s">
         <v>303</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>304</v>
       </c>
       <c r="C149" s="10"/>
       <c r="D149" s="23"/>
-      <c r="E149" s="44"/>
-      <c r="F149" s="54"/>
-      <c r="G149" s="30"/>
-      <c r="H149" s="17"/>
+      <c r="E149" s="34"/>
+      <c r="F149" s="44"/>
+      <c r="G149" s="57"/>
+      <c r="H149" s="65">
+        <v>50</v>
+      </c>
     </row>
     <row r="150" spans="1:8">
-      <c r="A150" s="42" t="s">
+      <c r="A150" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="B150" s="3" t="s">
         <v>305</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>306</v>
       </c>
       <c r="C150" s="10"/>
       <c r="D150" s="23"/>
-      <c r="E150" s="44"/>
-      <c r="F150" s="54"/>
-      <c r="G150" s="30"/>
-      <c r="H150" s="17"/>
+      <c r="E150" s="34"/>
+      <c r="F150" s="44"/>
+      <c r="G150" s="57"/>
+      <c r="H150" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="151" spans="1:8">
-      <c r="A151" s="42" t="s">
+      <c r="A151" s="32" t="s">
+        <v>306</v>
+      </c>
+      <c r="B151" s="3" t="s">
         <v>307</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>308</v>
       </c>
       <c r="C151" s="10"/>
       <c r="D151" s="23"/>
-      <c r="E151" s="44"/>
-      <c r="F151" s="54"/>
-      <c r="G151" s="30"/>
-      <c r="H151" s="17"/>
+      <c r="E151" s="34"/>
+      <c r="F151" s="44"/>
+      <c r="G151" s="57"/>
+      <c r="H151" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="152" spans="1:8">
-      <c r="A152" s="42" t="s">
+      <c r="A152" s="32" t="s">
+        <v>308</v>
+      </c>
+      <c r="B152" s="3" t="s">
         <v>309</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>310</v>
       </c>
       <c r="C152" s="10"/>
       <c r="D152" s="23"/>
-      <c r="E152" s="44"/>
-      <c r="F152" s="54"/>
-      <c r="G152" s="30"/>
-      <c r="H152" s="17"/>
+      <c r="E152" s="34"/>
+      <c r="F152" s="44"/>
+      <c r="G152" s="57"/>
+      <c r="H152" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="153" spans="1:8">
-      <c r="A153" s="42" t="s">
+      <c r="A153" s="32" t="s">
+        <v>310</v>
+      </c>
+      <c r="B153" s="3" t="s">
         <v>311</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>312</v>
       </c>
       <c r="C153" s="10"/>
       <c r="D153" s="23"/>
-      <c r="E153" s="44"/>
-      <c r="F153" s="54"/>
-      <c r="G153" s="30"/>
-      <c r="H153" s="17"/>
+      <c r="E153" s="34"/>
+      <c r="F153" s="44"/>
+      <c r="G153" s="57"/>
+      <c r="H153" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="154" spans="1:8">
-      <c r="A154" s="42" t="s">
+      <c r="A154" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="B154" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>314</v>
       </c>
       <c r="C154" s="10"/>
       <c r="D154" s="23"/>
-      <c r="E154" s="44"/>
-      <c r="F154" s="54"/>
-      <c r="G154" s="30"/>
-      <c r="H154" s="17"/>
+      <c r="E154" s="34"/>
+      <c r="F154" s="44"/>
+      <c r="G154" s="57"/>
+      <c r="H154" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="155" spans="1:8">
-      <c r="A155" s="42" t="s">
+      <c r="A155" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="B155" s="3" t="s">
         <v>315</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>316</v>
       </c>
       <c r="C155" s="10"/>
       <c r="D155" s="23"/>
-      <c r="E155" s="44"/>
-      <c r="F155" s="54"/>
-      <c r="G155" s="30"/>
-      <c r="H155" s="17"/>
+      <c r="E155" s="34"/>
+      <c r="F155" s="44"/>
+      <c r="G155" s="57"/>
+      <c r="H155" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="156" spans="1:8">
-      <c r="A156" s="42" t="s">
+      <c r="A156" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="B156" s="3" t="s">
         <v>317</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>318</v>
       </c>
       <c r="C156" s="10"/>
       <c r="D156" s="23"/>
-      <c r="E156" s="44"/>
-      <c r="F156" s="54"/>
-      <c r="G156" s="30"/>
-      <c r="H156" s="17"/>
+      <c r="E156" s="34"/>
+      <c r="F156" s="44"/>
+      <c r="G156" s="57"/>
+      <c r="H156" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="157" spans="1:8">
-      <c r="A157" s="42" t="s">
+      <c r="A157" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="B157" s="3" t="s">
         <v>319</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>320</v>
       </c>
       <c r="C157" s="10"/>
       <c r="D157" s="10"/>
-      <c r="E157" s="45"/>
-      <c r="F157" s="56"/>
-      <c r="G157" s="31"/>
-      <c r="H157" s="17"/>
+      <c r="E157" s="35"/>
+      <c r="F157" s="46"/>
+      <c r="G157" s="58"/>
+      <c r="H157" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="158" spans="1:8">
-      <c r="A158" s="42" t="s">
+      <c r="A158" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="B158" s="3" t="s">
         <v>321</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>322</v>
       </c>
       <c r="C158" s="10"/>
       <c r="D158" s="21"/>
-      <c r="E158" s="44"/>
-      <c r="F158" s="54"/>
-      <c r="G158" s="30"/>
-      <c r="H158" s="17"/>
+      <c r="E158" s="34"/>
+      <c r="F158" s="44"/>
+      <c r="G158" s="57"/>
+      <c r="H158" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="159" spans="1:8">
-      <c r="A159" s="42" t="s">
+      <c r="A159" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="B159" s="3" t="s">
         <v>323</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>324</v>
       </c>
       <c r="C159" s="10"/>
       <c r="D159" s="23"/>
-      <c r="E159" s="44"/>
-      <c r="F159" s="54"/>
-      <c r="G159" s="30"/>
-      <c r="H159" s="17"/>
+      <c r="E159" s="34"/>
+      <c r="F159" s="44"/>
+      <c r="G159" s="57"/>
+      <c r="H159" s="65">
+        <v>50</v>
+      </c>
     </row>
     <row r="160" spans="1:8">
-      <c r="A160" s="42" t="s">
+      <c r="A160" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="B160" s="3" t="s">
         <v>325</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>326</v>
       </c>
       <c r="C160" s="10"/>
       <c r="D160" s="23"/>
-      <c r="E160" s="44"/>
-      <c r="F160" s="54"/>
-      <c r="G160" s="30"/>
-      <c r="H160" s="17"/>
+      <c r="E160" s="34"/>
+      <c r="F160" s="44"/>
+      <c r="G160" s="57"/>
+      <c r="H160" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="161" spans="1:8">
-      <c r="A161" s="42" t="s">
+      <c r="A161" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="B161" s="3" t="s">
         <v>327</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>328</v>
       </c>
       <c r="C161" s="10"/>
       <c r="D161" s="23"/>
-      <c r="E161" s="44"/>
-      <c r="F161" s="54"/>
-      <c r="G161" s="30"/>
-      <c r="H161" s="17"/>
+      <c r="E161" s="34"/>
+      <c r="F161" s="44"/>
+      <c r="G161" s="57"/>
+      <c r="H161" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="162" spans="1:8">
-      <c r="A162" s="42" t="s">
+      <c r="A162" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="B162" s="3" t="s">
         <v>329</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>330</v>
       </c>
       <c r="C162" s="10"/>
       <c r="D162" s="23"/>
-      <c r="E162" s="44"/>
-      <c r="F162" s="54"/>
-      <c r="G162" s="30"/>
-      <c r="H162" s="17"/>
+      <c r="E162" s="34"/>
+      <c r="F162" s="44"/>
+      <c r="G162" s="57"/>
+      <c r="H162" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="163" spans="1:8">
-      <c r="A163" s="42" t="s">
+      <c r="A163" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="B163" s="3" t="s">
         <v>331</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>332</v>
       </c>
       <c r="C163" s="10"/>
       <c r="D163" s="21"/>
-      <c r="E163" s="44"/>
-      <c r="F163" s="54"/>
-      <c r="G163" s="30"/>
-      <c r="H163" s="17"/>
+      <c r="E163" s="34"/>
+      <c r="F163" s="44"/>
+      <c r="G163" s="57"/>
+      <c r="H163" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="164" spans="1:8">
-      <c r="A164" s="42" t="s">
+      <c r="A164" s="32" t="s">
+        <v>332</v>
+      </c>
+      <c r="B164" s="3" t="s">
         <v>333</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>334</v>
       </c>
       <c r="C164" s="10"/>
       <c r="D164" s="10"/>
-      <c r="E164" s="45"/>
-      <c r="F164" s="56"/>
-      <c r="G164" s="31"/>
-      <c r="H164" s="17"/>
+      <c r="E164" s="35"/>
+      <c r="F164" s="46"/>
+      <c r="G164" s="58"/>
+      <c r="H164" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="165" spans="1:8">
-      <c r="A165" s="42" t="s">
+      <c r="A165" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="B165" s="3" t="s">
         <v>335</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>336</v>
       </c>
       <c r="C165" s="10"/>
       <c r="D165" s="23"/>
-      <c r="E165" s="44"/>
-      <c r="F165" s="54"/>
-      <c r="G165" s="30"/>
-      <c r="H165" s="17"/>
+      <c r="E165" s="34"/>
+      <c r="F165" s="44"/>
+      <c r="G165" s="57"/>
+      <c r="H165" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="166" spans="1:8">
-      <c r="A166" s="42" t="s">
+      <c r="A166" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="B166" s="3" t="s">
         <v>337</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>338</v>
       </c>
       <c r="C166" s="10"/>
       <c r="D166" s="23"/>
-      <c r="E166" s="44"/>
-      <c r="F166" s="54"/>
-      <c r="G166" s="30"/>
-      <c r="H166" s="17"/>
+      <c r="E166" s="34"/>
+      <c r="F166" s="44"/>
+      <c r="G166" s="57"/>
+      <c r="H166" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="167" spans="1:8">
-      <c r="A167" s="42" t="s">
+      <c r="A167" s="32" t="s">
+        <v>338</v>
+      </c>
+      <c r="B167" s="3" t="s">
         <v>339</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>340</v>
       </c>
       <c r="C167" s="10"/>
       <c r="D167" s="1"/>
-      <c r="E167" s="46"/>
-      <c r="F167" s="54"/>
-      <c r="G167" s="30"/>
-      <c r="H167" s="17"/>
+      <c r="E167" s="36"/>
+      <c r="F167" s="44"/>
+      <c r="G167" s="57"/>
+      <c r="H167" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="168" spans="1:8">
-      <c r="A168" s="42" t="s">
+      <c r="A168" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="B168" s="3" t="s">
         <v>341</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>342</v>
       </c>
       <c r="C168" s="10"/>
       <c r="D168" s="23"/>
-      <c r="E168" s="44"/>
-      <c r="F168" s="54"/>
-      <c r="G168" s="30"/>
-      <c r="H168" s="17"/>
+      <c r="E168" s="34"/>
+      <c r="F168" s="44"/>
+      <c r="G168" s="57"/>
+      <c r="H168" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="169" spans="1:8">
-      <c r="A169" s="42" t="s">
+      <c r="A169" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="B169" s="3" t="s">
         <v>343</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>344</v>
       </c>
       <c r="C169" s="10"/>
       <c r="D169" s="21"/>
-      <c r="E169" s="44"/>
-      <c r="F169" s="54"/>
-      <c r="G169" s="30"/>
-      <c r="H169" s="17"/>
+      <c r="E169" s="34"/>
+      <c r="F169" s="44"/>
+      <c r="G169" s="57"/>
+      <c r="H169" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="170" spans="1:8">
-      <c r="A170" s="42" t="s">
+      <c r="A170" s="32" t="s">
+        <v>344</v>
+      </c>
+      <c r="B170" s="3" t="s">
         <v>345</v>
-      </c>
-      <c r="B170" s="3" t="s">
-        <v>346</v>
       </c>
       <c r="C170" s="10"/>
       <c r="D170" s="22"/>
-      <c r="E170" s="44"/>
-      <c r="F170" s="54"/>
-      <c r="G170" s="30"/>
-      <c r="H170" s="17"/>
+      <c r="E170" s="34"/>
+      <c r="F170" s="44"/>
+      <c r="G170" s="57"/>
+      <c r="H170" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="171" spans="1:8">
-      <c r="A171" s="42" t="s">
+      <c r="A171" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="B171" s="3" t="s">
         <v>347</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>348</v>
       </c>
       <c r="C171" s="10"/>
       <c r="D171" s="21"/>
-      <c r="E171" s="44"/>
-      <c r="F171" s="54"/>
-      <c r="G171" s="30"/>
-      <c r="H171" s="17"/>
+      <c r="E171" s="34"/>
+      <c r="F171" s="44"/>
+      <c r="G171" s="57"/>
+      <c r="H171" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="172" spans="1:8">
-      <c r="A172" s="42" t="s">
+      <c r="A172" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="B172" s="3" t="s">
         <v>349</v>
-      </c>
-      <c r="B172" s="3" t="s">
-        <v>350</v>
       </c>
       <c r="C172" s="10"/>
       <c r="D172" s="22"/>
-      <c r="E172" s="44"/>
-      <c r="F172" s="54"/>
-      <c r="G172" s="30"/>
-      <c r="H172" s="17"/>
+      <c r="E172" s="34"/>
+      <c r="F172" s="44"/>
+      <c r="G172" s="57"/>
+      <c r="H172" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="173" spans="1:8">
-      <c r="A173" s="42" t="s">
+      <c r="A173" s="32" t="s">
+        <v>350</v>
+      </c>
+      <c r="B173" s="3" t="s">
         <v>351</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>352</v>
       </c>
       <c r="C173" s="10"/>
       <c r="D173" s="24"/>
-      <c r="E173" s="44"/>
-      <c r="F173" s="54"/>
-      <c r="G173" s="33"/>
-      <c r="H173" s="17"/>
+      <c r="E173" s="34"/>
+      <c r="F173" s="44"/>
+      <c r="G173" s="60"/>
+      <c r="H173" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="174" spans="1:8">
-      <c r="A174" s="42" t="s">
+      <c r="A174" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="B174" s="3" t="s">
         <v>353</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>354</v>
       </c>
       <c r="C174" s="10"/>
       <c r="D174" s="20"/>
-      <c r="E174" s="44"/>
-      <c r="F174" s="54"/>
-      <c r="G174" s="28"/>
-      <c r="H174" s="17"/>
+      <c r="E174" s="34"/>
+      <c r="F174" s="44"/>
+      <c r="G174" s="55"/>
+      <c r="H174" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="175" spans="1:8">
-      <c r="A175" s="42" t="s">
+      <c r="A175" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="B175" s="3" t="s">
         <v>355</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>356</v>
       </c>
       <c r="C175" s="10"/>
       <c r="D175" s="25"/>
-      <c r="E175" s="44"/>
-      <c r="F175" s="54"/>
-      <c r="G175" s="28"/>
-      <c r="H175" s="17"/>
+      <c r="E175" s="34"/>
+      <c r="F175" s="44"/>
+      <c r="G175" s="55"/>
+      <c r="H175" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="176" spans="1:8">
-      <c r="A176" s="42" t="s">
+      <c r="A176" s="32" t="s">
+        <v>356</v>
+      </c>
+      <c r="B176" s="3" t="s">
         <v>357</v>
-      </c>
-      <c r="B176" s="3" t="s">
-        <v>358</v>
       </c>
       <c r="C176" s="10"/>
       <c r="D176" s="25"/>
-      <c r="E176" s="44"/>
-      <c r="F176" s="54"/>
-      <c r="G176" s="28"/>
-      <c r="H176" s="17"/>
+      <c r="E176" s="34"/>
+      <c r="F176" s="44"/>
+      <c r="G176" s="55"/>
+      <c r="H176" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="177" spans="1:8">
-      <c r="A177" s="42" t="s">
+      <c r="A177" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="B177" s="3" t="s">
         <v>359</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>360</v>
       </c>
       <c r="C177" s="10"/>
       <c r="D177" s="20"/>
-      <c r="E177" s="44"/>
-      <c r="F177" s="54"/>
-      <c r="G177" s="28"/>
-      <c r="H177" s="17"/>
+      <c r="E177" s="34"/>
+      <c r="F177" s="44"/>
+      <c r="G177" s="55"/>
+      <c r="H177" s="65">
+        <v>50</v>
+      </c>
     </row>
     <row r="178" spans="1:8">
-      <c r="A178" s="42" t="s">
+      <c r="A178" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="B178" s="3" t="s">
         <v>361</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>362</v>
       </c>
       <c r="C178" s="10"/>
       <c r="D178" s="20"/>
-      <c r="E178" s="44"/>
-      <c r="F178" s="54"/>
-      <c r="G178" s="28"/>
-      <c r="H178" s="17"/>
+      <c r="E178" s="34"/>
+      <c r="F178" s="44"/>
+      <c r="G178" s="55"/>
+      <c r="H178" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="179" spans="1:8">
-      <c r="A179" s="42" t="s">
+      <c r="A179" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="B179" s="3" t="s">
         <v>363</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>364</v>
       </c>
       <c r="C179" s="12"/>
       <c r="D179" s="1"/>
-      <c r="E179" s="47"/>
-      <c r="F179" s="57"/>
-      <c r="G179" s="35"/>
-      <c r="H179" s="17"/>
+      <c r="E179" s="37"/>
+      <c r="F179" s="47"/>
+      <c r="G179" s="62"/>
+      <c r="H179" s="65">
+        <v>50</v>
+      </c>
     </row>
     <row r="180" spans="1:8">
-      <c r="A180" s="42" t="s">
+      <c r="A180" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="B180" s="3" t="s">
         <v>365</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>366</v>
       </c>
       <c r="C180" s="13"/>
       <c r="D180" s="20"/>
-      <c r="E180" s="44"/>
-      <c r="F180" s="58"/>
-      <c r="G180" s="36"/>
-      <c r="H180" s="17"/>
+      <c r="E180" s="34"/>
+      <c r="F180" s="48"/>
+      <c r="G180" s="63"/>
+      <c r="H180" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="181" spans="1:8">
-      <c r="A181" s="42" t="s">
+      <c r="A181" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="B181" s="3" t="s">
         <v>367</v>
-      </c>
-      <c r="B181" s="3" t="s">
-        <v>368</v>
       </c>
       <c r="C181" s="13"/>
       <c r="D181" s="20"/>
-      <c r="E181" s="44"/>
-      <c r="F181" s="58"/>
-      <c r="G181" s="36"/>
-      <c r="H181" s="17"/>
+      <c r="E181" s="34"/>
+      <c r="F181" s="48"/>
+      <c r="G181" s="63"/>
+      <c r="H181" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="182" spans="1:8">
-      <c r="A182" s="42" t="s">
+      <c r="A182" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="B182" s="3" t="s">
         <v>369</v>
-      </c>
-      <c r="B182" s="3" t="s">
-        <v>370</v>
       </c>
       <c r="C182" s="13"/>
       <c r="D182" s="20"/>
-      <c r="E182" s="44"/>
-      <c r="F182" s="58"/>
-      <c r="G182" s="36"/>
-      <c r="H182" s="17"/>
+      <c r="E182" s="34"/>
+      <c r="F182" s="48"/>
+      <c r="G182" s="63"/>
+      <c r="H182" s="65">
+        <v>50</v>
+      </c>
     </row>
     <row r="183" spans="1:8">
-      <c r="A183" s="42" t="s">
+      <c r="A183" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="B183" s="3" t="s">
         <v>371</v>
-      </c>
-      <c r="B183" s="3" t="s">
-        <v>372</v>
       </c>
       <c r="C183" s="13"/>
       <c r="D183" s="20"/>
-      <c r="E183" s="44"/>
-      <c r="F183" s="58"/>
-      <c r="G183" s="36"/>
-      <c r="H183" s="17"/>
+      <c r="E183" s="34"/>
+      <c r="F183" s="48"/>
+      <c r="G183" s="63"/>
+      <c r="H183" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="184" spans="1:8">
-      <c r="A184" s="42" t="s">
+      <c r="A184" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="B184" s="3" t="s">
         <v>373</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>374</v>
       </c>
       <c r="C184" s="13"/>
       <c r="D184" s="20"/>
-      <c r="E184" s="44"/>
-      <c r="F184" s="58"/>
-      <c r="G184" s="36"/>
-      <c r="H184" s="17"/>
+      <c r="E184" s="34"/>
+      <c r="F184" s="48"/>
+      <c r="G184" s="63"/>
+      <c r="H184" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="185" spans="1:8">
-      <c r="A185" s="42" t="s">
+      <c r="A185" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="B185" s="3" t="s">
         <v>375</v>
-      </c>
-      <c r="B185" s="3" t="s">
-        <v>376</v>
       </c>
       <c r="C185" s="13"/>
       <c r="D185" s="20"/>
-      <c r="E185" s="44"/>
-      <c r="F185" s="58"/>
-      <c r="G185" s="36"/>
-      <c r="H185" s="17"/>
+      <c r="E185" s="34"/>
+      <c r="F185" s="48"/>
+      <c r="G185" s="63"/>
+      <c r="H185" s="65">
+        <v>50</v>
+      </c>
     </row>
     <row r="186" spans="1:8">
-      <c r="A186" s="42" t="s">
+      <c r="A186" s="32" t="s">
+        <v>376</v>
+      </c>
+      <c r="B186" s="3" t="s">
         <v>377</v>
-      </c>
-      <c r="B186" s="3" t="s">
-        <v>378</v>
       </c>
       <c r="C186" s="13"/>
       <c r="D186" s="20"/>
-      <c r="E186" s="44"/>
-      <c r="F186" s="58"/>
-      <c r="G186" s="36"/>
-      <c r="H186" s="17"/>
+      <c r="E186" s="34"/>
+      <c r="F186" s="48"/>
+      <c r="G186" s="63"/>
+      <c r="H186" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="187" spans="1:8">
-      <c r="A187" s="42" t="s">
+      <c r="A187" s="32" t="s">
+        <v>378</v>
+      </c>
+      <c r="B187" s="3" t="s">
         <v>379</v>
-      </c>
-      <c r="B187" s="3" t="s">
-        <v>380</v>
       </c>
       <c r="C187" s="13"/>
       <c r="D187" s="20"/>
-      <c r="E187" s="44"/>
-      <c r="F187" s="58"/>
-      <c r="G187" s="36"/>
-      <c r="H187" s="17"/>
+      <c r="E187" s="34"/>
+      <c r="F187" s="48"/>
+      <c r="G187" s="63"/>
+      <c r="H187" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="188" spans="1:8">
-      <c r="A188" s="42" t="s">
+      <c r="A188" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="B188" s="3" t="s">
         <v>381</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>382</v>
       </c>
       <c r="C188" s="13"/>
       <c r="D188" s="20"/>
-      <c r="E188" s="44"/>
-      <c r="F188" s="58"/>
-      <c r="G188" s="36"/>
-      <c r="H188" s="17"/>
+      <c r="E188" s="34"/>
+      <c r="F188" s="48"/>
+      <c r="G188" s="63"/>
+      <c r="H188" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="189" spans="1:8">
-      <c r="A189" s="42" t="s">
+      <c r="A189" s="32" t="s">
+        <v>382</v>
+      </c>
+      <c r="B189" s="3" t="s">
         <v>383</v>
-      </c>
-      <c r="B189" s="3" t="s">
-        <v>384</v>
       </c>
       <c r="C189" s="13"/>
       <c r="D189" s="20"/>
-      <c r="E189" s="44"/>
-      <c r="F189" s="58"/>
-      <c r="G189" s="36"/>
-      <c r="H189" s="17"/>
+      <c r="E189" s="34"/>
+      <c r="F189" s="48"/>
+      <c r="G189" s="63"/>
+      <c r="H189" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="190" spans="1:8">
-      <c r="A190" s="42" t="s">
+      <c r="A190" s="32" t="s">
+        <v>384</v>
+      </c>
+      <c r="B190" s="3" t="s">
         <v>385</v>
-      </c>
-      <c r="B190" s="3" t="s">
-        <v>386</v>
       </c>
       <c r="C190" s="13"/>
       <c r="D190" s="20"/>
-      <c r="E190" s="44"/>
-      <c r="F190" s="58"/>
-      <c r="G190" s="36"/>
-      <c r="H190" s="17"/>
+      <c r="E190" s="34"/>
+      <c r="F190" s="48"/>
+      <c r="G190" s="63"/>
+      <c r="H190" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="191" spans="1:8">
-      <c r="A191" s="42" t="s">
+      <c r="A191" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="B191" s="3" t="s">
         <v>387</v>
-      </c>
-      <c r="B191" s="3" t="s">
-        <v>388</v>
       </c>
       <c r="C191" s="13"/>
       <c r="D191" s="20"/>
-      <c r="E191" s="44"/>
-      <c r="F191" s="58"/>
-      <c r="G191" s="36"/>
-      <c r="H191" s="17"/>
+      <c r="E191" s="34"/>
+      <c r="F191" s="48"/>
+      <c r="G191" s="63"/>
+      <c r="H191" s="65">
+        <v>50</v>
+      </c>
     </row>
     <row r="192" spans="1:8">
-      <c r="A192" s="42" t="s">
+      <c r="A192" s="32" t="s">
+        <v>388</v>
+      </c>
+      <c r="B192" s="3" t="s">
         <v>389</v>
-      </c>
-      <c r="B192" s="3" t="s">
-        <v>390</v>
       </c>
       <c r="C192" s="13"/>
       <c r="D192" s="20"/>
-      <c r="E192" s="44"/>
-      <c r="F192" s="58"/>
-      <c r="G192" s="36"/>
-      <c r="H192" s="17"/>
+      <c r="E192" s="34"/>
+      <c r="F192" s="48"/>
+      <c r="G192" s="63"/>
+      <c r="H192" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="193" spans="1:8">
-      <c r="A193" s="42" t="s">
+      <c r="A193" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="B193" s="3" t="s">
         <v>391</v>
-      </c>
-      <c r="B193" s="3" t="s">
-        <v>392</v>
       </c>
       <c r="C193" s="13"/>
       <c r="D193" s="20"/>
-      <c r="E193" s="44"/>
-      <c r="F193" s="58"/>
-      <c r="G193" s="36"/>
-      <c r="H193" s="17"/>
+      <c r="E193" s="34"/>
+      <c r="F193" s="48"/>
+      <c r="G193" s="63"/>
+      <c r="H193" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="194" spans="1:8">
-      <c r="A194" s="42" t="s">
+      <c r="A194" s="32" t="s">
+        <v>392</v>
+      </c>
+      <c r="B194" s="3" t="s">
         <v>393</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>394</v>
       </c>
       <c r="C194" s="13"/>
       <c r="D194" s="20"/>
-      <c r="E194" s="48"/>
-      <c r="F194" s="58"/>
-      <c r="G194" s="36"/>
-      <c r="H194" s="17"/>
+      <c r="E194" s="38"/>
+      <c r="F194" s="48"/>
+      <c r="G194" s="63"/>
+      <c r="H194" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="195" spans="1:8">
-      <c r="A195" s="42" t="s">
+      <c r="A195" s="32" t="s">
+        <v>394</v>
+      </c>
+      <c r="B195" s="3" t="s">
         <v>395</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>396</v>
       </c>
       <c r="C195" s="13"/>
       <c r="D195" s="20"/>
-      <c r="E195" s="48"/>
-      <c r="F195" s="58"/>
-      <c r="G195" s="36"/>
-      <c r="H195" s="17"/>
+      <c r="E195" s="38"/>
+      <c r="F195" s="48"/>
+      <c r="G195" s="63"/>
+      <c r="H195" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="196" spans="1:8">
-      <c r="A196" s="42" t="s">
+      <c r="A196" s="32" t="s">
+        <v>396</v>
+      </c>
+      <c r="B196" s="3" t="s">
         <v>397</v>
-      </c>
-      <c r="B196" s="3" t="s">
-        <v>398</v>
       </c>
       <c r="C196" s="13"/>
       <c r="D196" s="20"/>
-      <c r="E196" s="44"/>
-      <c r="F196" s="58"/>
-      <c r="G196" s="36"/>
-      <c r="H196" s="17"/>
+      <c r="E196" s="34"/>
+      <c r="F196" s="48"/>
+      <c r="G196" s="63"/>
+      <c r="H196" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="197" spans="1:8">
-      <c r="A197" s="42" t="s">
+      <c r="A197" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="B197" s="3" t="s">
         <v>399</v>
-      </c>
-      <c r="B197" s="3" t="s">
-        <v>400</v>
       </c>
       <c r="C197" s="13"/>
       <c r="D197" s="20"/>
-      <c r="E197" s="44"/>
-      <c r="F197" s="58"/>
-      <c r="G197" s="36"/>
-      <c r="H197" s="17"/>
+      <c r="E197" s="34"/>
+      <c r="F197" s="48"/>
+      <c r="G197" s="63"/>
+      <c r="H197" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="198" spans="1:8">
-      <c r="A198" s="42" t="s">
+      <c r="A198" s="32" t="s">
+        <v>400</v>
+      </c>
+      <c r="B198" s="3" t="s">
         <v>401</v>
-      </c>
-      <c r="B198" s="3" t="s">
-        <v>402</v>
       </c>
       <c r="C198" s="13"/>
       <c r="D198" s="20"/>
-      <c r="E198" s="44"/>
-      <c r="F198" s="58"/>
-      <c r="G198" s="36"/>
-      <c r="H198" s="17"/>
+      <c r="E198" s="34"/>
+      <c r="F198" s="48"/>
+      <c r="G198" s="63"/>
+      <c r="H198" s="65">
+        <v>100</v>
+      </c>
     </row>
     <row r="199" spans="1:8">
-      <c r="A199" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="B199" s="3" t="s">
+      <c r="A199" s="53" t="s">
+        <v>402</v>
+      </c>
+      <c r="B199" s="54" t="s">
         <v>403</v>
       </c>
       <c r="C199" s="14"/>
       <c r="D199" s="20"/>
-      <c r="E199" s="49"/>
-      <c r="F199" s="58"/>
-      <c r="G199" s="37"/>
-      <c r="H199" s="17"/>
+      <c r="E199" s="39"/>
+      <c r="F199" s="48"/>
+      <c r="G199" s="64"/>
+      <c r="H199" s="65">
+        <v>50</v>
+      </c>
     </row>
     <row r="200" spans="1:8" ht="15.75">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="13"/>
       <c r="D200" s="20"/>
-      <c r="E200" s="48"/>
-      <c r="F200" s="58"/>
-      <c r="G200" s="38"/>
+      <c r="E200" s="38"/>
+      <c r="F200" s="48"/>
+      <c r="G200" s="28"/>
       <c r="H200" s="17"/>
     </row>
     <row r="201" spans="1:8" ht="15.75">
@@ -4974,9 +5371,9 @@
       <c r="B201" s="6"/>
       <c r="C201" s="13"/>
       <c r="D201" s="20"/>
-      <c r="E201" s="46"/>
-      <c r="F201" s="58"/>
-      <c r="G201" s="38"/>
+      <c r="E201" s="36"/>
+      <c r="F201" s="48"/>
+      <c r="G201" s="28"/>
       <c r="H201" s="17"/>
     </row>
     <row r="202" spans="1:8" ht="15.75">
@@ -4985,8 +5382,8 @@
       <c r="C202" s="13"/>
       <c r="D202" s="20"/>
       <c r="E202" s="21"/>
-      <c r="F202" s="59"/>
-      <c r="G202" s="39"/>
+      <c r="F202" s="49"/>
+      <c r="G202" s="29"/>
       <c r="H202" s="17"/>
     </row>
     <row r="203" spans="1:8" ht="15.75">
@@ -4994,9 +5391,9 @@
       <c r="B203" s="9"/>
       <c r="C203" s="13"/>
       <c r="D203" s="20"/>
-      <c r="E203" s="50"/>
-      <c r="F203" s="59"/>
-      <c r="G203" s="41"/>
+      <c r="E203" s="40"/>
+      <c r="F203" s="49"/>
+      <c r="G203" s="31"/>
       <c r="H203" s="17"/>
     </row>
     <row r="204" spans="1:8" ht="15.75">
@@ -5004,9 +5401,9 @@
       <c r="B204" s="9"/>
       <c r="C204" s="13"/>
       <c r="D204" s="21"/>
-      <c r="E204" s="46"/>
-      <c r="F204" s="60"/>
-      <c r="G204" s="41"/>
+      <c r="E204" s="36"/>
+      <c r="F204" s="50"/>
+      <c r="G204" s="31"/>
       <c r="H204" s="17"/>
     </row>
     <row r="205" spans="1:8" ht="15.75">
@@ -5015,8 +5412,8 @@
       <c r="C205" s="13"/>
       <c r="D205" s="21"/>
       <c r="E205" s="21"/>
-      <c r="F205" s="59"/>
-      <c r="G205" s="41"/>
+      <c r="F205" s="49"/>
+      <c r="G205" s="31"/>
       <c r="H205" s="17"/>
     </row>
     <row r="206" spans="1:8" ht="15.75">
@@ -5024,9 +5421,9 @@
       <c r="B206" s="9"/>
       <c r="C206" s="13"/>
       <c r="D206" s="21"/>
-      <c r="E206" s="51"/>
-      <c r="F206" s="61"/>
-      <c r="G206" s="41"/>
+      <c r="E206" s="41"/>
+      <c r="F206" s="51"/>
+      <c r="G206" s="31"/>
       <c r="H206" s="17"/>
     </row>
     <row r="207" spans="1:8" ht="15.75">
@@ -5034,9 +5431,9 @@
       <c r="B207" s="2"/>
       <c r="C207" s="13"/>
       <c r="D207" s="21"/>
-      <c r="E207" s="50"/>
-      <c r="F207" s="62"/>
-      <c r="G207" s="41"/>
+      <c r="E207" s="40"/>
+      <c r="F207" s="52"/>
+      <c r="G207" s="31"/>
       <c r="H207" s="18"/>
     </row>
     <row r="208" spans="1:8" ht="15.75">
@@ -5045,8 +5442,8 @@
       <c r="C208" s="13"/>
       <c r="D208" s="26"/>
       <c r="E208" s="21"/>
-      <c r="F208" s="62"/>
-      <c r="G208" s="41"/>
+      <c r="F208" s="52"/>
+      <c r="G208" s="31"/>
       <c r="H208" s="18"/>
     </row>
     <row r="209" spans="1:8" ht="15.75">
@@ -5055,8 +5452,8 @@
       <c r="C209" s="13"/>
       <c r="D209" s="21"/>
       <c r="E209" s="21"/>
-      <c r="F209" s="62"/>
-      <c r="G209" s="41"/>
+      <c r="F209" s="52"/>
+      <c r="G209" s="31"/>
       <c r="H209" s="18"/>
     </row>
     <row r="210" spans="1:8" ht="15.75">
@@ -5065,8 +5462,8 @@
       <c r="C210" s="13"/>
       <c r="D210" s="21"/>
       <c r="E210" s="21"/>
-      <c r="F210" s="62"/>
-      <c r="G210" s="41"/>
+      <c r="F210" s="52"/>
+      <c r="G210" s="31"/>
       <c r="H210" s="18"/>
     </row>
     <row r="211" spans="1:8" ht="15.75">
@@ -5075,8 +5472,8 @@
       <c r="C211" s="13"/>
       <c r="D211" s="26"/>
       <c r="E211" s="21"/>
-      <c r="F211" s="62"/>
-      <c r="G211" s="41"/>
+      <c r="F211" s="52"/>
+      <c r="G211" s="31"/>
       <c r="H211" s="18"/>
     </row>
     <row r="212" spans="1:8" ht="15.75">
@@ -5085,8 +5482,8 @@
       <c r="C212" s="13"/>
       <c r="D212" s="27"/>
       <c r="E212" s="21"/>
-      <c r="F212" s="62"/>
-      <c r="G212" s="41"/>
+      <c r="F212" s="52"/>
+      <c r="G212" s="31"/>
       <c r="H212" s="18"/>
     </row>
     <row r="213" spans="1:8" ht="15.75">
@@ -5095,8 +5492,8 @@
       <c r="C213" s="13"/>
       <c r="D213" s="27"/>
       <c r="E213" s="21"/>
-      <c r="F213" s="62"/>
-      <c r="G213" s="41"/>
+      <c r="F213" s="52"/>
+      <c r="G213" s="31"/>
       <c r="H213" s="18"/>
     </row>
     <row r="214" spans="1:8" ht="15.75">
@@ -5105,8 +5502,8 @@
       <c r="C214" s="13"/>
       <c r="D214" s="13"/>
       <c r="E214" s="21"/>
-      <c r="F214" s="62"/>
-      <c r="G214" s="41"/>
+      <c r="F214" s="52"/>
+      <c r="G214" s="31"/>
       <c r="H214" s="18"/>
     </row>
     <row r="215" spans="1:8" ht="15.75">
@@ -5114,9 +5511,9 @@
       <c r="B215" s="2"/>
       <c r="C215" s="13"/>
       <c r="D215" s="20"/>
-      <c r="E215" s="50"/>
-      <c r="F215" s="62"/>
-      <c r="G215" s="41"/>
+      <c r="E215" s="40"/>
+      <c r="F215" s="52"/>
+      <c r="G215" s="31"/>
       <c r="H215" s="18"/>
     </row>
     <row r="216" spans="1:8" ht="15.75">
@@ -5125,8 +5522,8 @@
       <c r="C216" s="13"/>
       <c r="D216" s="26"/>
       <c r="E216" s="21"/>
-      <c r="F216" s="59"/>
-      <c r="G216" s="41"/>
+      <c r="F216" s="49"/>
+      <c r="G216" s="31"/>
       <c r="H216" s="18"/>
     </row>
     <row r="217" spans="1:8" ht="15.75">
@@ -5134,9 +5531,9 @@
       <c r="B217" s="9"/>
       <c r="C217" s="13"/>
       <c r="D217" s="27"/>
-      <c r="E217" s="46"/>
-      <c r="F217" s="60"/>
-      <c r="G217" s="41"/>
+      <c r="E217" s="36"/>
+      <c r="F217" s="50"/>
+      <c r="G217" s="31"/>
       <c r="H217" s="18"/>
     </row>
     <row r="218" spans="1:8">
@@ -5145,8 +5542,8 @@
       <c r="C218" s="15"/>
       <c r="D218" s="15"/>
       <c r="E218" s="21"/>
-      <c r="F218" s="59"/>
-      <c r="G218" s="41"/>
+      <c r="F218" s="49"/>
+      <c r="G218" s="31"/>
       <c r="H218" s="18"/>
     </row>
     <row r="219" spans="1:8">
@@ -5155,8 +5552,8 @@
       <c r="C219" s="15"/>
       <c r="D219" s="15"/>
       <c r="E219" s="21"/>
-      <c r="F219" s="60"/>
-      <c r="G219" s="41"/>
+      <c r="F219" s="50"/>
+      <c r="G219" s="31"/>
       <c r="H219" s="18"/>
     </row>
     <row r="220" spans="1:8">
@@ -5165,8 +5562,8 @@
       <c r="C220" s="15"/>
       <c r="D220" s="15"/>
       <c r="E220" s="21"/>
-      <c r="F220" s="60"/>
-      <c r="G220" s="41"/>
+      <c r="F220" s="50"/>
+      <c r="G220" s="31"/>
       <c r="H220" s="18"/>
     </row>
     <row r="221" spans="1:8">
@@ -5175,18 +5572,18 @@
       <c r="C221" s="15"/>
       <c r="D221" s="15"/>
       <c r="E221" s="21"/>
-      <c r="F221" s="60"/>
-      <c r="G221" s="41"/>
+      <c r="F221" s="50"/>
+      <c r="G221" s="31"/>
       <c r="H221" s="18"/>
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="15"/>
       <c r="B222" s="15"/>
       <c r="C222" s="15"/>
-      <c r="D222" s="42"/>
+      <c r="D222" s="32"/>
       <c r="E222" s="21"/>
-      <c r="F222" s="60"/>
-      <c r="G222" s="41"/>
+      <c r="F222" s="50"/>
+      <c r="G222" s="31"/>
       <c r="H222" s="18"/>
     </row>
     <row r="223" spans="1:8">
@@ -5195,8 +5592,8 @@
       <c r="C223" s="15"/>
       <c r="D223" s="15"/>
       <c r="E223" s="21"/>
-      <c r="F223" s="60"/>
-      <c r="G223" s="41"/>
+      <c r="F223" s="50"/>
+      <c r="G223" s="31"/>
       <c r="H223" s="18"/>
     </row>
     <row r="224" spans="1:8">
@@ -5205,18 +5602,18 @@
       <c r="C224" s="15"/>
       <c r="D224" s="15"/>
       <c r="E224" s="21"/>
-      <c r="F224" s="60"/>
-      <c r="G224" s="41"/>
+      <c r="F224" s="50"/>
+      <c r="G224" s="31"/>
       <c r="H224" s="18"/>
     </row>
     <row r="225" spans="1:8" ht="15.75">
-      <c r="A225" s="40"/>
+      <c r="A225" s="30"/>
       <c r="B225" s="15"/>
       <c r="C225" s="15"/>
       <c r="D225" s="15"/>
       <c r="E225" s="21"/>
-      <c r="F225" s="60"/>
-      <c r="G225" s="41"/>
+      <c r="F225" s="50"/>
+      <c r="G225" s="31"/>
       <c r="H225" s="18"/>
     </row>
     <row r="226" spans="1:8">
@@ -5225,8 +5622,8 @@
       <c r="C226" s="15"/>
       <c r="D226" s="15"/>
       <c r="E226" s="21"/>
-      <c r="F226" s="60"/>
-      <c r="G226" s="41"/>
+      <c r="F226" s="50"/>
+      <c r="G226" s="31"/>
       <c r="H226" s="18"/>
     </row>
   </sheetData>
@@ -5242,15 +5639,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FDB710AC8133AA498CBE2CD8804BFA17" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4eb3d0237cfa0d187f5d6a045860a182">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a5132194-61b6-4507-86ae-3af00c68c385" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="53ffbac00c82fc65a20b2fe1c6581f58" ns2:_="">
     <xsd:import namespace="a5132194-61b6-4507-86ae-3af00c68c385"/>
@@ -5394,6 +5782,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B92832D-94CC-4C5E-A4E8-2D2A44869573}">
   <ds:schemaRefs>
@@ -5411,13 +5808,13 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FD49CE-D196-4C00-BC5E-382EDDDD004F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F334BD5B-9873-472F-B0A9-4AE19CD21D29}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F334BD5B-9873-472F-B0A9-4AE19CD21D29}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FD49CE-D196-4C00-BC5E-382EDDDD004F}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/MC3020_E24.xlsx
+++ b/MC3020_E24.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="405">
   <si>
     <t xml:space="preserve"> Reg.number</t>
   </si>
@@ -1231,6 +1231,9 @@
   </si>
   <si>
     <t>AHAMED  B.S.S</t>
+  </si>
+  <si>
+    <t>100%</t>
   </si>
 </sst>
 </file>
@@ -1240,12 +1243,19 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1672,74 +1682,74 @@
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="10" borderId="10" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="10" borderId="10" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1748,116 +1758,117 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="14" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="60% - Accent1 2" xfId="1"/>
@@ -2149,8 +2160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="H198" sqref="H198"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2216,8 +2227,8 @@
       <c r="E3" s="34"/>
       <c r="F3" s="44"/>
       <c r="G3" s="56"/>
-      <c r="H3" s="65">
-        <v>100</v>
+      <c r="H3" s="66" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5633,12 +5644,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FDB710AC8133AA498CBE2CD8804BFA17" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4eb3d0237cfa0d187f5d6a045860a182">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a5132194-61b6-4507-86ae-3af00c68c385" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="53ffbac00c82fc65a20b2fe1c6581f58" ns2:_="">
     <xsd:import namespace="a5132194-61b6-4507-86ae-3af00c68c385"/>
@@ -5782,6 +5787,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5792,6 +5803,12 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F334BD5B-9873-472F-B0A9-4AE19CD21D29}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B92832D-94CC-4C5E-A4E8-2D2A44869573}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -5807,12 +5824,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F334BD5B-9873-472F-B0A9-4AE19CD21D29}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FD49CE-D196-4C00-BC5E-382EDDDD004F}">
   <ds:schemaRefs/>

--- a/MC3020_E24.xlsx
+++ b/MC3020_E24.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="404">
   <si>
     <t xml:space="preserve"> Reg.number</t>
   </si>
@@ -1231,9 +1231,6 @@
   </si>
   <si>
     <t>AHAMED  B.S.S</t>
-  </si>
-  <si>
-    <t>100%</t>
   </si>
 </sst>
 </file>
@@ -1243,19 +1240,12 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1333,31 +1323,36 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1682,74 +1677,74 @@
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="10" borderId="10" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="10" borderId="10" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1758,117 +1753,116 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="14" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="60% - Accent1 2" xfId="1"/>
@@ -2161,7 +2155,7 @@
   <dimension ref="A1:H226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2227,8 +2221,8 @@
       <c r="E3" s="34"/>
       <c r="F3" s="44"/>
       <c r="G3" s="56"/>
-      <c r="H3" s="66" t="s">
-        <v>404</v>
+      <c r="H3" s="65">
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5644,6 +5638,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FDB710AC8133AA498CBE2CD8804BFA17" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4eb3d0237cfa0d187f5d6a045860a182">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a5132194-61b6-4507-86ae-3af00c68c385" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="53ffbac00c82fc65a20b2fe1c6581f58" ns2:_="">
     <xsd:import namespace="a5132194-61b6-4507-86ae-3af00c68c385"/>
@@ -5787,23 +5796,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F334BD5B-9873-472F-B0A9-4AE19CD21D29}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FD49CE-D196-4C00-BC5E-382EDDDD004F}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -5825,7 +5819,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FD49CE-D196-4C00-BC5E-382EDDDD004F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F334BD5B-9873-472F-B0A9-4AE19CD21D29}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/MC3020_E24.xlsx
+++ b/MC3020_E24.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maids\OneDrive - University of Jaffna\Documents\GitHub\MC3020_Attendance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maids.jfn\Documents\GitHub\MC3020_Attendance\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2155,7 +2155,7 @@
   <dimension ref="A1:H226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5638,21 +5638,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FDB710AC8133AA498CBE2CD8804BFA17" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4eb3d0237cfa0d187f5d6a045860a182">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a5132194-61b6-4507-86ae-3af00c68c385" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="53ffbac00c82fc65a20b2fe1c6581f58" ns2:_="">
     <xsd:import namespace="a5132194-61b6-4507-86ae-3af00c68c385"/>
@@ -5796,13 +5787,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FD49CE-D196-4C00-BC5E-382EDDDD004F}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B92832D-94CC-4C5E-A4E8-2D2A44869573}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -5818,8 +5812,14 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F334BD5B-9873-472F-B0A9-4AE19CD21D29}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FD49CE-D196-4C00-BC5E-382EDDDD004F}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
--- a/MC3020_E24.xlsx
+++ b/MC3020_E24.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="406">
   <si>
     <t xml:space="preserve"> Reg.number</t>
   </si>
@@ -1231,6 +1231,12 @@
   </si>
   <si>
     <t>AHAMED  B.S.S</t>
+  </si>
+  <si>
+    <t>2023/E/189</t>
+  </si>
+  <si>
+    <t>SAMARANAYAKE S.R.M.M.D.</t>
   </si>
 </sst>
 </file>
@@ -1434,7 +1440,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1674,6 +1680,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1688,7 +1707,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1863,6 +1882,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="60% - Accent1 2" xfId="1"/>
@@ -2155,7 +2180,7 @@
   <dimension ref="A1:H226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="J192" sqref="J192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2206,7 +2231,7 @@
       <c r="F2" s="43"/>
       <c r="G2" s="55"/>
       <c r="H2" s="65">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2222,7 +2247,7 @@
       <c r="F3" s="44"/>
       <c r="G3" s="56"/>
       <c r="H3" s="65">
-        <v>100</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2238,7 +2263,7 @@
       <c r="F4" s="44"/>
       <c r="G4" s="57"/>
       <c r="H4" s="65">
-        <v>50</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2254,7 +2279,7 @@
       <c r="F5" s="44"/>
       <c r="G5" s="57"/>
       <c r="H5" s="65">
-        <v>0</v>
+        <v>16.669999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2286,7 +2311,7 @@
       <c r="F7" s="44"/>
       <c r="G7" s="57"/>
       <c r="H7" s="65">
-        <v>0</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2318,7 +2343,7 @@
       <c r="F9" s="44"/>
       <c r="G9" s="57"/>
       <c r="H9" s="65">
-        <v>0</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2350,7 +2375,7 @@
       <c r="F11" s="44"/>
       <c r="G11" s="57"/>
       <c r="H11" s="65">
-        <v>0</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2366,7 +2391,7 @@
       <c r="F12" s="44"/>
       <c r="G12" s="57"/>
       <c r="H12" s="65">
-        <v>50</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2398,7 +2423,7 @@
       <c r="F14" s="44"/>
       <c r="G14" s="57"/>
       <c r="H14" s="65">
-        <v>50</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2414,7 +2439,7 @@
       <c r="F15" s="44"/>
       <c r="G15" s="57"/>
       <c r="H15" s="65">
-        <v>0</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2446,7 +2471,7 @@
       <c r="F17" s="42"/>
       <c r="G17" s="58"/>
       <c r="H17" s="65">
-        <v>0</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2462,7 +2487,7 @@
       <c r="F18" s="44"/>
       <c r="G18" s="57"/>
       <c r="H18" s="65">
-        <v>50</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2478,7 +2503,7 @@
       <c r="F19" s="44"/>
       <c r="G19" s="57"/>
       <c r="H19" s="65">
-        <v>100</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2494,7 +2519,7 @@
       <c r="F20" s="44"/>
       <c r="G20" s="57"/>
       <c r="H20" s="65">
-        <v>50</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2542,7 +2567,7 @@
       <c r="F23" s="44"/>
       <c r="G23" s="57"/>
       <c r="H23" s="65">
-        <v>0</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2558,7 +2583,7 @@
       <c r="F24" s="44"/>
       <c r="G24" s="57"/>
       <c r="H24" s="65">
-        <v>50</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2574,7 +2599,7 @@
       <c r="F25" s="44"/>
       <c r="G25" s="57"/>
       <c r="H25" s="65">
-        <v>50</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2606,7 +2631,7 @@
       <c r="F27" s="44"/>
       <c r="G27" s="57"/>
       <c r="H27" s="65">
-        <v>0</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2622,7 +2647,7 @@
       <c r="F28" s="44"/>
       <c r="G28" s="57"/>
       <c r="H28" s="65">
-        <v>50</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2654,7 +2679,7 @@
       <c r="F30" s="44"/>
       <c r="G30" s="57"/>
       <c r="H30" s="65">
-        <v>0</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2670,7 +2695,7 @@
       <c r="F31" s="44"/>
       <c r="G31" s="57"/>
       <c r="H31" s="65">
-        <v>50</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2686,7 +2711,7 @@
       <c r="F32" s="44"/>
       <c r="G32" s="59"/>
       <c r="H32" s="65">
-        <v>50</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2702,7 +2727,7 @@
       <c r="F33" s="44"/>
       <c r="G33" s="57"/>
       <c r="H33" s="65">
-        <v>50</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2718,7 +2743,7 @@
       <c r="F34" s="44"/>
       <c r="G34" s="57"/>
       <c r="H34" s="65">
-        <v>50</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2734,7 +2759,7 @@
       <c r="F35" s="44"/>
       <c r="G35" s="57"/>
       <c r="H35" s="65">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2766,7 +2791,7 @@
       <c r="F37" s="44"/>
       <c r="G37" s="57"/>
       <c r="H37" s="65">
-        <v>100</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2782,7 +2807,7 @@
       <c r="F38" s="44"/>
       <c r="G38" s="57"/>
       <c r="H38" s="65">
-        <v>50</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2830,7 +2855,7 @@
       <c r="F41" s="44"/>
       <c r="G41" s="57"/>
       <c r="H41" s="65">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2846,7 +2871,7 @@
       <c r="F42" s="44"/>
       <c r="G42" s="57"/>
       <c r="H42" s="65">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2862,7 +2887,7 @@
       <c r="F43" s="44"/>
       <c r="G43" s="57"/>
       <c r="H43" s="65">
-        <v>50</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2878,7 +2903,7 @@
       <c r="F44" s="44"/>
       <c r="G44" s="57"/>
       <c r="H44" s="65">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2910,7 +2935,7 @@
       <c r="F46" s="44"/>
       <c r="G46" s="57"/>
       <c r="H46" s="65">
-        <v>0</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2942,7 +2967,7 @@
       <c r="F48" s="44"/>
       <c r="G48" s="57"/>
       <c r="H48" s="65">
-        <v>50</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2958,7 +2983,7 @@
       <c r="F49" s="44"/>
       <c r="G49" s="59"/>
       <c r="H49" s="65">
-        <v>0</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2974,7 +2999,7 @@
       <c r="F50" s="44"/>
       <c r="G50" s="57"/>
       <c r="H50" s="65">
-        <v>50</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3006,7 +3031,7 @@
       <c r="F52" s="44"/>
       <c r="G52" s="57"/>
       <c r="H52" s="65">
-        <v>0</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3022,7 +3047,7 @@
       <c r="F53" s="44"/>
       <c r="G53" s="57"/>
       <c r="H53" s="65">
-        <v>50</v>
+        <v>16.669999999999998</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3038,7 +3063,7 @@
       <c r="F54" s="44"/>
       <c r="G54" s="57"/>
       <c r="H54" s="65">
-        <v>100</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3102,7 +3127,7 @@
       <c r="F58" s="44"/>
       <c r="G58" s="57"/>
       <c r="H58" s="65">
-        <v>0</v>
+        <v>16.669999999999998</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3134,7 +3159,7 @@
       <c r="F60" s="44"/>
       <c r="G60" s="57"/>
       <c r="H60" s="65">
-        <v>0</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3150,7 +3175,7 @@
       <c r="F61" s="45"/>
       <c r="G61" s="58"/>
       <c r="H61" s="65">
-        <v>0</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3166,7 +3191,7 @@
       <c r="F62" s="44"/>
       <c r="G62" s="57"/>
       <c r="H62" s="65">
-        <v>0</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3182,7 +3207,7 @@
       <c r="F63" s="44"/>
       <c r="G63" s="57"/>
       <c r="H63" s="65">
-        <v>0</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3246,7 +3271,7 @@
       <c r="F67" s="44"/>
       <c r="G67" s="57"/>
       <c r="H67" s="65">
-        <v>100</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3278,7 +3303,7 @@
       <c r="F69" s="44"/>
       <c r="G69" s="59"/>
       <c r="H69" s="65">
-        <v>50</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3294,7 +3319,7 @@
       <c r="F70" s="44"/>
       <c r="G70" s="57"/>
       <c r="H70" s="65">
-        <v>50</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3310,7 +3335,7 @@
       <c r="F71" s="44"/>
       <c r="G71" s="57"/>
       <c r="H71" s="65">
-        <v>0</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3390,7 +3415,7 @@
       <c r="F76" s="44"/>
       <c r="G76" s="57"/>
       <c r="H76" s="65">
-        <v>50</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3406,7 +3431,7 @@
       <c r="F77" s="44"/>
       <c r="G77" s="57"/>
       <c r="H77" s="65">
-        <v>0</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3422,7 +3447,7 @@
       <c r="F78" s="44"/>
       <c r="G78" s="57"/>
       <c r="H78" s="65">
-        <v>0</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3470,7 +3495,7 @@
       <c r="F81" s="44"/>
       <c r="G81" s="57"/>
       <c r="H81" s="65">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3486,7 +3511,7 @@
       <c r="F82" s="44"/>
       <c r="G82" s="57"/>
       <c r="H82" s="65">
-        <v>0</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3502,7 +3527,7 @@
       <c r="F83" s="44"/>
       <c r="G83" s="57"/>
       <c r="H83" s="65">
-        <v>0</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3534,7 +3559,7 @@
       <c r="F85" s="44"/>
       <c r="G85" s="57"/>
       <c r="H85" s="65">
-        <v>100</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3566,7 +3591,7 @@
       <c r="F87" s="44"/>
       <c r="G87" s="57"/>
       <c r="H87" s="65">
-        <v>50</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3582,7 +3607,7 @@
       <c r="F88" s="45"/>
       <c r="G88" s="58"/>
       <c r="H88" s="65">
-        <v>100</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3598,7 +3623,7 @@
       <c r="F89" s="44"/>
       <c r="G89" s="57"/>
       <c r="H89" s="65">
-        <v>100</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3614,7 +3639,7 @@
       <c r="F90" s="44"/>
       <c r="G90" s="57"/>
       <c r="H90" s="65">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3630,7 +3655,7 @@
       <c r="F91" s="44"/>
       <c r="G91" s="57"/>
       <c r="H91" s="65">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3646,7 +3671,7 @@
       <c r="F92" s="44"/>
       <c r="G92" s="57"/>
       <c r="H92" s="65">
-        <v>0</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3662,7 +3687,7 @@
       <c r="F93" s="44"/>
       <c r="G93" s="59"/>
       <c r="H93" s="65">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3710,7 +3735,7 @@
       <c r="F96" s="44"/>
       <c r="G96" s="57"/>
       <c r="H96" s="65">
-        <v>0</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3726,7 +3751,7 @@
       <c r="F97" s="44"/>
       <c r="G97" s="57"/>
       <c r="H97" s="65">
-        <v>0</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3758,7 +3783,7 @@
       <c r="F99" s="44"/>
       <c r="G99" s="57"/>
       <c r="H99" s="65">
-        <v>0</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3774,7 +3799,7 @@
       <c r="F100" s="45"/>
       <c r="G100" s="58"/>
       <c r="H100" s="65">
-        <v>50</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3790,7 +3815,7 @@
       <c r="F101" s="44"/>
       <c r="G101" s="57"/>
       <c r="H101" s="65">
-        <v>0</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3822,7 +3847,7 @@
       <c r="F103" s="44"/>
       <c r="G103" s="57"/>
       <c r="H103" s="65">
-        <v>0</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3870,7 +3895,7 @@
       <c r="F106" s="44"/>
       <c r="G106" s="57"/>
       <c r="H106" s="65">
-        <v>0</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3902,7 +3927,7 @@
       <c r="F108" s="44"/>
       <c r="G108" s="57"/>
       <c r="H108" s="65">
-        <v>0</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3918,7 +3943,7 @@
       <c r="F109" s="44"/>
       <c r="G109" s="57"/>
       <c r="H109" s="65">
-        <v>100</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3966,7 +3991,7 @@
       <c r="F112" s="44"/>
       <c r="G112" s="57"/>
       <c r="H112" s="65">
-        <v>0</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3982,7 +4007,7 @@
       <c r="F113" s="44"/>
       <c r="G113" s="57"/>
       <c r="H113" s="65">
-        <v>100</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3998,7 +4023,7 @@
       <c r="F114" s="44"/>
       <c r="G114" s="57"/>
       <c r="H114" s="65">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4014,7 +4039,7 @@
       <c r="F115" s="44"/>
       <c r="G115" s="57"/>
       <c r="H115" s="65">
-        <v>50</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4030,7 +4055,7 @@
       <c r="F116" s="44"/>
       <c r="G116" s="57"/>
       <c r="H116" s="65">
-        <v>0</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4046,7 +4071,7 @@
       <c r="F117" s="44"/>
       <c r="G117" s="57"/>
       <c r="H117" s="65">
-        <v>50</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4110,7 +4135,7 @@
       <c r="F121" s="44"/>
       <c r="G121" s="57"/>
       <c r="H121" s="65">
-        <v>0</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4126,7 +4151,7 @@
       <c r="F122" s="44"/>
       <c r="G122" s="57"/>
       <c r="H122" s="65">
-        <v>100</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4190,7 +4215,7 @@
       <c r="F126" s="44"/>
       <c r="G126" s="57"/>
       <c r="H126" s="65">
-        <v>0</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4206,7 +4231,7 @@
       <c r="F127" s="44"/>
       <c r="G127" s="57"/>
       <c r="H127" s="65">
-        <v>0</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4222,7 +4247,7 @@
       <c r="F128" s="44"/>
       <c r="G128" s="57"/>
       <c r="H128" s="65">
-        <v>100</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4254,7 +4279,7 @@
       <c r="F130" s="44"/>
       <c r="G130" s="57"/>
       <c r="H130" s="65">
-        <v>0</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4270,7 +4295,7 @@
       <c r="F131" s="44"/>
       <c r="G131" s="57"/>
       <c r="H131" s="65">
-        <v>100</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4286,7 +4311,7 @@
       <c r="F132" s="44"/>
       <c r="G132" s="57"/>
       <c r="H132" s="65">
-        <v>0</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4302,7 +4327,7 @@
       <c r="F133" s="44"/>
       <c r="G133" s="57"/>
       <c r="H133" s="65">
-        <v>100</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4318,7 +4343,7 @@
       <c r="F134" s="44"/>
       <c r="G134" s="57"/>
       <c r="H134" s="65">
-        <v>50</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4334,7 +4359,7 @@
       <c r="F135" s="44"/>
       <c r="G135" s="57"/>
       <c r="H135" s="65">
-        <v>50</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4350,7 +4375,7 @@
       <c r="F136" s="44"/>
       <c r="G136" s="57"/>
       <c r="H136" s="65">
-        <v>0</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4398,7 +4423,7 @@
       <c r="F139" s="44"/>
       <c r="G139" s="57"/>
       <c r="H139" s="65">
-        <v>100</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4462,7 +4487,7 @@
       <c r="F143" s="45"/>
       <c r="G143" s="58"/>
       <c r="H143" s="65">
-        <v>100</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4510,7 +4535,7 @@
       <c r="F146" s="44"/>
       <c r="G146" s="57"/>
       <c r="H146" s="65">
-        <v>0</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4526,7 +4551,7 @@
       <c r="F147" s="44"/>
       <c r="G147" s="57"/>
       <c r="H147" s="65">
-        <v>100</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4558,7 +4583,7 @@
       <c r="F149" s="44"/>
       <c r="G149" s="57"/>
       <c r="H149" s="65">
-        <v>50</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4574,7 +4599,7 @@
       <c r="F150" s="44"/>
       <c r="G150" s="57"/>
       <c r="H150" s="65">
-        <v>0</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4606,7 +4631,7 @@
       <c r="F152" s="44"/>
       <c r="G152" s="57"/>
       <c r="H152" s="65">
-        <v>0</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4638,7 +4663,7 @@
       <c r="F154" s="44"/>
       <c r="G154" s="57"/>
       <c r="H154" s="65">
-        <v>0</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4654,7 +4679,7 @@
       <c r="F155" s="44"/>
       <c r="G155" s="57"/>
       <c r="H155" s="65">
-        <v>0</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4670,7 +4695,7 @@
       <c r="F156" s="44"/>
       <c r="G156" s="57"/>
       <c r="H156" s="65">
-        <v>0</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4686,7 +4711,7 @@
       <c r="F157" s="46"/>
       <c r="G157" s="58"/>
       <c r="H157" s="65">
-        <v>0</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4718,7 +4743,7 @@
       <c r="F159" s="44"/>
       <c r="G159" s="57"/>
       <c r="H159" s="65">
-        <v>50</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4766,7 +4791,7 @@
       <c r="F162" s="44"/>
       <c r="G162" s="57"/>
       <c r="H162" s="65">
-        <v>0</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4782,7 +4807,7 @@
       <c r="F163" s="44"/>
       <c r="G163" s="57"/>
       <c r="H163" s="65">
-        <v>0</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4814,7 +4839,7 @@
       <c r="F165" s="44"/>
       <c r="G165" s="57"/>
       <c r="H165" s="65">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4830,7 +4855,7 @@
       <c r="F166" s="44"/>
       <c r="G166" s="57"/>
       <c r="H166" s="65">
-        <v>0</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4878,7 +4903,7 @@
       <c r="F169" s="44"/>
       <c r="G169" s="57"/>
       <c r="H169" s="65">
-        <v>0</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4894,7 +4919,7 @@
       <c r="F170" s="44"/>
       <c r="G170" s="57"/>
       <c r="H170" s="65">
-        <v>0</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4910,7 +4935,7 @@
       <c r="F171" s="44"/>
       <c r="G171" s="57"/>
       <c r="H171" s="65">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4942,7 +4967,7 @@
       <c r="F173" s="44"/>
       <c r="G173" s="60"/>
       <c r="H173" s="65">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4958,7 +4983,7 @@
       <c r="F174" s="44"/>
       <c r="G174" s="55"/>
       <c r="H174" s="65">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4974,7 +4999,7 @@
       <c r="F175" s="44"/>
       <c r="G175" s="55"/>
       <c r="H175" s="65">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5006,7 +5031,7 @@
       <c r="F177" s="44"/>
       <c r="G177" s="55"/>
       <c r="H177" s="65">
-        <v>50</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5022,7 +5047,7 @@
       <c r="F178" s="44"/>
       <c r="G178" s="55"/>
       <c r="H178" s="65">
-        <v>0</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5038,7 +5063,7 @@
       <c r="F179" s="47"/>
       <c r="G179" s="62"/>
       <c r="H179" s="65">
-        <v>50</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5086,7 +5111,7 @@
       <c r="F182" s="48"/>
       <c r="G182" s="63"/>
       <c r="H182" s="65">
-        <v>50</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5102,7 +5127,7 @@
       <c r="F183" s="48"/>
       <c r="G183" s="63"/>
       <c r="H183" s="65">
-        <v>0</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5118,7 +5143,7 @@
       <c r="F184" s="48"/>
       <c r="G184" s="63"/>
       <c r="H184" s="65">
-        <v>0</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5134,7 +5159,7 @@
       <c r="F185" s="48"/>
       <c r="G185" s="63"/>
       <c r="H185" s="65">
-        <v>50</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5150,7 +5175,7 @@
       <c r="F186" s="48"/>
       <c r="G186" s="63"/>
       <c r="H186" s="65">
-        <v>100</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5230,7 +5255,7 @@
       <c r="F191" s="48"/>
       <c r="G191" s="63"/>
       <c r="H191" s="65">
-        <v>50</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5294,7 +5319,7 @@
       <c r="F195" s="48"/>
       <c r="G195" s="63"/>
       <c r="H195" s="65">
-        <v>0</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5326,7 +5351,7 @@
       <c r="F197" s="48"/>
       <c r="G197" s="63"/>
       <c r="H197" s="65">
-        <v>0</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5346,11 +5371,11 @@
       </c>
     </row>
     <row r="199" spans="1:8">
-      <c r="A199" s="53" t="s">
-        <v>402</v>
-      </c>
-      <c r="B199" s="54" t="s">
-        <v>403</v>
+      <c r="A199" s="66" t="s">
+        <v>404</v>
+      </c>
+      <c r="B199" s="67" t="s">
+        <v>405</v>
       </c>
       <c r="C199" s="14"/>
       <c r="D199" s="20"/>
@@ -5358,18 +5383,24 @@
       <c r="F199" s="48"/>
       <c r="G199" s="64"/>
       <c r="H199" s="65">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" ht="15.75">
-      <c r="A200" s="2"/>
-      <c r="B200" s="2"/>
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200" s="53" t="s">
+        <v>402</v>
+      </c>
+      <c r="B200" s="54" t="s">
+        <v>403</v>
+      </c>
       <c r="C200" s="13"/>
       <c r="D200" s="20"/>
       <c r="E200" s="38"/>
       <c r="F200" s="48"/>
       <c r="G200" s="28"/>
-      <c r="H200" s="17"/>
+      <c r="H200" s="17">
+        <v>16.669999999999998</v>
+      </c>
     </row>
     <row r="201" spans="1:8" ht="15.75">
       <c r="A201" s="6"/>
@@ -5638,12 +5669,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FDB710AC8133AA498CBE2CD8804BFA17" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4eb3d0237cfa0d187f5d6a045860a182">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a5132194-61b6-4507-86ae-3af00c68c385" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="53ffbac00c82fc65a20b2fe1c6581f58" ns2:_="">
     <xsd:import namespace="a5132194-61b6-4507-86ae-3af00c68c385"/>
@@ -5787,6 +5812,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5797,6 +5828,12 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F334BD5B-9873-472F-B0A9-4AE19CD21D29}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B92832D-94CC-4C5E-A4E8-2D2A44869573}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -5812,12 +5849,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F334BD5B-9873-472F-B0A9-4AE19CD21D29}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FD49CE-D196-4C00-BC5E-382EDDDD004F}">
   <ds:schemaRefs/>

--- a/MC3020_E24.xlsx
+++ b/MC3020_E24.xlsx
@@ -2179,8 +2179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H226"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J192" sqref="J192"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="J201" sqref="J201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5398,7 +5398,7 @@
       <c r="E200" s="38"/>
       <c r="F200" s="48"/>
       <c r="G200" s="28"/>
-      <c r="H200" s="17">
+      <c r="H200" s="65">
         <v>16.669999999999998</v>
       </c>
     </row>
@@ -5669,6 +5669,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FDB710AC8133AA498CBE2CD8804BFA17" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4eb3d0237cfa0d187f5d6a045860a182">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a5132194-61b6-4507-86ae-3af00c68c385" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="53ffbac00c82fc65a20b2fe1c6581f58" ns2:_="">
     <xsd:import namespace="a5132194-61b6-4507-86ae-3af00c68c385"/>
@@ -5812,23 +5827,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F334BD5B-9873-472F-B0A9-4AE19CD21D29}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FD49CE-D196-4C00-BC5E-382EDDDD004F}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -5850,7 +5850,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FD49CE-D196-4C00-BC5E-382EDDDD004F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F334BD5B-9873-472F-B0A9-4AE19CD21D29}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/MC3020_E24.xlsx
+++ b/MC3020_E24.xlsx
@@ -2180,7 +2180,7 @@
   <dimension ref="A1:H226"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="J201" sqref="J201"/>
+      <selection activeCell="J187" sqref="J187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2231,7 +2231,7 @@
       <c r="F2" s="43"/>
       <c r="G2" s="55"/>
       <c r="H2" s="65">
-        <v>50</v>
+        <v>41.67</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2247,7 +2247,7 @@
       <c r="F3" s="44"/>
       <c r="G3" s="56"/>
       <c r="H3" s="65">
-        <v>83.33</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2295,7 +2295,7 @@
       <c r="F6" s="44"/>
       <c r="G6" s="57"/>
       <c r="H6" s="65">
-        <v>50</v>
+        <v>41.67</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2327,7 +2327,7 @@
       <c r="F8" s="44"/>
       <c r="G8" s="57"/>
       <c r="H8" s="65">
-        <v>100</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2359,7 +2359,7 @@
       <c r="F10" s="44"/>
       <c r="G10" s="57"/>
       <c r="H10" s="65">
-        <v>100</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2407,7 +2407,7 @@
       <c r="F13" s="44"/>
       <c r="G13" s="57"/>
       <c r="H13" s="65">
-        <v>100</v>
+        <v>90.91</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2439,7 +2439,7 @@
       <c r="F15" s="44"/>
       <c r="G15" s="57"/>
       <c r="H15" s="65">
-        <v>66.67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2487,7 +2487,7 @@
       <c r="F18" s="44"/>
       <c r="G18" s="57"/>
       <c r="H18" s="65">
-        <v>83.33</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2519,7 +2519,7 @@
       <c r="F20" s="44"/>
       <c r="G20" s="57"/>
       <c r="H20" s="65">
-        <v>83.33</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2535,7 +2535,7 @@
       <c r="F21" s="44"/>
       <c r="G21" s="57"/>
       <c r="H21" s="65">
-        <v>100</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2551,7 +2551,7 @@
       <c r="F22" s="44"/>
       <c r="G22" s="57"/>
       <c r="H22" s="65">
-        <v>100</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2567,7 +2567,7 @@
       <c r="F23" s="44"/>
       <c r="G23" s="57"/>
       <c r="H23" s="65">
-        <v>66.67</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2631,7 +2631,7 @@
       <c r="F27" s="44"/>
       <c r="G27" s="57"/>
       <c r="H27" s="65">
-        <v>66.67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2679,7 +2679,7 @@
       <c r="F30" s="44"/>
       <c r="G30" s="57"/>
       <c r="H30" s="65">
-        <v>66.67</v>
+        <v>58.330000000000005</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2695,7 +2695,7 @@
       <c r="F31" s="44"/>
       <c r="G31" s="57"/>
       <c r="H31" s="65">
-        <v>83.33</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2711,7 +2711,7 @@
       <c r="F32" s="44"/>
       <c r="G32" s="59"/>
       <c r="H32" s="65">
-        <v>83.33</v>
+        <v>58.330000000000005</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2727,7 +2727,7 @@
       <c r="F33" s="44"/>
       <c r="G33" s="57"/>
       <c r="H33" s="65">
-        <v>83.33</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2743,7 +2743,7 @@
       <c r="F34" s="44"/>
       <c r="G34" s="57"/>
       <c r="H34" s="65">
-        <v>83.33</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2759,7 +2759,7 @@
       <c r="F35" s="44"/>
       <c r="G35" s="57"/>
       <c r="H35" s="65">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2775,7 +2775,7 @@
       <c r="F36" s="44"/>
       <c r="G36" s="57"/>
       <c r="H36" s="65">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2807,7 +2807,7 @@
       <c r="F38" s="44"/>
       <c r="G38" s="57"/>
       <c r="H38" s="65">
-        <v>83.33</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2823,7 +2823,7 @@
       <c r="F39" s="44"/>
       <c r="G39" s="57"/>
       <c r="H39" s="65">
-        <v>100</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2855,7 +2855,7 @@
       <c r="F41" s="44"/>
       <c r="G41" s="57"/>
       <c r="H41" s="65">
-        <v>50</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2871,7 +2871,7 @@
       <c r="F42" s="44"/>
       <c r="G42" s="57"/>
       <c r="H42" s="65">
-        <v>50</v>
+        <v>58.330000000000005</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2887,7 +2887,7 @@
       <c r="F43" s="44"/>
       <c r="G43" s="57"/>
       <c r="H43" s="65">
-        <v>66.67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2903,7 +2903,7 @@
       <c r="F44" s="44"/>
       <c r="G44" s="57"/>
       <c r="H44" s="65">
-        <v>50</v>
+        <v>58.330000000000005</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2919,7 +2919,7 @@
       <c r="F45" s="44"/>
       <c r="G45" s="57"/>
       <c r="H45" s="65">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2935,7 +2935,7 @@
       <c r="F46" s="44"/>
       <c r="G46" s="57"/>
       <c r="H46" s="65">
-        <v>66.67</v>
+        <v>58.330000000000005</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2951,7 +2951,7 @@
       <c r="F47" s="44"/>
       <c r="G47" s="57"/>
       <c r="H47" s="65">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2967,7 +2967,7 @@
       <c r="F48" s="44"/>
       <c r="G48" s="57"/>
       <c r="H48" s="65">
-        <v>66.67</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2983,7 +2983,7 @@
       <c r="F49" s="44"/>
       <c r="G49" s="59"/>
       <c r="H49" s="65">
-        <v>33.33</v>
+        <v>16.669999999999998</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2999,7 +2999,7 @@
       <c r="F50" s="44"/>
       <c r="G50" s="57"/>
       <c r="H50" s="65">
-        <v>83.33</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3015,7 +3015,7 @@
       <c r="F51" s="44"/>
       <c r="G51" s="57"/>
       <c r="H51" s="65">
-        <v>100</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3031,7 +3031,7 @@
       <c r="F52" s="44"/>
       <c r="G52" s="57"/>
       <c r="H52" s="65">
-        <v>66.67</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3047,7 +3047,7 @@
       <c r="F53" s="44"/>
       <c r="G53" s="57"/>
       <c r="H53" s="65">
-        <v>16.669999999999998</v>
+        <v>41.67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3079,7 +3079,7 @@
       <c r="F55" s="44"/>
       <c r="G55" s="57"/>
       <c r="H55" s="65">
-        <v>100</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3111,7 +3111,7 @@
       <c r="F57" s="44"/>
       <c r="G57" s="57"/>
       <c r="H57" s="65">
-        <v>100</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3127,7 +3127,7 @@
       <c r="F58" s="44"/>
       <c r="G58" s="57"/>
       <c r="H58" s="65">
-        <v>16.669999999999998</v>
+        <v>41.67</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3143,7 +3143,7 @@
       <c r="F59" s="44"/>
       <c r="G59" s="57"/>
       <c r="H59" s="65">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3191,7 +3191,7 @@
       <c r="F62" s="44"/>
       <c r="G62" s="57"/>
       <c r="H62" s="65">
-        <v>66.67</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3255,7 +3255,7 @@
       <c r="F66" s="44"/>
       <c r="G66" s="57"/>
       <c r="H66" s="65">
-        <v>100</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3271,7 +3271,7 @@
       <c r="F67" s="44"/>
       <c r="G67" s="57"/>
       <c r="H67" s="65">
-        <v>83.33</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3287,7 +3287,7 @@
       <c r="F68" s="44"/>
       <c r="G68" s="57"/>
       <c r="H68" s="65">
-        <v>50</v>
+        <v>58.330000000000005</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3303,7 +3303,7 @@
       <c r="F69" s="44"/>
       <c r="G69" s="59"/>
       <c r="H69" s="65">
-        <v>66.67</v>
+        <v>58.330000000000005</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3319,7 +3319,7 @@
       <c r="F70" s="44"/>
       <c r="G70" s="57"/>
       <c r="H70" s="65">
-        <v>66.67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3335,7 +3335,7 @@
       <c r="F71" s="44"/>
       <c r="G71" s="57"/>
       <c r="H71" s="65">
-        <v>66.67</v>
+        <v>58.330000000000005</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3351,7 +3351,7 @@
       <c r="F72" s="44"/>
       <c r="G72" s="57"/>
       <c r="H72" s="65">
-        <v>50</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3367,7 +3367,7 @@
       <c r="F73" s="44"/>
       <c r="G73" s="57"/>
       <c r="H73" s="65">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3415,7 +3415,7 @@
       <c r="F76" s="44"/>
       <c r="G76" s="57"/>
       <c r="H76" s="65">
-        <v>66.67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3431,7 +3431,7 @@
       <c r="F77" s="44"/>
       <c r="G77" s="57"/>
       <c r="H77" s="65">
-        <v>33.33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3447,7 +3447,7 @@
       <c r="F78" s="44"/>
       <c r="G78" s="57"/>
       <c r="H78" s="65">
-        <v>66.67</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3479,7 +3479,7 @@
       <c r="F80" s="44"/>
       <c r="G80" s="57"/>
       <c r="H80" s="65">
-        <v>100</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3527,7 +3527,7 @@
       <c r="F83" s="44"/>
       <c r="G83" s="57"/>
       <c r="H83" s="65">
-        <v>66.67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3543,7 +3543,7 @@
       <c r="F84" s="44"/>
       <c r="G84" s="57"/>
       <c r="H84" s="65">
-        <v>100</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3575,7 +3575,7 @@
       <c r="F86" s="44"/>
       <c r="G86" s="59"/>
       <c r="H86" s="65">
-        <v>100</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3591,7 +3591,7 @@
       <c r="F87" s="44"/>
       <c r="G87" s="57"/>
       <c r="H87" s="65">
-        <v>66.67</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3607,7 +3607,7 @@
       <c r="F88" s="45"/>
       <c r="G88" s="58"/>
       <c r="H88" s="65">
-        <v>66.67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3639,7 +3639,7 @@
       <c r="F90" s="44"/>
       <c r="G90" s="57"/>
       <c r="H90" s="65">
-        <v>50</v>
+        <v>41.67</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3655,7 +3655,7 @@
       <c r="F91" s="44"/>
       <c r="G91" s="57"/>
       <c r="H91" s="65">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3671,7 +3671,7 @@
       <c r="F92" s="44"/>
       <c r="G92" s="57"/>
       <c r="H92" s="65">
-        <v>33.33</v>
+        <v>58.330000000000005</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3687,7 +3687,7 @@
       <c r="F93" s="44"/>
       <c r="G93" s="59"/>
       <c r="H93" s="65">
-        <v>50</v>
+        <v>58.330000000000005</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3703,7 +3703,7 @@
       <c r="F94" s="44"/>
       <c r="G94" s="57"/>
       <c r="H94" s="65">
-        <v>50</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3735,7 +3735,7 @@
       <c r="F96" s="44"/>
       <c r="G96" s="57"/>
       <c r="H96" s="65">
-        <v>66.67</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3751,7 +3751,7 @@
       <c r="F97" s="44"/>
       <c r="G97" s="57"/>
       <c r="H97" s="65">
-        <v>66.67</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3767,7 +3767,7 @@
       <c r="F98" s="44"/>
       <c r="G98" s="57"/>
       <c r="H98" s="65">
-        <v>100</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3783,7 +3783,7 @@
       <c r="F99" s="44"/>
       <c r="G99" s="57"/>
       <c r="H99" s="65">
-        <v>66.67</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3799,7 +3799,7 @@
       <c r="F100" s="45"/>
       <c r="G100" s="58"/>
       <c r="H100" s="65">
-        <v>83.33</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3815,7 +3815,7 @@
       <c r="F101" s="44"/>
       <c r="G101" s="57"/>
       <c r="H101" s="65">
-        <v>33.33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3847,7 +3847,7 @@
       <c r="F103" s="44"/>
       <c r="G103" s="57"/>
       <c r="H103" s="65">
-        <v>66.67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3863,7 +3863,7 @@
       <c r="F104" s="44"/>
       <c r="G104" s="59"/>
       <c r="H104" s="65">
-        <v>100</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3911,7 +3911,7 @@
       <c r="F107" s="44"/>
       <c r="G107" s="57"/>
       <c r="H107" s="65">
-        <v>100</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3927,7 +3927,7 @@
       <c r="F108" s="44"/>
       <c r="G108" s="57"/>
       <c r="H108" s="65">
-        <v>66.67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3943,7 +3943,7 @@
       <c r="F109" s="44"/>
       <c r="G109" s="57"/>
       <c r="H109" s="65">
-        <v>66.67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4023,7 +4023,7 @@
       <c r="F114" s="44"/>
       <c r="G114" s="57"/>
       <c r="H114" s="65">
-        <v>50</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4055,7 +4055,7 @@
       <c r="F116" s="44"/>
       <c r="G116" s="57"/>
       <c r="H116" s="65">
-        <v>66.67</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4071,7 +4071,7 @@
       <c r="F117" s="44"/>
       <c r="G117" s="57"/>
       <c r="H117" s="65">
-        <v>83.33</v>
+        <v>75</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4087,7 +4087,7 @@
       <c r="F118" s="44"/>
       <c r="G118" s="57"/>
       <c r="H118" s="65">
-        <v>100</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4103,7 +4103,7 @@
       <c r="F119" s="44"/>
       <c r="G119" s="57"/>
       <c r="H119" s="65">
-        <v>100</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4119,7 +4119,7 @@
       <c r="F120" s="44"/>
       <c r="G120" s="57"/>
       <c r="H120" s="65">
-        <v>100</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4183,7 +4183,7 @@
       <c r="F124" s="44"/>
       <c r="G124" s="57"/>
       <c r="H124" s="65">
-        <v>100</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4231,7 +4231,7 @@
       <c r="F127" s="44"/>
       <c r="G127" s="57"/>
       <c r="H127" s="65">
-        <v>66.67</v>
+        <v>58.330000000000005</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4247,7 +4247,7 @@
       <c r="F128" s="44"/>
       <c r="G128" s="57"/>
       <c r="H128" s="65">
-        <v>83.33</v>
+        <v>75</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4279,7 +4279,7 @@
       <c r="F130" s="44"/>
       <c r="G130" s="57"/>
       <c r="H130" s="65">
-        <v>66.67</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4295,7 +4295,7 @@
       <c r="F131" s="44"/>
       <c r="G131" s="57"/>
       <c r="H131" s="65">
-        <v>83.33</v>
+        <v>75</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4311,7 +4311,7 @@
       <c r="F132" s="44"/>
       <c r="G132" s="57"/>
       <c r="H132" s="65">
-        <v>66.67</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4327,7 +4327,7 @@
       <c r="F133" s="44"/>
       <c r="G133" s="57"/>
       <c r="H133" s="65">
-        <v>83.33</v>
+        <v>58.330000000000005</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4359,7 +4359,7 @@
       <c r="F135" s="44"/>
       <c r="G135" s="57"/>
       <c r="H135" s="65">
-        <v>66.67</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4375,7 +4375,7 @@
       <c r="F136" s="44"/>
       <c r="G136" s="57"/>
       <c r="H136" s="65">
-        <v>66.67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4391,7 +4391,7 @@
       <c r="F137" s="44"/>
       <c r="G137" s="57"/>
       <c r="H137" s="65">
-        <v>100</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4407,7 +4407,7 @@
       <c r="F138" s="45"/>
       <c r="G138" s="58"/>
       <c r="H138" s="65">
-        <v>100</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4423,7 +4423,7 @@
       <c r="F139" s="44"/>
       <c r="G139" s="57"/>
       <c r="H139" s="65">
-        <v>83.33</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4455,7 +4455,7 @@
       <c r="F141" s="44"/>
       <c r="G141" s="61"/>
       <c r="H141" s="65">
-        <v>100</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4487,7 +4487,7 @@
       <c r="F143" s="45"/>
       <c r="G143" s="58"/>
       <c r="H143" s="65">
-        <v>83.33</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4503,7 +4503,7 @@
       <c r="F144" s="44"/>
       <c r="G144" s="57"/>
       <c r="H144" s="65">
-        <v>100</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4519,7 +4519,7 @@
       <c r="F145" s="44"/>
       <c r="G145" s="57"/>
       <c r="H145" s="65">
-        <v>100</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4535,7 +4535,7 @@
       <c r="F146" s="44"/>
       <c r="G146" s="57"/>
       <c r="H146" s="65">
-        <v>66.67</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4567,7 +4567,7 @@
       <c r="F148" s="44"/>
       <c r="G148" s="57"/>
       <c r="H148" s="65">
-        <v>100</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4599,7 +4599,7 @@
       <c r="F150" s="44"/>
       <c r="G150" s="57"/>
       <c r="H150" s="65">
-        <v>66.67</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4615,7 +4615,7 @@
       <c r="F151" s="44"/>
       <c r="G151" s="57"/>
       <c r="H151" s="65">
-        <v>100</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4631,7 +4631,7 @@
       <c r="F152" s="44"/>
       <c r="G152" s="57"/>
       <c r="H152" s="65">
-        <v>66.67</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4663,7 +4663,7 @@
       <c r="F154" s="44"/>
       <c r="G154" s="57"/>
       <c r="H154" s="65">
-        <v>66.67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4679,7 +4679,7 @@
       <c r="F155" s="44"/>
       <c r="G155" s="57"/>
       <c r="H155" s="65">
-        <v>66.67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4695,7 +4695,7 @@
       <c r="F156" s="44"/>
       <c r="G156" s="57"/>
       <c r="H156" s="65">
-        <v>66.67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4743,7 +4743,7 @@
       <c r="F159" s="44"/>
       <c r="G159" s="57"/>
       <c r="H159" s="65">
-        <v>83.33</v>
+        <v>75</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4759,7 +4759,7 @@
       <c r="F160" s="44"/>
       <c r="G160" s="57"/>
       <c r="H160" s="65">
-        <v>100</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4791,7 +4791,7 @@
       <c r="F162" s="44"/>
       <c r="G162" s="57"/>
       <c r="H162" s="65">
-        <v>66.67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4807,7 +4807,7 @@
       <c r="F163" s="44"/>
       <c r="G163" s="57"/>
       <c r="H163" s="65">
-        <v>66.67</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4839,7 +4839,7 @@
       <c r="F165" s="44"/>
       <c r="G165" s="57"/>
       <c r="H165" s="65">
-        <v>50</v>
+        <v>58.330000000000005</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4855,7 +4855,7 @@
       <c r="F166" s="44"/>
       <c r="G166" s="57"/>
       <c r="H166" s="65">
-        <v>66.67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4871,7 +4871,7 @@
       <c r="F167" s="44"/>
       <c r="G167" s="57"/>
       <c r="H167" s="65">
-        <v>100</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4887,7 +4887,7 @@
       <c r="F168" s="44"/>
       <c r="G168" s="57"/>
       <c r="H168" s="65">
-        <v>100</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4951,7 +4951,7 @@
       <c r="F172" s="44"/>
       <c r="G172" s="57"/>
       <c r="H172" s="65">
-        <v>0</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5015,7 +5015,7 @@
       <c r="F176" s="44"/>
       <c r="G176" s="55"/>
       <c r="H176" s="65">
-        <v>100</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5031,7 +5031,7 @@
       <c r="F177" s="44"/>
       <c r="G177" s="55"/>
       <c r="H177" s="65">
-        <v>83.33</v>
+        <v>75</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5047,7 +5047,7 @@
       <c r="F178" s="44"/>
       <c r="G178" s="55"/>
       <c r="H178" s="65">
-        <v>66.67</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5063,7 +5063,7 @@
       <c r="F179" s="47"/>
       <c r="G179" s="62"/>
       <c r="H179" s="65">
-        <v>33.33</v>
+        <v>41.67</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5095,7 +5095,7 @@
       <c r="F181" s="48"/>
       <c r="G181" s="63"/>
       <c r="H181" s="65">
-        <v>100</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5111,7 +5111,7 @@
       <c r="F182" s="48"/>
       <c r="G182" s="63"/>
       <c r="H182" s="65">
-        <v>83.33</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5127,7 +5127,7 @@
       <c r="F183" s="48"/>
       <c r="G183" s="63"/>
       <c r="H183" s="65">
-        <v>33.33</v>
+        <v>41.67</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5143,7 +5143,7 @@
       <c r="F184" s="48"/>
       <c r="G184" s="63"/>
       <c r="H184" s="65">
-        <v>33.33</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5159,7 +5159,7 @@
       <c r="F185" s="48"/>
       <c r="G185" s="63"/>
       <c r="H185" s="65">
-        <v>33.33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5191,7 +5191,7 @@
       <c r="F187" s="48"/>
       <c r="G187" s="63"/>
       <c r="H187" s="65">
-        <v>100</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5255,7 +5255,7 @@
       <c r="F191" s="48"/>
       <c r="G191" s="63"/>
       <c r="H191" s="65">
-        <v>83.33</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5287,7 +5287,7 @@
       <c r="F193" s="48"/>
       <c r="G193" s="63"/>
       <c r="H193" s="65">
-        <v>100</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5303,7 +5303,7 @@
       <c r="F194" s="48"/>
       <c r="G194" s="63"/>
       <c r="H194" s="65">
-        <v>100</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5319,7 +5319,7 @@
       <c r="F195" s="48"/>
       <c r="G195" s="63"/>
       <c r="H195" s="65">
-        <v>66.67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5351,7 +5351,7 @@
       <c r="F197" s="48"/>
       <c r="G197" s="63"/>
       <c r="H197" s="65">
-        <v>33.33</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5367,7 +5367,7 @@
       <c r="F198" s="48"/>
       <c r="G198" s="63"/>
       <c r="H198" s="65">
-        <v>100</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5383,7 +5383,7 @@
       <c r="F199" s="48"/>
       <c r="G199" s="64"/>
       <c r="H199" s="65">
-        <v>66.67</v>
+        <v>58.330000000000005</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5399,7 +5399,7 @@
       <c r="F200" s="48"/>
       <c r="G200" s="28"/>
       <c r="H200" s="65">
-        <v>16.669999999999998</v>
+        <v>41.67</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="15.75">
@@ -5669,21 +5669,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FDB710AC8133AA498CBE2CD8804BFA17" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4eb3d0237cfa0d187f5d6a045860a182">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a5132194-61b6-4507-86ae-3af00c68c385" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="53ffbac00c82fc65a20b2fe1c6581f58" ns2:_="">
     <xsd:import namespace="a5132194-61b6-4507-86ae-3af00c68c385"/>
@@ -5827,8 +5812,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FD49CE-D196-4C00-BC5E-382EDDDD004F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F334BD5B-9873-472F-B0A9-4AE19CD21D29}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -5850,7 +5850,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F334BD5B-9873-472F-B0A9-4AE19CD21D29}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FD49CE-D196-4C00-BC5E-382EDDDD004F}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/MC3020_E24.xlsx
+++ b/MC3020_E24.xlsx
@@ -2179,8 +2179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="J187" sqref="J187"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="F197" sqref="F197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2231,7 +2231,7 @@
       <c r="F2" s="43"/>
       <c r="G2" s="55"/>
       <c r="H2" s="65">
-        <v>41.67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2247,7 +2247,7 @@
       <c r="F3" s="44"/>
       <c r="G3" s="56"/>
       <c r="H3" s="65">
-        <v>91.67</v>
+        <v>93.75</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2263,7 +2263,7 @@
       <c r="F4" s="44"/>
       <c r="G4" s="57"/>
       <c r="H4" s="65">
-        <v>83.33</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2279,7 +2279,7 @@
       <c r="F5" s="44"/>
       <c r="G5" s="57"/>
       <c r="H5" s="65">
-        <v>16.669999999999998</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2295,7 +2295,7 @@
       <c r="F6" s="44"/>
       <c r="G6" s="57"/>
       <c r="H6" s="65">
-        <v>41.67</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2311,7 +2311,7 @@
       <c r="F7" s="44"/>
       <c r="G7" s="57"/>
       <c r="H7" s="65">
-        <v>66.67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2327,7 +2327,7 @@
       <c r="F8" s="44"/>
       <c r="G8" s="57"/>
       <c r="H8" s="65">
-        <v>83.33</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2343,7 +2343,7 @@
       <c r="F9" s="44"/>
       <c r="G9" s="57"/>
       <c r="H9" s="65">
-        <v>66.67</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2359,7 +2359,7 @@
       <c r="F10" s="44"/>
       <c r="G10" s="57"/>
       <c r="H10" s="65">
-        <v>91.67</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2375,7 +2375,7 @@
       <c r="F11" s="44"/>
       <c r="G11" s="57"/>
       <c r="H11" s="65">
-        <v>66.67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2391,7 +2391,7 @@
       <c r="F12" s="44"/>
       <c r="G12" s="57"/>
       <c r="H12" s="65">
-        <v>66.67</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2407,7 +2407,7 @@
       <c r="F13" s="44"/>
       <c r="G13" s="57"/>
       <c r="H13" s="65">
-        <v>90.91</v>
+        <v>93.33</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2423,7 +2423,7 @@
       <c r="F14" s="44"/>
       <c r="G14" s="57"/>
       <c r="H14" s="65">
-        <v>83.33</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2439,7 +2439,7 @@
       <c r="F15" s="44"/>
       <c r="G15" s="57"/>
       <c r="H15" s="65">
-        <v>75</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2471,7 +2471,7 @@
       <c r="F17" s="42"/>
       <c r="G17" s="58"/>
       <c r="H17" s="65">
-        <v>66.67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2487,7 +2487,7 @@
       <c r="F18" s="44"/>
       <c r="G18" s="57"/>
       <c r="H18" s="65">
-        <v>91.67</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2503,7 +2503,7 @@
       <c r="F19" s="44"/>
       <c r="G19" s="57"/>
       <c r="H19" s="65">
-        <v>83.33</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2519,7 +2519,7 @@
       <c r="F20" s="44"/>
       <c r="G20" s="57"/>
       <c r="H20" s="65">
-        <v>91.67</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2535,7 +2535,7 @@
       <c r="F21" s="44"/>
       <c r="G21" s="57"/>
       <c r="H21" s="65">
-        <v>91.67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2551,7 +2551,7 @@
       <c r="F22" s="44"/>
       <c r="G22" s="57"/>
       <c r="H22" s="65">
-        <v>91.67</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2567,7 +2567,7 @@
       <c r="F23" s="44"/>
       <c r="G23" s="57"/>
       <c r="H23" s="65">
-        <v>83.33</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2583,7 +2583,7 @@
       <c r="F24" s="44"/>
       <c r="G24" s="57"/>
       <c r="H24" s="65">
-        <v>83.33</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2599,7 +2599,7 @@
       <c r="F25" s="44"/>
       <c r="G25" s="57"/>
       <c r="H25" s="65">
-        <v>83.33</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2615,7 +2615,7 @@
       <c r="F26" s="44"/>
       <c r="G26" s="57"/>
       <c r="H26" s="65">
-        <v>100</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2631,7 +2631,7 @@
       <c r="F27" s="44"/>
       <c r="G27" s="57"/>
       <c r="H27" s="65">
-        <v>75</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2647,7 +2647,7 @@
       <c r="F28" s="44"/>
       <c r="G28" s="57"/>
       <c r="H28" s="65">
-        <v>83.33</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2679,7 +2679,7 @@
       <c r="F30" s="44"/>
       <c r="G30" s="57"/>
       <c r="H30" s="65">
-        <v>58.330000000000005</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2695,7 +2695,7 @@
       <c r="F31" s="44"/>
       <c r="G31" s="57"/>
       <c r="H31" s="65">
-        <v>91.67</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2711,7 +2711,7 @@
       <c r="F32" s="44"/>
       <c r="G32" s="59"/>
       <c r="H32" s="65">
-        <v>58.330000000000005</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2727,7 +2727,7 @@
       <c r="F33" s="44"/>
       <c r="G33" s="57"/>
       <c r="H33" s="65">
-        <v>75</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2743,7 +2743,7 @@
       <c r="F34" s="44"/>
       <c r="G34" s="57"/>
       <c r="H34" s="65">
-        <v>91.67</v>
+        <v>93.75</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2775,7 +2775,7 @@
       <c r="F36" s="44"/>
       <c r="G36" s="57"/>
       <c r="H36" s="65">
-        <v>75</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2791,7 +2791,7 @@
       <c r="F37" s="44"/>
       <c r="G37" s="57"/>
       <c r="H37" s="65">
-        <v>83.33</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2807,7 +2807,7 @@
       <c r="F38" s="44"/>
       <c r="G38" s="57"/>
       <c r="H38" s="65">
-        <v>66.67</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2823,7 +2823,7 @@
       <c r="F39" s="44"/>
       <c r="G39" s="57"/>
       <c r="H39" s="65">
-        <v>83.33</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2839,7 +2839,7 @@
       <c r="F40" s="44"/>
       <c r="G40" s="57"/>
       <c r="H40" s="65">
-        <v>100</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2855,7 +2855,7 @@
       <c r="F41" s="44"/>
       <c r="G41" s="57"/>
       <c r="H41" s="65">
-        <v>33.33</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2871,7 +2871,7 @@
       <c r="F42" s="44"/>
       <c r="G42" s="57"/>
       <c r="H42" s="65">
-        <v>58.330000000000005</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2887,7 +2887,7 @@
       <c r="F43" s="44"/>
       <c r="G43" s="57"/>
       <c r="H43" s="65">
-        <v>50</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2903,7 +2903,7 @@
       <c r="F44" s="44"/>
       <c r="G44" s="57"/>
       <c r="H44" s="65">
-        <v>58.330000000000005</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2935,7 +2935,7 @@
       <c r="F46" s="44"/>
       <c r="G46" s="57"/>
       <c r="H46" s="65">
-        <v>58.330000000000005</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2967,7 +2967,7 @@
       <c r="F48" s="44"/>
       <c r="G48" s="57"/>
       <c r="H48" s="65">
-        <v>83.33</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2983,7 +2983,7 @@
       <c r="F49" s="44"/>
       <c r="G49" s="59"/>
       <c r="H49" s="65">
-        <v>16.669999999999998</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2999,7 +2999,7 @@
       <c r="F50" s="44"/>
       <c r="G50" s="57"/>
       <c r="H50" s="65">
-        <v>91.67</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3015,7 +3015,7 @@
       <c r="F51" s="44"/>
       <c r="G51" s="57"/>
       <c r="H51" s="65">
-        <v>91.67</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3031,7 +3031,7 @@
       <c r="F52" s="44"/>
       <c r="G52" s="57"/>
       <c r="H52" s="65">
-        <v>83.33</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3047,7 +3047,7 @@
       <c r="F53" s="44"/>
       <c r="G53" s="57"/>
       <c r="H53" s="65">
-        <v>41.67</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3063,7 +3063,7 @@
       <c r="F54" s="44"/>
       <c r="G54" s="57"/>
       <c r="H54" s="65">
-        <v>83.33</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3079,7 +3079,7 @@
       <c r="F55" s="44"/>
       <c r="G55" s="57"/>
       <c r="H55" s="65">
-        <v>83.33</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3111,7 +3111,7 @@
       <c r="F57" s="44"/>
       <c r="G57" s="57"/>
       <c r="H57" s="65">
-        <v>91.67</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3127,7 +3127,7 @@
       <c r="F58" s="44"/>
       <c r="G58" s="57"/>
       <c r="H58" s="65">
-        <v>41.67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3143,7 +3143,7 @@
       <c r="F59" s="44"/>
       <c r="G59" s="57"/>
       <c r="H59" s="65">
-        <v>75</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3159,7 +3159,7 @@
       <c r="F60" s="44"/>
       <c r="G60" s="57"/>
       <c r="H60" s="65">
-        <v>66.67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3175,7 +3175,7 @@
       <c r="F61" s="45"/>
       <c r="G61" s="58"/>
       <c r="H61" s="65">
-        <v>66.67</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3191,7 +3191,7 @@
       <c r="F62" s="44"/>
       <c r="G62" s="57"/>
       <c r="H62" s="65">
-        <v>83.33</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3207,7 +3207,7 @@
       <c r="F63" s="44"/>
       <c r="G63" s="57"/>
       <c r="H63" s="65">
-        <v>66.67</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3239,7 +3239,7 @@
       <c r="F65" s="44"/>
       <c r="G65" s="57"/>
       <c r="H65" s="65">
-        <v>100</v>
+        <v>93.75</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3255,7 +3255,7 @@
       <c r="F66" s="44"/>
       <c r="G66" s="57"/>
       <c r="H66" s="65">
-        <v>83.33</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3271,7 +3271,7 @@
       <c r="F67" s="44"/>
       <c r="G67" s="57"/>
       <c r="H67" s="65">
-        <v>91.67</v>
+        <v>93.75</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3287,7 +3287,7 @@
       <c r="F68" s="44"/>
       <c r="G68" s="57"/>
       <c r="H68" s="65">
-        <v>58.330000000000005</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3303,7 +3303,7 @@
       <c r="F69" s="44"/>
       <c r="G69" s="59"/>
       <c r="H69" s="65">
-        <v>58.330000000000005</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3335,7 +3335,7 @@
       <c r="F71" s="44"/>
       <c r="G71" s="57"/>
       <c r="H71" s="65">
-        <v>58.330000000000005</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3351,7 +3351,7 @@
       <c r="F72" s="44"/>
       <c r="G72" s="57"/>
       <c r="H72" s="65">
-        <v>66.67</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3367,7 +3367,7 @@
       <c r="F73" s="44"/>
       <c r="G73" s="57"/>
       <c r="H73" s="65">
-        <v>75</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3431,7 +3431,7 @@
       <c r="F77" s="44"/>
       <c r="G77" s="57"/>
       <c r="H77" s="65">
-        <v>50</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3447,7 +3447,7 @@
       <c r="F78" s="44"/>
       <c r="G78" s="57"/>
       <c r="H78" s="65">
-        <v>83.33</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3479,7 +3479,7 @@
       <c r="F80" s="44"/>
       <c r="G80" s="57"/>
       <c r="H80" s="65">
-        <v>91.67</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3511,7 +3511,7 @@
       <c r="F82" s="44"/>
       <c r="G82" s="57"/>
       <c r="H82" s="65">
-        <v>66.67</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3543,7 +3543,7 @@
       <c r="F84" s="44"/>
       <c r="G84" s="57"/>
       <c r="H84" s="65">
-        <v>91.67</v>
+        <v>93.75</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3559,7 +3559,7 @@
       <c r="F85" s="44"/>
       <c r="G85" s="57"/>
       <c r="H85" s="65">
-        <v>83.33</v>
+        <v>75</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3575,7 +3575,7 @@
       <c r="F86" s="44"/>
       <c r="G86" s="59"/>
       <c r="H86" s="65">
-        <v>91.67</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3591,7 +3591,7 @@
       <c r="F87" s="44"/>
       <c r="G87" s="57"/>
       <c r="H87" s="65">
-        <v>83.33</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3623,7 +3623,7 @@
       <c r="F89" s="44"/>
       <c r="G89" s="57"/>
       <c r="H89" s="65">
-        <v>83.33</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3639,7 +3639,7 @@
       <c r="F90" s="44"/>
       <c r="G90" s="57"/>
       <c r="H90" s="65">
-        <v>41.67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3655,7 +3655,7 @@
       <c r="F91" s="44"/>
       <c r="G91" s="57"/>
       <c r="H91" s="65">
-        <v>75</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3671,7 +3671,7 @@
       <c r="F92" s="44"/>
       <c r="G92" s="57"/>
       <c r="H92" s="65">
-        <v>58.330000000000005</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3687,7 +3687,7 @@
       <c r="F93" s="44"/>
       <c r="G93" s="59"/>
       <c r="H93" s="65">
-        <v>58.330000000000005</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3703,7 +3703,7 @@
       <c r="F94" s="44"/>
       <c r="G94" s="57"/>
       <c r="H94" s="65">
-        <v>66.67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3735,7 +3735,7 @@
       <c r="F96" s="44"/>
       <c r="G96" s="57"/>
       <c r="H96" s="65">
-        <v>83.33</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3751,7 +3751,7 @@
       <c r="F97" s="44"/>
       <c r="G97" s="57"/>
       <c r="H97" s="65">
-        <v>83.33</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3767,7 +3767,7 @@
       <c r="F98" s="44"/>
       <c r="G98" s="57"/>
       <c r="H98" s="65">
-        <v>66.67</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3783,7 +3783,7 @@
       <c r="F99" s="44"/>
       <c r="G99" s="57"/>
       <c r="H99" s="65">
-        <v>83.33</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3799,7 +3799,7 @@
       <c r="F100" s="45"/>
       <c r="G100" s="58"/>
       <c r="H100" s="65">
-        <v>66.67</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3863,7 +3863,7 @@
       <c r="F104" s="44"/>
       <c r="G104" s="59"/>
       <c r="H104" s="65">
-        <v>83.33</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3895,7 +3895,7 @@
       <c r="F106" s="44"/>
       <c r="G106" s="57"/>
       <c r="H106" s="65">
-        <v>66.67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3911,7 +3911,7 @@
       <c r="F107" s="44"/>
       <c r="G107" s="57"/>
       <c r="H107" s="65">
-        <v>91.67</v>
+        <v>93.75</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3943,7 +3943,7 @@
       <c r="F109" s="44"/>
       <c r="G109" s="57"/>
       <c r="H109" s="65">
-        <v>75</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3991,7 +3991,7 @@
       <c r="F112" s="44"/>
       <c r="G112" s="57"/>
       <c r="H112" s="65">
-        <v>66.67</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4007,7 +4007,7 @@
       <c r="F113" s="44"/>
       <c r="G113" s="57"/>
       <c r="H113" s="65">
-        <v>83.33</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4023,7 +4023,7 @@
       <c r="F114" s="44"/>
       <c r="G114" s="57"/>
       <c r="H114" s="65">
-        <v>66.67</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4039,7 +4039,7 @@
       <c r="F115" s="44"/>
       <c r="G115" s="57"/>
       <c r="H115" s="65">
-        <v>83.33</v>
+        <v>75</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4055,7 +4055,7 @@
       <c r="F116" s="44"/>
       <c r="G116" s="57"/>
       <c r="H116" s="65">
-        <v>83.33</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4071,7 +4071,7 @@
       <c r="F117" s="44"/>
       <c r="G117" s="57"/>
       <c r="H117" s="65">
-        <v>75</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4087,7 +4087,7 @@
       <c r="F118" s="44"/>
       <c r="G118" s="57"/>
       <c r="H118" s="65">
-        <v>91.67</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4103,7 +4103,7 @@
       <c r="F119" s="44"/>
       <c r="G119" s="57"/>
       <c r="H119" s="65">
-        <v>91.67</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4119,7 +4119,7 @@
       <c r="F120" s="44"/>
       <c r="G120" s="57"/>
       <c r="H120" s="65">
-        <v>91.67</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4135,7 +4135,7 @@
       <c r="F121" s="44"/>
       <c r="G121" s="57"/>
       <c r="H121" s="65">
-        <v>66.67</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4151,7 +4151,7 @@
       <c r="F122" s="44"/>
       <c r="G122" s="57"/>
       <c r="H122" s="65">
-        <v>83.33</v>
+        <v>75</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4183,7 +4183,7 @@
       <c r="F124" s="44"/>
       <c r="G124" s="57"/>
       <c r="H124" s="65">
-        <v>83.33</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4215,7 +4215,7 @@
       <c r="F126" s="44"/>
       <c r="G126" s="57"/>
       <c r="H126" s="65">
-        <v>66.67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4231,7 +4231,7 @@
       <c r="F127" s="44"/>
       <c r="G127" s="57"/>
       <c r="H127" s="65">
-        <v>58.330000000000005</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4247,7 +4247,7 @@
       <c r="F128" s="44"/>
       <c r="G128" s="57"/>
       <c r="H128" s="65">
-        <v>75</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4279,7 +4279,7 @@
       <c r="F130" s="44"/>
       <c r="G130" s="57"/>
       <c r="H130" s="65">
-        <v>83.33</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4295,7 +4295,7 @@
       <c r="F131" s="44"/>
       <c r="G131" s="57"/>
       <c r="H131" s="65">
-        <v>75</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4311,7 +4311,7 @@
       <c r="F132" s="44"/>
       <c r="G132" s="57"/>
       <c r="H132" s="65">
-        <v>83.33</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4327,7 +4327,7 @@
       <c r="F133" s="44"/>
       <c r="G133" s="57"/>
       <c r="H133" s="65">
-        <v>58.330000000000005</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4343,7 +4343,7 @@
       <c r="F134" s="44"/>
       <c r="G134" s="57"/>
       <c r="H134" s="65">
-        <v>83.33</v>
+        <v>75</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4359,7 +4359,7 @@
       <c r="F135" s="44"/>
       <c r="G135" s="57"/>
       <c r="H135" s="65">
-        <v>83.33</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4391,7 +4391,7 @@
       <c r="F137" s="44"/>
       <c r="G137" s="57"/>
       <c r="H137" s="65">
-        <v>91.67</v>
+        <v>93.75</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4407,7 +4407,7 @@
       <c r="F138" s="45"/>
       <c r="G138" s="58"/>
       <c r="H138" s="65">
-        <v>83.33</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4423,7 +4423,7 @@
       <c r="F139" s="44"/>
       <c r="G139" s="57"/>
       <c r="H139" s="65">
-        <v>91.67</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4455,7 +4455,7 @@
       <c r="F141" s="44"/>
       <c r="G141" s="61"/>
       <c r="H141" s="65">
-        <v>91.67</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4487,7 +4487,7 @@
       <c r="F143" s="45"/>
       <c r="G143" s="58"/>
       <c r="H143" s="65">
-        <v>91.67</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4503,7 +4503,7 @@
       <c r="F144" s="44"/>
       <c r="G144" s="57"/>
       <c r="H144" s="65">
-        <v>83.33</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4519,7 +4519,7 @@
       <c r="F145" s="44"/>
       <c r="G145" s="57"/>
       <c r="H145" s="65">
-        <v>91.67</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4535,7 +4535,7 @@
       <c r="F146" s="44"/>
       <c r="G146" s="57"/>
       <c r="H146" s="65">
-        <v>83.33</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4551,7 +4551,7 @@
       <c r="F147" s="44"/>
       <c r="G147" s="57"/>
       <c r="H147" s="65">
-        <v>83.33</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4567,7 +4567,7 @@
       <c r="F148" s="44"/>
       <c r="G148" s="57"/>
       <c r="H148" s="65">
-        <v>91.67</v>
+        <v>93.75</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4583,7 +4583,7 @@
       <c r="F149" s="44"/>
       <c r="G149" s="57"/>
       <c r="H149" s="65">
-        <v>83.33</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4599,7 +4599,7 @@
       <c r="F150" s="44"/>
       <c r="G150" s="57"/>
       <c r="H150" s="65">
-        <v>83.33</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4615,7 +4615,7 @@
       <c r="F151" s="44"/>
       <c r="G151" s="57"/>
       <c r="H151" s="65">
-        <v>91.67</v>
+        <v>93.75</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4631,7 +4631,7 @@
       <c r="F152" s="44"/>
       <c r="G152" s="57"/>
       <c r="H152" s="65">
-        <v>83.33</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4663,7 +4663,7 @@
       <c r="F154" s="44"/>
       <c r="G154" s="57"/>
       <c r="H154" s="65">
-        <v>75</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4679,7 +4679,7 @@
       <c r="F155" s="44"/>
       <c r="G155" s="57"/>
       <c r="H155" s="65">
-        <v>75</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4711,7 +4711,7 @@
       <c r="F157" s="46"/>
       <c r="G157" s="58"/>
       <c r="H157" s="65">
-        <v>66.67</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4727,7 +4727,7 @@
       <c r="F158" s="44"/>
       <c r="G158" s="57"/>
       <c r="H158" s="65">
-        <v>100</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4759,7 +4759,7 @@
       <c r="F160" s="44"/>
       <c r="G160" s="57"/>
       <c r="H160" s="65">
-        <v>91.67</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4791,7 +4791,7 @@
       <c r="F162" s="44"/>
       <c r="G162" s="57"/>
       <c r="H162" s="65">
-        <v>50</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4807,7 +4807,7 @@
       <c r="F163" s="44"/>
       <c r="G163" s="57"/>
       <c r="H163" s="65">
-        <v>83.33</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4839,7 +4839,7 @@
       <c r="F165" s="44"/>
       <c r="G165" s="57"/>
       <c r="H165" s="65">
-        <v>58.330000000000005</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4855,7 +4855,7 @@
       <c r="F166" s="44"/>
       <c r="G166" s="57"/>
       <c r="H166" s="65">
-        <v>75</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4871,7 +4871,7 @@
       <c r="F167" s="44"/>
       <c r="G167" s="57"/>
       <c r="H167" s="65">
-        <v>91.67</v>
+        <v>93.75</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4887,7 +4887,7 @@
       <c r="F168" s="44"/>
       <c r="G168" s="57"/>
       <c r="H168" s="65">
-        <v>83.33</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4903,7 +4903,7 @@
       <c r="F169" s="44"/>
       <c r="G169" s="57"/>
       <c r="H169" s="65">
-        <v>66.67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4919,7 +4919,7 @@
       <c r="F170" s="44"/>
       <c r="G170" s="57"/>
       <c r="H170" s="65">
-        <v>66.67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4935,7 +4935,7 @@
       <c r="F171" s="44"/>
       <c r="G171" s="57"/>
       <c r="H171" s="65">
-        <v>50</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4951,7 +4951,7 @@
       <c r="F172" s="44"/>
       <c r="G172" s="57"/>
       <c r="H172" s="65">
-        <v>8.33</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4967,7 +4967,7 @@
       <c r="F173" s="44"/>
       <c r="G173" s="60"/>
       <c r="H173" s="65">
-        <v>50</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4983,7 +4983,7 @@
       <c r="F174" s="44"/>
       <c r="G174" s="55"/>
       <c r="H174" s="65">
-        <v>50</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4999,7 +4999,7 @@
       <c r="F175" s="44"/>
       <c r="G175" s="55"/>
       <c r="H175" s="65">
-        <v>50</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5015,7 +5015,7 @@
       <c r="F176" s="44"/>
       <c r="G176" s="55"/>
       <c r="H176" s="65">
-        <v>91.67</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5047,7 +5047,7 @@
       <c r="F178" s="44"/>
       <c r="G178" s="55"/>
       <c r="H178" s="65">
-        <v>83.33</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5063,7 +5063,7 @@
       <c r="F179" s="47"/>
       <c r="G179" s="62"/>
       <c r="H179" s="65">
-        <v>41.67</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5095,7 +5095,7 @@
       <c r="F181" s="48"/>
       <c r="G181" s="63"/>
       <c r="H181" s="65">
-        <v>66.67</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5111,7 +5111,7 @@
       <c r="F182" s="48"/>
       <c r="G182" s="63"/>
       <c r="H182" s="65">
-        <v>66.67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5127,7 +5127,7 @@
       <c r="F183" s="48"/>
       <c r="G183" s="63"/>
       <c r="H183" s="65">
-        <v>41.67</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5143,7 +5143,7 @@
       <c r="F184" s="48"/>
       <c r="G184" s="63"/>
       <c r="H184" s="65">
-        <v>66.67</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5159,7 +5159,7 @@
       <c r="F185" s="48"/>
       <c r="G185" s="63"/>
       <c r="H185" s="65">
-        <v>50</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5175,7 +5175,7 @@
       <c r="F186" s="48"/>
       <c r="G186" s="63"/>
       <c r="H186" s="65">
-        <v>83.33</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5191,7 +5191,7 @@
       <c r="F187" s="48"/>
       <c r="G187" s="63"/>
       <c r="H187" s="65">
-        <v>91.67</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5239,7 +5239,7 @@
       <c r="F190" s="48"/>
       <c r="G190" s="63"/>
       <c r="H190" s="65">
-        <v>100</v>
+        <v>93.75</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5255,7 +5255,7 @@
       <c r="F191" s="48"/>
       <c r="G191" s="63"/>
       <c r="H191" s="65">
-        <v>66.67</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5287,7 +5287,7 @@
       <c r="F193" s="48"/>
       <c r="G193" s="63"/>
       <c r="H193" s="65">
-        <v>91.67</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5303,7 +5303,7 @@
       <c r="F194" s="48"/>
       <c r="G194" s="63"/>
       <c r="H194" s="65">
-        <v>91.67</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5351,7 +5351,7 @@
       <c r="F197" s="48"/>
       <c r="G197" s="63"/>
       <c r="H197" s="65">
-        <v>66.67</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5367,7 +5367,7 @@
       <c r="F198" s="48"/>
       <c r="G198" s="63"/>
       <c r="H198" s="65">
-        <v>91.67</v>
+        <v>93.75</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5383,7 +5383,7 @@
       <c r="F199" s="48"/>
       <c r="G199" s="64"/>
       <c r="H199" s="65">
-        <v>58.330000000000005</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5399,7 +5399,7 @@
       <c r="F200" s="48"/>
       <c r="G200" s="28"/>
       <c r="H200" s="65">
-        <v>41.67</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="15.75">
@@ -5669,6 +5669,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FDB710AC8133AA498CBE2CD8804BFA17" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4eb3d0237cfa0d187f5d6a045860a182">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a5132194-61b6-4507-86ae-3af00c68c385" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="53ffbac00c82fc65a20b2fe1c6581f58" ns2:_="">
     <xsd:import namespace="a5132194-61b6-4507-86ae-3af00c68c385"/>
@@ -5812,12 +5818,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5828,12 +5828,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F334BD5B-9873-472F-B0A9-4AE19CD21D29}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B92832D-94CC-4C5E-A4E8-2D2A44869573}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -5849,6 +5843,12 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F334BD5B-9873-472F-B0A9-4AE19CD21D29}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FD49CE-D196-4C00-BC5E-382EDDDD004F}">
   <ds:schemaRefs/>

--- a/MC3020_E24.xlsx
+++ b/MC3020_E24.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="415">
   <si>
     <t xml:space="preserve"> Reg.number</t>
   </si>
@@ -1237,6 +1237,33 @@
   </si>
   <si>
     <t>SAMARANAYAKE S.R.M.M.D.</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>2023/E/013</t>
+  </si>
+  <si>
+    <t>2023/E/017</t>
+  </si>
+  <si>
+    <t>2023/E/034</t>
+  </si>
+  <si>
+    <t>2023/E/047</t>
+  </si>
+  <si>
+    <t>2023/E/090</t>
+  </si>
+  <si>
+    <t>2023/E/125</t>
+  </si>
+  <si>
+    <t>2023/E/188</t>
+  </si>
+  <si>
+    <t>2020/E/098</t>
   </si>
 </sst>
 </file>
@@ -1246,7 +1273,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1369,6 +1396,28 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1722,21 +1771,11 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1887,6 +1926,18 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -2179,8 +2230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="F197" sqref="F197"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2189,7 +2240,7 @@
     <col min="2" max="2" width="39" customWidth="1"/>
     <col min="3" max="6" width="13.5703125" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="19" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1">
@@ -2214,3453 +2265,3883 @@
       <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="28" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="65">
+      <c r="C2" s="64">
+        <v>24</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="61">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="28" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="65">
+      <c r="C3" s="64">
+        <v>39</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="61">
         <v>93.75</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="28" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="65">
+      <c r="C4" s="64">
+        <v>43</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="61">
         <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="28" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="65">
+      <c r="C5" s="64">
+        <v>30</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="61">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="28" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="65">
+      <c r="C6" s="64">
+        <v>18</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="61">
         <v>43.75</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="28" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="65">
+      <c r="C7" s="64">
+        <v>12</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="61">
         <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="28" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="65">
+      <c r="C8" s="64">
+        <v>69</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="61">
         <v>87.5</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="28" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="65">
+      <c r="C9" s="64">
+        <v>43</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="61">
         <v>68.75</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="28" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="65">
+      <c r="C10" s="64">
+        <v>38</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="61">
         <v>87.5</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="28" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="65">
+      <c r="C11" s="64">
+        <v>16</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="61">
         <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="28" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="65">
+      <c r="C12" s="64">
+        <v>84</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="61">
         <v>62.5</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="28" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="65">
+      <c r="C13" s="64">
+        <v>39</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="61">
         <v>93.33</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="28" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="65">
+      <c r="C14" s="64">
+        <v>61</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="61">
         <v>81.25</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="28" t="s">
         <v>35</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="65">
+      <c r="C15" s="64">
+        <v>80</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="61">
         <v>81.25</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="28" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="65">
+      <c r="C16" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="28" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="10"/>
+      <c r="C17" s="64">
+        <v>33</v>
+      </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="65">
+      <c r="E17" s="31"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="61">
         <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="28" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="65">
+      <c r="C18" s="64">
+        <v>45</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="61">
         <v>87.5</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="28" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="65">
+      <c r="C19" s="64">
+        <v>52</v>
+      </c>
+      <c r="D19" s="18"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="61">
         <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="28" t="s">
         <v>45</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="65">
+      <c r="C20" s="64">
+        <v>86</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="61">
         <v>87.5</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="28" t="s">
         <v>47</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="65">
+      <c r="C21" s="64">
+        <v>76</v>
+      </c>
+      <c r="D21" s="18"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="61">
         <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="28" t="s">
         <v>49</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="65">
+      <c r="C22" s="64">
+        <v>99</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="61">
         <v>81.25</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="28" t="s">
         <v>51</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="65">
+      <c r="C23" s="64">
+        <v>34</v>
+      </c>
+      <c r="D23" s="18"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="61">
         <v>87.5</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="28" t="s">
         <v>53</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="65">
+      <c r="C24" s="64">
+        <v>71</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="61">
         <v>81.25</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="28" t="s">
         <v>55</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="65">
+      <c r="C25" s="64">
+        <v>64</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="61">
         <v>81.25</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="28" t="s">
         <v>57</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="65">
+      <c r="C26" s="64" t="s">
+        <v>406</v>
+      </c>
+      <c r="D26" s="17"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="61">
         <v>87.5</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="28" t="s">
         <v>59</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="65">
+      <c r="C27" s="64">
+        <v>68</v>
+      </c>
+      <c r="D27" s="17"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="61">
         <v>81.25</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="28" t="s">
         <v>61</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="65">
+      <c r="C28" s="64">
+        <v>43</v>
+      </c>
+      <c r="D28" s="18"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="61">
         <v>87.5</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="28" t="s">
         <v>63</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="65">
+      <c r="C29" s="64">
+        <v>30</v>
+      </c>
+      <c r="D29" s="18"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="61">
         <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="32" t="s">
+      <c r="A30" s="28" t="s">
         <v>65</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="65">
+      <c r="C30" s="64">
+        <v>65</v>
+      </c>
+      <c r="D30" s="18"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="61">
         <v>62.5</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="28" t="s">
         <v>67</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="65">
+      <c r="C31" s="64">
+        <v>69</v>
+      </c>
+      <c r="D31" s="17"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="61">
         <v>87.5</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="28" t="s">
         <v>69</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="65">
+      <c r="C32" s="64">
+        <v>44</v>
+      </c>
+      <c r="D32" s="17"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="61">
         <v>56.25</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="28" t="s">
         <v>71</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="65">
+      <c r="C33" s="64">
+        <v>61</v>
+      </c>
+      <c r="D33" s="17"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="61">
         <v>68.75</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="28" t="s">
         <v>73</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="65">
+      <c r="C34" s="64">
+        <v>49</v>
+      </c>
+      <c r="D34" s="18"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="61">
         <v>93.75</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="28" t="s">
         <v>75</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="65">
+      <c r="C35" s="64">
+        <v>50</v>
+      </c>
+      <c r="D35" s="17"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="61">
         <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="28" t="s">
         <v>77</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="65">
+      <c r="C36" s="64">
+        <v>48</v>
+      </c>
+      <c r="D36" s="17"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="61">
         <v>81.25</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="28" t="s">
         <v>79</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="65">
+      <c r="C37" s="64">
+        <v>49</v>
+      </c>
+      <c r="D37" s="18"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="61">
         <v>81.25</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="28" t="s">
         <v>81</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="65">
+      <c r="C38" s="64">
+        <v>58</v>
+      </c>
+      <c r="D38" s="18"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="61">
         <v>62.5</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="32" t="s">
+      <c r="A39" s="28" t="s">
         <v>83</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="65">
+      <c r="C39" s="64">
+        <v>81</v>
+      </c>
+      <c r="D39" s="18"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="61">
         <v>81.25</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="32" t="s">
+      <c r="A40" s="28" t="s">
         <v>85</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="65">
+      <c r="C40" s="64">
+        <v>23</v>
+      </c>
+      <c r="D40" s="18"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="61">
         <v>87.5</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="32" t="s">
+      <c r="A41" s="28" t="s">
         <v>87</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="65">
+      <c r="C41" s="64">
+        <v>32</v>
+      </c>
+      <c r="D41" s="18"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="61">
         <v>43.75</v>
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="32" t="s">
+      <c r="A42" s="28" t="s">
         <v>89</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="65">
+      <c r="C42" s="64">
+        <v>18</v>
+      </c>
+      <c r="D42" s="18"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="61">
         <v>68.75</v>
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="32" t="s">
+      <c r="A43" s="28" t="s">
         <v>91</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="57"/>
-      <c r="H43" s="65">
+      <c r="C43" s="64">
+        <v>46</v>
+      </c>
+      <c r="D43" s="18"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="61">
         <v>56.25</v>
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="32" t="s">
+      <c r="A44" s="28" t="s">
         <v>93</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="57"/>
-      <c r="H44" s="65">
+      <c r="C44" s="64">
+        <v>53</v>
+      </c>
+      <c r="D44" s="17"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="61">
         <v>68.75</v>
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="32" t="s">
+      <c r="A45" s="28" t="s">
         <v>95</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="57"/>
-      <c r="H45" s="65">
+      <c r="C45" s="64">
+        <v>60</v>
+      </c>
+      <c r="D45" s="17"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="61">
         <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="32" t="s">
+      <c r="A46" s="28" t="s">
         <v>97</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="57"/>
-      <c r="H46" s="65">
+      <c r="C46" s="64">
+        <v>58</v>
+      </c>
+      <c r="D46" s="18"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="61">
         <v>62.5</v>
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="32" t="s">
+      <c r="A47" s="28" t="s">
         <v>99</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="10"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="57"/>
-      <c r="H47" s="65">
+      <c r="C47" s="64">
+        <v>60</v>
+      </c>
+      <c r="D47" s="18"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="61">
         <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="32" t="s">
+      <c r="A48" s="28" t="s">
         <v>101</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="57"/>
-      <c r="H48" s="65">
+      <c r="C48" s="64">
+        <v>18</v>
+      </c>
+      <c r="D48" s="18"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="61">
         <v>87.5</v>
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="32" t="s">
+      <c r="A49" s="28" t="s">
         <v>103</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="10"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="44"/>
-      <c r="G49" s="59"/>
-      <c r="H49" s="65">
+      <c r="C49" s="64">
+        <v>77</v>
+      </c>
+      <c r="D49" s="18"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="61">
         <v>18.75</v>
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="32" t="s">
+      <c r="A50" s="28" t="s">
         <v>105</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C50" s="10"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="44"/>
-      <c r="G50" s="57"/>
-      <c r="H50" s="65">
+      <c r="C50" s="64">
+        <v>36</v>
+      </c>
+      <c r="D50" s="18"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="53"/>
+      <c r="H50" s="61">
         <v>87.5</v>
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="32" t="s">
+      <c r="A51" s="28" t="s">
         <v>107</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C51" s="10"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="44"/>
-      <c r="G51" s="57"/>
-      <c r="H51" s="65">
+      <c r="C51" s="64">
+        <v>47</v>
+      </c>
+      <c r="D51" s="18"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="53"/>
+      <c r="H51" s="61">
         <v>81.25</v>
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="32" t="s">
+      <c r="A52" s="28" t="s">
         <v>109</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C52" s="10"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="44"/>
-      <c r="G52" s="57"/>
-      <c r="H52" s="65">
+      <c r="C52" s="64">
+        <v>59</v>
+      </c>
+      <c r="D52" s="18"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="53"/>
+      <c r="H52" s="61">
         <v>81.25</v>
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="32" t="s">
+      <c r="A53" s="28" t="s">
         <v>111</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="10"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="44"/>
-      <c r="G53" s="57"/>
-      <c r="H53" s="65">
+      <c r="C53" s="64">
+        <v>68</v>
+      </c>
+      <c r="D53" s="18"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="53"/>
+      <c r="H53" s="61">
         <v>37.5</v>
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="32" t="s">
+      <c r="A54" s="28" t="s">
         <v>113</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C54" s="10"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="44"/>
-      <c r="G54" s="57"/>
-      <c r="H54" s="65">
+      <c r="C54" s="64">
+        <v>41</v>
+      </c>
+      <c r="D54" s="18"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="61">
         <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="32" t="s">
+      <c r="A55" s="28" t="s">
         <v>115</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C55" s="10"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="44"/>
-      <c r="G55" s="57"/>
-      <c r="H55" s="65">
+      <c r="C55" s="64">
+        <v>54</v>
+      </c>
+      <c r="D55" s="18"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="53"/>
+      <c r="H55" s="61">
         <v>87.5</v>
       </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="32" t="s">
+      <c r="A56" s="28" t="s">
         <v>117</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C56" s="10"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="44"/>
-      <c r="G56" s="59"/>
-      <c r="H56" s="65">
+      <c r="C56" s="64">
+        <v>51</v>
+      </c>
+      <c r="D56" s="17"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="61">
         <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="32" t="s">
+      <c r="A57" s="28" t="s">
         <v>119</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C57" s="10"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="44"/>
-      <c r="G57" s="57"/>
-      <c r="H57" s="65">
+      <c r="C57" s="64">
+        <v>100</v>
+      </c>
+      <c r="D57" s="18"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="53"/>
+      <c r="H57" s="61">
         <v>87.5</v>
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="32" t="s">
+      <c r="A58" s="28" t="s">
         <v>121</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C58" s="10"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="44"/>
-      <c r="G58" s="57"/>
-      <c r="H58" s="65">
+      <c r="C58" s="64">
+        <v>21</v>
+      </c>
+      <c r="D58" s="18"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="53"/>
+      <c r="H58" s="61">
         <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="32" t="s">
+      <c r="A59" s="28" t="s">
         <v>123</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C59" s="10"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="44"/>
-      <c r="G59" s="57"/>
-      <c r="H59" s="65">
+      <c r="C59" s="64">
+        <v>32</v>
+      </c>
+      <c r="D59" s="18"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="53"/>
+      <c r="H59" s="61">
         <v>81.25</v>
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="32" t="s">
+      <c r="A60" s="28" t="s">
         <v>125</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C60" s="10"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="44"/>
-      <c r="G60" s="57"/>
-      <c r="H60" s="65">
+      <c r="C60" s="64">
+        <v>23</v>
+      </c>
+      <c r="D60" s="18"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="53"/>
+      <c r="H60" s="61">
         <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="32" t="s">
+      <c r="A61" s="28" t="s">
         <v>127</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="45"/>
-      <c r="G61" s="58"/>
-      <c r="H61" s="65">
+      <c r="C61" s="64">
+        <v>42</v>
+      </c>
+      <c r="D61" s="9"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="54"/>
+      <c r="H61" s="61">
         <v>68.75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="32" t="s">
+      <c r="A62" s="28" t="s">
         <v>129</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C62" s="10"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="44"/>
-      <c r="G62" s="57"/>
-      <c r="H62" s="65">
+      <c r="C62" s="64">
+        <v>58</v>
+      </c>
+      <c r="D62" s="18"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="53"/>
+      <c r="H62" s="61">
         <v>87.5</v>
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="32" t="s">
+      <c r="A63" s="28" t="s">
         <v>131</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C63" s="10"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="44"/>
-      <c r="G63" s="57"/>
-      <c r="H63" s="65">
+      <c r="C63" s="64">
+        <v>64</v>
+      </c>
+      <c r="D63" s="18"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="53"/>
+      <c r="H63" s="61">
         <v>68.75</v>
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="32" t="s">
+      <c r="A64" s="28" t="s">
         <v>133</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C64" s="10"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="44"/>
-      <c r="G64" s="57"/>
-      <c r="H64" s="65">
+      <c r="C64" s="64">
+        <v>54</v>
+      </c>
+      <c r="D64" s="18"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="40"/>
+      <c r="G64" s="53"/>
+      <c r="H64" s="61">
         <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="32" t="s">
+      <c r="A65" s="28" t="s">
         <v>135</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C65" s="10"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="44"/>
-      <c r="G65" s="57"/>
-      <c r="H65" s="65">
+      <c r="C65" s="64">
+        <v>30</v>
+      </c>
+      <c r="D65" s="18"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="53"/>
+      <c r="H65" s="61">
         <v>93.75</v>
       </c>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="32" t="s">
+      <c r="A66" s="28" t="s">
         <v>137</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C66" s="10"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="44"/>
-      <c r="G66" s="57"/>
-      <c r="H66" s="65">
+      <c r="C66" s="64">
+        <v>30</v>
+      </c>
+      <c r="D66" s="18"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="40"/>
+      <c r="G66" s="53"/>
+      <c r="H66" s="61">
         <v>81.25</v>
       </c>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="32" t="s">
+      <c r="A67" s="28" t="s">
         <v>139</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C67" s="10"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="34"/>
-      <c r="F67" s="44"/>
-      <c r="G67" s="57"/>
-      <c r="H67" s="65">
+      <c r="C67" s="64">
+        <v>47</v>
+      </c>
+      <c r="D67" s="17"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="40"/>
+      <c r="G67" s="53"/>
+      <c r="H67" s="61">
         <v>93.75</v>
       </c>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="32" t="s">
+      <c r="A68" s="28" t="s">
         <v>141</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C68" s="10"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="34"/>
-      <c r="F68" s="44"/>
-      <c r="G68" s="57"/>
-      <c r="H68" s="65">
+      <c r="C68" s="64">
+        <v>38</v>
+      </c>
+      <c r="D68" s="18"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="53"/>
+      <c r="H68" s="61">
         <v>56.25</v>
       </c>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="32" t="s">
+      <c r="A69" s="28" t="s">
         <v>143</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="10"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="34"/>
-      <c r="F69" s="44"/>
-      <c r="G69" s="59"/>
-      <c r="H69" s="65">
+      <c r="C69" s="64">
+        <v>47</v>
+      </c>
+      <c r="D69" s="18"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="40"/>
+      <c r="G69" s="55"/>
+      <c r="H69" s="61">
         <v>50</v>
       </c>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="32" t="s">
+      <c r="A70" s="28" t="s">
         <v>145</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C70" s="10"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="34"/>
-      <c r="F70" s="44"/>
-      <c r="G70" s="57"/>
-      <c r="H70" s="65">
+      <c r="C70" s="64">
+        <v>36</v>
+      </c>
+      <c r="D70" s="18"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="40"/>
+      <c r="G70" s="53"/>
+      <c r="H70" s="61">
         <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="32" t="s">
+      <c r="A71" s="28" t="s">
         <v>147</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C71" s="10"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="44"/>
-      <c r="G71" s="57"/>
-      <c r="H71" s="65">
+      <c r="C71" s="64">
+        <v>47</v>
+      </c>
+      <c r="D71" s="18"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="40"/>
+      <c r="G71" s="53"/>
+      <c r="H71" s="61">
         <v>62.5</v>
       </c>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="32" t="s">
+      <c r="A72" s="28" t="s">
         <v>149</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C72" s="10"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="34"/>
-      <c r="F72" s="44"/>
-      <c r="G72" s="57"/>
-      <c r="H72" s="65">
+      <c r="C72" s="64">
+        <v>43</v>
+      </c>
+      <c r="D72" s="18"/>
+      <c r="E72" s="30"/>
+      <c r="F72" s="40"/>
+      <c r="G72" s="53"/>
+      <c r="H72" s="61">
         <v>68.75</v>
       </c>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="32" t="s">
+      <c r="A73" s="28" t="s">
         <v>151</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C73" s="10"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="34"/>
-      <c r="F73" s="44"/>
-      <c r="G73" s="57"/>
-      <c r="H73" s="65">
+      <c r="C73" s="64">
+        <v>46</v>
+      </c>
+      <c r="D73" s="18"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="40"/>
+      <c r="G73" s="53"/>
+      <c r="H73" s="61">
         <v>81.25</v>
       </c>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="32" t="s">
+      <c r="A74" s="28" t="s">
         <v>153</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C74" s="10"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="34"/>
-      <c r="F74" s="44"/>
-      <c r="G74" s="59"/>
-      <c r="H74" s="65">
+      <c r="C74" s="64">
+        <v>51</v>
+      </c>
+      <c r="D74" s="18"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="40"/>
+      <c r="G74" s="55"/>
+      <c r="H74" s="61">
         <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="32" t="s">
+      <c r="A75" s="28" t="s">
         <v>155</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C75" s="10"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="34"/>
-      <c r="F75" s="44"/>
-      <c r="G75" s="59"/>
-      <c r="H75" s="65">
+      <c r="C75" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="D75" s="18"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="40"/>
+      <c r="G75" s="55"/>
+      <c r="H75" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="32" t="s">
+      <c r="A76" s="28" t="s">
         <v>157</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C76" s="10"/>
-      <c r="D76" s="22"/>
-      <c r="E76" s="34"/>
-      <c r="F76" s="44"/>
-      <c r="G76" s="57"/>
-      <c r="H76" s="65">
+      <c r="C76" s="64">
+        <v>73</v>
+      </c>
+      <c r="D76" s="18"/>
+      <c r="E76" s="30"/>
+      <c r="F76" s="40"/>
+      <c r="G76" s="53"/>
+      <c r="H76" s="61">
         <v>50</v>
       </c>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="32" t="s">
+      <c r="A77" s="28" t="s">
         <v>159</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C77" s="10"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="34"/>
-      <c r="F77" s="44"/>
-      <c r="G77" s="57"/>
-      <c r="H77" s="65">
+      <c r="C77" s="64">
+        <v>0</v>
+      </c>
+      <c r="D77" s="18"/>
+      <c r="E77" s="30"/>
+      <c r="F77" s="40"/>
+      <c r="G77" s="53"/>
+      <c r="H77" s="61">
         <v>56.25</v>
       </c>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="32" t="s">
+      <c r="A78" s="28" t="s">
         <v>161</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C78" s="10"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="34"/>
-      <c r="F78" s="44"/>
-      <c r="G78" s="57"/>
-      <c r="H78" s="65">
+      <c r="C78" s="64">
+        <v>55</v>
+      </c>
+      <c r="D78" s="18"/>
+      <c r="E78" s="30"/>
+      <c r="F78" s="40"/>
+      <c r="G78" s="53"/>
+      <c r="H78" s="61">
         <v>81.25</v>
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="32" t="s">
+      <c r="A79" s="28" t="s">
         <v>163</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="35"/>
-      <c r="F79" s="45"/>
-      <c r="G79" s="58"/>
-      <c r="H79" s="65">
+      <c r="C79" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="D79" s="9"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="41"/>
+      <c r="G79" s="54"/>
+      <c r="H79" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="32" t="s">
+      <c r="A80" s="28" t="s">
         <v>165</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C80" s="10"/>
-      <c r="D80" s="21"/>
-      <c r="E80" s="34"/>
-      <c r="F80" s="44"/>
-      <c r="G80" s="57"/>
-      <c r="H80" s="65">
+      <c r="C80" s="64">
+        <v>56</v>
+      </c>
+      <c r="D80" s="17"/>
+      <c r="E80" s="30"/>
+      <c r="F80" s="40"/>
+      <c r="G80" s="53"/>
+      <c r="H80" s="61">
         <v>81.25</v>
       </c>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="32" t="s">
+      <c r="A81" s="28" t="s">
         <v>167</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C81" s="10"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="34"/>
-      <c r="F81" s="44"/>
-      <c r="G81" s="57"/>
-      <c r="H81" s="65">
+      <c r="C81" s="64">
+        <v>35</v>
+      </c>
+      <c r="D81" s="17"/>
+      <c r="E81" s="30"/>
+      <c r="F81" s="40"/>
+      <c r="G81" s="53"/>
+      <c r="H81" s="61">
         <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="32" t="s">
+      <c r="A82" s="28" t="s">
         <v>169</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C82" s="10"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="34"/>
-      <c r="F82" s="44"/>
-      <c r="G82" s="57"/>
-      <c r="H82" s="65">
+      <c r="C82" s="64">
+        <v>32</v>
+      </c>
+      <c r="D82" s="18"/>
+      <c r="E82" s="30"/>
+      <c r="F82" s="40"/>
+      <c r="G82" s="53"/>
+      <c r="H82" s="61">
         <v>62.5</v>
       </c>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="32" t="s">
+      <c r="A83" s="28" t="s">
         <v>171</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C83" s="10"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="34"/>
-      <c r="F83" s="44"/>
-      <c r="G83" s="57"/>
-      <c r="H83" s="65">
+      <c r="C83" s="64">
+        <v>71</v>
+      </c>
+      <c r="D83" s="18"/>
+      <c r="E83" s="30"/>
+      <c r="F83" s="40"/>
+      <c r="G83" s="53"/>
+      <c r="H83" s="61">
         <v>75</v>
       </c>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="32" t="s">
+      <c r="A84" s="28" t="s">
         <v>173</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C84" s="10"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="34"/>
-      <c r="F84" s="44"/>
-      <c r="G84" s="57"/>
-      <c r="H84" s="65">
+      <c r="C84" s="64">
+        <v>56</v>
+      </c>
+      <c r="D84" s="18"/>
+      <c r="E84" s="30"/>
+      <c r="F84" s="40"/>
+      <c r="G84" s="53"/>
+      <c r="H84" s="61">
         <v>93.75</v>
       </c>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="32" t="s">
+      <c r="A85" s="28" t="s">
         <v>175</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C85" s="10"/>
-      <c r="D85" s="22"/>
-      <c r="E85" s="34"/>
-      <c r="F85" s="44"/>
-      <c r="G85" s="57"/>
-      <c r="H85" s="65">
+      <c r="C85" s="64">
+        <v>52</v>
+      </c>
+      <c r="D85" s="18"/>
+      <c r="E85" s="30"/>
+      <c r="F85" s="40"/>
+      <c r="G85" s="53"/>
+      <c r="H85" s="61">
         <v>75</v>
       </c>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="32" t="s">
+      <c r="A86" s="28" t="s">
         <v>177</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C86" s="10"/>
-      <c r="D86" s="22"/>
-      <c r="E86" s="34"/>
-      <c r="F86" s="44"/>
-      <c r="G86" s="59"/>
-      <c r="H86" s="65">
+      <c r="C86" s="64">
+        <v>34</v>
+      </c>
+      <c r="D86" s="18"/>
+      <c r="E86" s="30"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="55"/>
+      <c r="H86" s="61">
         <v>87.5</v>
       </c>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="32" t="s">
+      <c r="A87" s="28" t="s">
         <v>179</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C87" s="10"/>
-      <c r="D87" s="22"/>
-      <c r="E87" s="34"/>
-      <c r="F87" s="44"/>
-      <c r="G87" s="57"/>
-      <c r="H87" s="65">
+      <c r="C87" s="64">
+        <v>42</v>
+      </c>
+      <c r="D87" s="18"/>
+      <c r="E87" s="30"/>
+      <c r="F87" s="40"/>
+      <c r="G87" s="53"/>
+      <c r="H87" s="61">
         <v>87.5</v>
       </c>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="32" t="s">
+      <c r="A88" s="28" t="s">
         <v>181</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C88" s="10"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="35"/>
-      <c r="F88" s="45"/>
-      <c r="G88" s="58"/>
-      <c r="H88" s="65">
+      <c r="C88" s="64">
+        <v>51</v>
+      </c>
+      <c r="D88" s="9"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="41"/>
+      <c r="G88" s="54"/>
+      <c r="H88" s="61">
         <v>75</v>
       </c>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="32" t="s">
+      <c r="A89" s="28" t="s">
         <v>183</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C89" s="10"/>
-      <c r="D89" s="22"/>
-      <c r="E89" s="34"/>
-      <c r="F89" s="44"/>
-      <c r="G89" s="57"/>
-      <c r="H89" s="65">
+      <c r="C89" s="64">
+        <v>17</v>
+      </c>
+      <c r="D89" s="18"/>
+      <c r="E89" s="30"/>
+      <c r="F89" s="40"/>
+      <c r="G89" s="53"/>
+      <c r="H89" s="61">
         <v>81.25</v>
       </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="32" t="s">
+      <c r="A90" s="28" t="s">
         <v>185</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C90" s="10"/>
-      <c r="D90" s="22"/>
-      <c r="E90" s="34"/>
-      <c r="F90" s="44"/>
-      <c r="G90" s="57"/>
-      <c r="H90" s="65">
+      <c r="C90" s="64">
+        <v>34</v>
+      </c>
+      <c r="D90" s="18"/>
+      <c r="E90" s="30"/>
+      <c r="F90" s="40"/>
+      <c r="G90" s="53"/>
+      <c r="H90" s="61">
         <v>50</v>
       </c>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="32" t="s">
+      <c r="A91" s="28" t="s">
         <v>187</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C91" s="10"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="34"/>
-      <c r="F91" s="44"/>
-      <c r="G91" s="57"/>
-      <c r="H91" s="65">
+      <c r="C91" s="64">
+        <v>60</v>
+      </c>
+      <c r="D91" s="18"/>
+      <c r="E91" s="30"/>
+      <c r="F91" s="40"/>
+      <c r="G91" s="53"/>
+      <c r="H91" s="61">
         <v>81.25</v>
       </c>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="32" t="s">
+      <c r="A92" s="28" t="s">
         <v>189</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C92" s="10"/>
-      <c r="D92" s="21"/>
-      <c r="E92" s="34"/>
-      <c r="F92" s="44"/>
-      <c r="G92" s="57"/>
-      <c r="H92" s="65">
+      <c r="C92" s="64">
+        <v>29</v>
+      </c>
+      <c r="D92" s="17"/>
+      <c r="E92" s="30"/>
+      <c r="F92" s="40"/>
+      <c r="G92" s="53"/>
+      <c r="H92" s="61">
         <v>62.5</v>
       </c>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="32" t="s">
+      <c r="A93" s="28" t="s">
         <v>191</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C93" s="10"/>
-      <c r="D93" s="22"/>
-      <c r="E93" s="34"/>
-      <c r="F93" s="44"/>
-      <c r="G93" s="59"/>
-      <c r="H93" s="65">
+      <c r="C93" s="64">
+        <v>25</v>
+      </c>
+      <c r="D93" s="18"/>
+      <c r="E93" s="30"/>
+      <c r="F93" s="40"/>
+      <c r="G93" s="55"/>
+      <c r="H93" s="61">
         <v>56.25</v>
       </c>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="32" t="s">
+      <c r="A94" s="28" t="s">
         <v>193</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C94" s="10"/>
-      <c r="D94" s="22"/>
-      <c r="E94" s="34"/>
-      <c r="F94" s="44"/>
-      <c r="G94" s="57"/>
-      <c r="H94" s="65">
+      <c r="C94" s="64">
+        <v>33</v>
+      </c>
+      <c r="D94" s="18"/>
+      <c r="E94" s="30"/>
+      <c r="F94" s="40"/>
+      <c r="G94" s="53"/>
+      <c r="H94" s="61">
         <v>75</v>
       </c>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="32" t="s">
+      <c r="A95" s="28" t="s">
         <v>195</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C95" s="10"/>
-      <c r="D95" s="22"/>
-      <c r="E95" s="34"/>
-      <c r="F95" s="44"/>
-      <c r="G95" s="57"/>
-      <c r="H95" s="65">
+      <c r="C95" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="D95" s="18"/>
+      <c r="E95" s="30"/>
+      <c r="F95" s="40"/>
+      <c r="G95" s="53"/>
+      <c r="H95" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" s="32" t="s">
+      <c r="A96" s="28" t="s">
         <v>197</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C96" s="10"/>
-      <c r="D96" s="21"/>
-      <c r="E96" s="34"/>
-      <c r="F96" s="44"/>
-      <c r="G96" s="57"/>
-      <c r="H96" s="65">
+      <c r="C96" s="64">
+        <v>43</v>
+      </c>
+      <c r="D96" s="17"/>
+      <c r="E96" s="30"/>
+      <c r="F96" s="40"/>
+      <c r="G96" s="53"/>
+      <c r="H96" s="61">
         <v>81.25</v>
       </c>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="32" t="s">
+      <c r="A97" s="28" t="s">
         <v>199</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C97" s="10"/>
-      <c r="D97" s="22"/>
-      <c r="E97" s="34"/>
-      <c r="F97" s="44"/>
-      <c r="G97" s="57"/>
-      <c r="H97" s="65">
+      <c r="C97" s="64">
+        <v>24</v>
+      </c>
+      <c r="D97" s="18"/>
+      <c r="E97" s="30"/>
+      <c r="F97" s="40"/>
+      <c r="G97" s="53"/>
+      <c r="H97" s="61">
         <v>87.5</v>
       </c>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98" s="32" t="s">
+      <c r="A98" s="28" t="s">
         <v>201</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C98" s="10"/>
-      <c r="D98" s="22"/>
-      <c r="E98" s="34"/>
-      <c r="F98" s="44"/>
-      <c r="G98" s="57"/>
-      <c r="H98" s="65">
+      <c r="C98" s="64">
+        <v>57</v>
+      </c>
+      <c r="D98" s="18"/>
+      <c r="E98" s="30"/>
+      <c r="F98" s="40"/>
+      <c r="G98" s="53"/>
+      <c r="H98" s="61">
         <v>68.75</v>
       </c>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="32" t="s">
+      <c r="A99" s="28" t="s">
         <v>203</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C99" s="10"/>
-      <c r="D99" s="22"/>
-      <c r="E99" s="34"/>
-      <c r="F99" s="44"/>
-      <c r="G99" s="57"/>
-      <c r="H99" s="65">
+      <c r="C99" s="64">
+        <v>93</v>
+      </c>
+      <c r="D99" s="18"/>
+      <c r="E99" s="30"/>
+      <c r="F99" s="40"/>
+      <c r="G99" s="53"/>
+      <c r="H99" s="61">
         <v>87.5</v>
       </c>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" s="32" t="s">
+      <c r="A100" s="28" t="s">
         <v>205</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C100" s="10"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="35"/>
-      <c r="F100" s="45"/>
-      <c r="G100" s="58"/>
-      <c r="H100" s="65">
+      <c r="C100" s="64">
+        <v>65</v>
+      </c>
+      <c r="D100" s="9"/>
+      <c r="E100" s="31"/>
+      <c r="F100" s="41"/>
+      <c r="G100" s="54"/>
+      <c r="H100" s="61">
         <v>62.5</v>
       </c>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="32" t="s">
+      <c r="A101" s="28" t="s">
         <v>207</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C101" s="10"/>
-      <c r="D101" s="22"/>
-      <c r="E101" s="34"/>
-      <c r="F101" s="44"/>
-      <c r="G101" s="57"/>
-      <c r="H101" s="65">
+      <c r="C101" s="64">
+        <v>26</v>
+      </c>
+      <c r="D101" s="18"/>
+      <c r="E101" s="30"/>
+      <c r="F101" s="40"/>
+      <c r="G101" s="53"/>
+      <c r="H101" s="61">
         <v>50</v>
       </c>
     </row>
     <row r="102" spans="1:8">
-      <c r="A102" s="32" t="s">
+      <c r="A102" s="28" t="s">
         <v>209</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C102" s="10"/>
-      <c r="D102" s="22"/>
-      <c r="E102" s="34"/>
-      <c r="F102" s="44"/>
-      <c r="G102" s="57"/>
-      <c r="H102" s="65">
+      <c r="C102" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="D102" s="18"/>
+      <c r="E102" s="30"/>
+      <c r="F102" s="40"/>
+      <c r="G102" s="53"/>
+      <c r="H102" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="32" t="s">
+      <c r="A103" s="28" t="s">
         <v>211</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C103" s="10"/>
-      <c r="D103" s="21"/>
-      <c r="E103" s="34"/>
-      <c r="F103" s="44"/>
-      <c r="G103" s="57"/>
-      <c r="H103" s="65">
+      <c r="C103" s="64">
+        <v>13</v>
+      </c>
+      <c r="D103" s="17"/>
+      <c r="E103" s="30"/>
+      <c r="F103" s="40"/>
+      <c r="G103" s="53"/>
+      <c r="H103" s="61">
         <v>75</v>
       </c>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104" s="32" t="s">
+      <c r="A104" s="28" t="s">
         <v>213</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C104" s="10"/>
-      <c r="D104" s="21"/>
-      <c r="E104" s="34"/>
-      <c r="F104" s="44"/>
-      <c r="G104" s="59"/>
-      <c r="H104" s="65">
+      <c r="C104" s="64">
+        <v>60</v>
+      </c>
+      <c r="D104" s="17"/>
+      <c r="E104" s="30"/>
+      <c r="F104" s="40"/>
+      <c r="G104" s="55"/>
+      <c r="H104" s="61">
         <v>87.5</v>
       </c>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105" s="32" t="s">
+      <c r="A105" s="28" t="s">
         <v>215</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C105" s="10"/>
-      <c r="D105" s="22"/>
-      <c r="E105" s="34"/>
-      <c r="F105" s="44"/>
-      <c r="G105" s="57"/>
-      <c r="H105" s="65">
+      <c r="C105" s="64">
+        <v>42</v>
+      </c>
+      <c r="D105" s="18"/>
+      <c r="E105" s="30"/>
+      <c r="F105" s="40"/>
+      <c r="G105" s="53"/>
+      <c r="H105" s="61">
         <v>100</v>
       </c>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106" s="32" t="s">
+      <c r="A106" s="28" t="s">
         <v>217</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C106" s="10"/>
-      <c r="D106" s="22"/>
-      <c r="E106" s="34"/>
-      <c r="F106" s="44"/>
-      <c r="G106" s="57"/>
-      <c r="H106" s="65">
+      <c r="C106" s="64">
+        <v>52</v>
+      </c>
+      <c r="D106" s="18"/>
+      <c r="E106" s="30"/>
+      <c r="F106" s="40"/>
+      <c r="G106" s="53"/>
+      <c r="H106" s="61">
         <v>75</v>
       </c>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107" s="32" t="s">
+      <c r="A107" s="28" t="s">
         <v>219</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C107" s="10"/>
-      <c r="D107" s="23"/>
-      <c r="E107" s="34"/>
-      <c r="F107" s="44"/>
-      <c r="G107" s="57"/>
-      <c r="H107" s="65">
+      <c r="C107" s="64">
+        <v>60</v>
+      </c>
+      <c r="D107" s="19"/>
+      <c r="E107" s="30"/>
+      <c r="F107" s="40"/>
+      <c r="G107" s="53"/>
+      <c r="H107" s="61">
         <v>93.75</v>
       </c>
     </row>
     <row r="108" spans="1:8">
-      <c r="A108" s="32" t="s">
+      <c r="A108" s="28" t="s">
         <v>221</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C108" s="10"/>
-      <c r="D108" s="23"/>
-      <c r="E108" s="34"/>
-      <c r="F108" s="44"/>
-      <c r="G108" s="57"/>
-      <c r="H108" s="65">
+      <c r="C108" s="64">
+        <v>28</v>
+      </c>
+      <c r="D108" s="19"/>
+      <c r="E108" s="30"/>
+      <c r="F108" s="40"/>
+      <c r="G108" s="53"/>
+      <c r="H108" s="61">
         <v>75</v>
       </c>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="32" t="s">
+      <c r="A109" s="28" t="s">
         <v>223</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C109" s="10"/>
-      <c r="D109" s="23"/>
-      <c r="E109" s="34"/>
-      <c r="F109" s="44"/>
-      <c r="G109" s="57"/>
-      <c r="H109" s="65">
+      <c r="C109" s="64">
+        <v>27</v>
+      </c>
+      <c r="D109" s="19"/>
+      <c r="E109" s="30"/>
+      <c r="F109" s="40"/>
+      <c r="G109" s="53"/>
+      <c r="H109" s="61">
         <v>81.25</v>
       </c>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="32" t="s">
+      <c r="A110" s="28" t="s">
         <v>225</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C110" s="10"/>
-      <c r="D110" s="23"/>
-      <c r="E110" s="34"/>
-      <c r="F110" s="44"/>
-      <c r="G110" s="57"/>
-      <c r="H110" s="65">
+      <c r="C110" s="64">
+        <v>36</v>
+      </c>
+      <c r="D110" s="19"/>
+      <c r="E110" s="30"/>
+      <c r="F110" s="40"/>
+      <c r="G110" s="53"/>
+      <c r="H110" s="61">
         <v>100</v>
       </c>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="32" t="s">
+      <c r="A111" s="28" t="s">
         <v>227</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C111" s="10"/>
-      <c r="D111" s="23"/>
-      <c r="E111" s="34"/>
-      <c r="F111" s="44"/>
-      <c r="G111" s="57"/>
-      <c r="H111" s="65">
+      <c r="C111" s="64">
+        <v>19</v>
+      </c>
+      <c r="D111" s="19"/>
+      <c r="E111" s="30"/>
+      <c r="F111" s="40"/>
+      <c r="G111" s="53"/>
+      <c r="H111" s="61">
         <v>100</v>
       </c>
     </row>
     <row r="112" spans="1:8">
-      <c r="A112" s="32" t="s">
+      <c r="A112" s="28" t="s">
         <v>229</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C112" s="10"/>
-      <c r="D112" s="23"/>
-      <c r="E112" s="34"/>
-      <c r="F112" s="44"/>
-      <c r="G112" s="57"/>
-      <c r="H112" s="65">
+      <c r="C112" s="64">
+        <v>54</v>
+      </c>
+      <c r="D112" s="19"/>
+      <c r="E112" s="30"/>
+      <c r="F112" s="40"/>
+      <c r="G112" s="53"/>
+      <c r="H112" s="61">
         <v>68.75</v>
       </c>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="32" t="s">
+      <c r="A113" s="28" t="s">
         <v>231</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C113" s="10"/>
-      <c r="D113" s="23"/>
-      <c r="E113" s="34"/>
-      <c r="F113" s="44"/>
-      <c r="G113" s="57"/>
-      <c r="H113" s="65">
+      <c r="C113" s="64">
+        <v>46</v>
+      </c>
+      <c r="D113" s="19"/>
+      <c r="E113" s="30"/>
+      <c r="F113" s="40"/>
+      <c r="G113" s="53"/>
+      <c r="H113" s="61">
         <v>81.25</v>
       </c>
     </row>
     <row r="114" spans="1:8">
-      <c r="A114" s="32" t="s">
+      <c r="A114" s="28" t="s">
         <v>233</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C114" s="10"/>
-      <c r="D114" s="23"/>
-      <c r="E114" s="34"/>
-      <c r="F114" s="44"/>
-      <c r="G114" s="57"/>
-      <c r="H114" s="65">
+      <c r="C114" s="64" t="s">
+        <v>406</v>
+      </c>
+      <c r="D114" s="19"/>
+      <c r="E114" s="30"/>
+      <c r="F114" s="40"/>
+      <c r="G114" s="53"/>
+      <c r="H114" s="61">
         <v>68.75</v>
       </c>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="32" t="s">
+      <c r="A115" s="28" t="s">
         <v>234</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C115" s="10"/>
-      <c r="D115" s="23"/>
-      <c r="E115" s="34"/>
-      <c r="F115" s="44"/>
-      <c r="G115" s="57"/>
-      <c r="H115" s="65">
+      <c r="C115" s="64">
+        <v>53</v>
+      </c>
+      <c r="D115" s="19"/>
+      <c r="E115" s="30"/>
+      <c r="F115" s="40"/>
+      <c r="G115" s="53"/>
+      <c r="H115" s="61">
         <v>75</v>
       </c>
     </row>
     <row r="116" spans="1:8">
-      <c r="A116" s="32" t="s">
+      <c r="A116" s="28" t="s">
         <v>236</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C116" s="10"/>
-      <c r="D116" s="21"/>
-      <c r="E116" s="34"/>
-      <c r="F116" s="44"/>
-      <c r="G116" s="57"/>
-      <c r="H116" s="65">
+      <c r="C116" s="64">
+        <v>4</v>
+      </c>
+      <c r="D116" s="17"/>
+      <c r="E116" s="30"/>
+      <c r="F116" s="40"/>
+      <c r="G116" s="53"/>
+      <c r="H116" s="61">
         <v>87.5</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
-      <c r="A117" s="32" t="s">
+    <row r="117" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A117" s="28" t="s">
         <v>238</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C117" s="10"/>
-      <c r="D117" s="21"/>
-      <c r="E117" s="34"/>
-      <c r="F117" s="44"/>
-      <c r="G117" s="57"/>
-      <c r="H117" s="65">
+      <c r="C117" s="64">
+        <v>71</v>
+      </c>
+      <c r="D117" s="17"/>
+      <c r="E117" s="30"/>
+      <c r="F117" s="40"/>
+      <c r="G117" s="53"/>
+      <c r="H117" s="61">
         <v>68.75</v>
       </c>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" s="32" t="s">
+      <c r="A118" s="28" t="s">
         <v>240</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C118" s="10"/>
-      <c r="D118" s="21"/>
-      <c r="E118" s="34"/>
-      <c r="F118" s="44"/>
-      <c r="G118" s="57"/>
-      <c r="H118" s="65">
+      <c r="C118" s="64">
+        <v>29</v>
+      </c>
+      <c r="D118" s="17"/>
+      <c r="E118" s="30"/>
+      <c r="F118" s="40"/>
+      <c r="G118" s="53"/>
+      <c r="H118" s="61">
         <v>87.5</v>
       </c>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="32" t="s">
+      <c r="A119" s="28" t="s">
         <v>242</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C119" s="10"/>
-      <c r="D119" s="23"/>
-      <c r="E119" s="34"/>
-      <c r="F119" s="44"/>
-      <c r="G119" s="57"/>
-      <c r="H119" s="65">
+      <c r="C119" s="64">
+        <v>45</v>
+      </c>
+      <c r="D119" s="19"/>
+      <c r="E119" s="30"/>
+      <c r="F119" s="40"/>
+      <c r="G119" s="53"/>
+      <c r="H119" s="61">
         <v>81.25</v>
       </c>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="32" t="s">
+      <c r="A120" s="28" t="s">
         <v>244</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C120" s="10"/>
-      <c r="D120" s="23"/>
-      <c r="E120" s="34"/>
-      <c r="F120" s="44"/>
-      <c r="G120" s="57"/>
-      <c r="H120" s="65">
+      <c r="C120" s="64">
+        <v>75</v>
+      </c>
+      <c r="D120" s="19"/>
+      <c r="E120" s="30"/>
+      <c r="F120" s="40"/>
+      <c r="G120" s="53"/>
+      <c r="H120" s="61">
         <v>81.25</v>
       </c>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121" s="32" t="s">
+      <c r="A121" s="28" t="s">
         <v>246</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C121" s="10"/>
-      <c r="D121" s="23"/>
-      <c r="E121" s="34"/>
-      <c r="F121" s="44"/>
-      <c r="G121" s="57"/>
-      <c r="H121" s="65">
+      <c r="C121" s="64">
+        <v>53</v>
+      </c>
+      <c r="D121" s="19"/>
+      <c r="E121" s="30"/>
+      <c r="F121" s="40"/>
+      <c r="G121" s="53"/>
+      <c r="H121" s="61">
         <v>68.75</v>
       </c>
     </row>
     <row r="122" spans="1:8">
-      <c r="A122" s="32" t="s">
+      <c r="A122" s="28" t="s">
         <v>248</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="C122" s="10"/>
-      <c r="D122" s="23"/>
-      <c r="E122" s="34"/>
-      <c r="F122" s="44"/>
-      <c r="G122" s="57"/>
-      <c r="H122" s="65">
+      <c r="C122" s="64">
+        <v>44</v>
+      </c>
+      <c r="D122" s="19"/>
+      <c r="E122" s="30"/>
+      <c r="F122" s="40"/>
+      <c r="G122" s="53"/>
+      <c r="H122" s="61">
         <v>75</v>
       </c>
     </row>
     <row r="123" spans="1:8">
-      <c r="A123" s="32" t="s">
+      <c r="A123" s="28" t="s">
         <v>250</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="C123" s="10"/>
-      <c r="D123" s="21"/>
-      <c r="E123" s="34"/>
-      <c r="F123" s="44"/>
-      <c r="G123" s="57"/>
-      <c r="H123" s="65">
+      <c r="C123" s="64">
+        <v>64</v>
+      </c>
+      <c r="D123" s="17"/>
+      <c r="E123" s="30"/>
+      <c r="F123" s="40"/>
+      <c r="G123" s="53"/>
+      <c r="H123" s="61">
         <v>100</v>
       </c>
     </row>
     <row r="124" spans="1:8">
-      <c r="A124" s="32" t="s">
+      <c r="A124" s="28" t="s">
         <v>252</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C124" s="10"/>
-      <c r="D124" s="23"/>
-      <c r="E124" s="34"/>
-      <c r="F124" s="44"/>
-      <c r="G124" s="57"/>
-      <c r="H124" s="65">
+      <c r="C124" s="64">
+        <v>83</v>
+      </c>
+      <c r="D124" s="19"/>
+      <c r="E124" s="30"/>
+      <c r="F124" s="40"/>
+      <c r="G124" s="53"/>
+      <c r="H124" s="61">
         <v>81.25</v>
       </c>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="32" t="s">
+      <c r="A125" s="28" t="s">
         <v>254</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="C125" s="10"/>
-      <c r="D125" s="21"/>
-      <c r="E125" s="34"/>
-      <c r="F125" s="44"/>
-      <c r="G125" s="57"/>
-      <c r="H125" s="65">
+      <c r="C125" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="D125" s="17"/>
+      <c r="E125" s="30"/>
+      <c r="F125" s="40"/>
+      <c r="G125" s="53"/>
+      <c r="H125" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
-      <c r="A126" s="32" t="s">
+      <c r="A126" s="28" t="s">
         <v>256</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="C126" s="10"/>
-      <c r="D126" s="21"/>
-      <c r="E126" s="34"/>
-      <c r="F126" s="44"/>
-      <c r="G126" s="57"/>
-      <c r="H126" s="65">
+      <c r="C126" s="64">
+        <v>17</v>
+      </c>
+      <c r="D126" s="17"/>
+      <c r="E126" s="30"/>
+      <c r="F126" s="40"/>
+      <c r="G126" s="53"/>
+      <c r="H126" s="61">
         <v>75</v>
       </c>
     </row>
     <row r="127" spans="1:8">
-      <c r="A127" s="32" t="s">
+      <c r="A127" s="28" t="s">
         <v>258</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C127" s="10"/>
-      <c r="D127" s="23"/>
-      <c r="E127" s="34"/>
-      <c r="F127" s="44"/>
-      <c r="G127" s="57"/>
-      <c r="H127" s="65">
+      <c r="C127" s="64" t="s">
+        <v>406</v>
+      </c>
+      <c r="D127" s="19"/>
+      <c r="E127" s="30"/>
+      <c r="F127" s="40"/>
+      <c r="G127" s="53"/>
+      <c r="H127" s="61">
         <v>62.5</v>
       </c>
     </row>
     <row r="128" spans="1:8">
-      <c r="A128" s="32" t="s">
+      <c r="A128" s="28" t="s">
         <v>260</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C128" s="10"/>
-      <c r="D128" s="23"/>
-      <c r="E128" s="34"/>
-      <c r="F128" s="44"/>
-      <c r="G128" s="57"/>
-      <c r="H128" s="65">
+      <c r="C128" s="64">
+        <v>25</v>
+      </c>
+      <c r="D128" s="19"/>
+      <c r="E128" s="30"/>
+      <c r="F128" s="40"/>
+      <c r="G128" s="53"/>
+      <c r="H128" s="61">
         <v>81.25</v>
       </c>
     </row>
     <row r="129" spans="1:8">
-      <c r="A129" s="32" t="s">
+      <c r="A129" s="28" t="s">
         <v>262</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="C129" s="10"/>
-      <c r="D129" s="23"/>
-      <c r="E129" s="34"/>
-      <c r="F129" s="44"/>
-      <c r="G129" s="57"/>
-      <c r="H129" s="65">
+      <c r="C129" s="64" t="s">
+        <v>406</v>
+      </c>
+      <c r="D129" s="19"/>
+      <c r="E129" s="30"/>
+      <c r="F129" s="40"/>
+      <c r="G129" s="53"/>
+      <c r="H129" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
-      <c r="A130" s="32" t="s">
+      <c r="A130" s="28" t="s">
         <v>264</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="C130" s="10"/>
-      <c r="D130" s="23"/>
-      <c r="E130" s="34"/>
-      <c r="F130" s="44"/>
-      <c r="G130" s="57"/>
-      <c r="H130" s="65">
+      <c r="C130" s="64">
+        <v>58</v>
+      </c>
+      <c r="D130" s="19"/>
+      <c r="E130" s="30"/>
+      <c r="F130" s="40"/>
+      <c r="G130" s="53"/>
+      <c r="H130" s="61">
         <v>87.5</v>
       </c>
     </row>
     <row r="131" spans="1:8">
-      <c r="A131" s="32" t="s">
+      <c r="A131" s="28" t="s">
         <v>266</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="C131" s="10"/>
-      <c r="D131" s="23"/>
-      <c r="E131" s="34"/>
-      <c r="F131" s="44"/>
-      <c r="G131" s="57"/>
-      <c r="H131" s="65">
+      <c r="C131" s="64">
+        <v>28</v>
+      </c>
+      <c r="D131" s="19"/>
+      <c r="E131" s="30"/>
+      <c r="F131" s="40"/>
+      <c r="G131" s="53"/>
+      <c r="H131" s="61">
         <v>81.25</v>
       </c>
     </row>
     <row r="132" spans="1:8">
-      <c r="A132" s="32" t="s">
+      <c r="A132" s="28" t="s">
         <v>268</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="C132" s="10"/>
-      <c r="D132" s="23"/>
-      <c r="E132" s="34"/>
-      <c r="F132" s="44"/>
-      <c r="G132" s="57"/>
-      <c r="H132" s="65">
+      <c r="C132" s="64">
+        <v>44</v>
+      </c>
+      <c r="D132" s="19"/>
+      <c r="E132" s="30"/>
+      <c r="F132" s="40"/>
+      <c r="G132" s="53"/>
+      <c r="H132" s="61">
         <v>81.25</v>
       </c>
     </row>
     <row r="133" spans="1:8">
-      <c r="A133" s="32" t="s">
+      <c r="A133" s="28" t="s">
         <v>270</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C133" s="10"/>
-      <c r="D133" s="23"/>
-      <c r="E133" s="34"/>
-      <c r="F133" s="44"/>
-      <c r="G133" s="57"/>
-      <c r="H133" s="65">
+      <c r="C133" s="64">
+        <v>54</v>
+      </c>
+      <c r="D133" s="19"/>
+      <c r="E133" s="30"/>
+      <c r="F133" s="40"/>
+      <c r="G133" s="53"/>
+      <c r="H133" s="61">
         <v>68.75</v>
       </c>
     </row>
     <row r="134" spans="1:8">
-      <c r="A134" s="32" t="s">
+      <c r="A134" s="28" t="s">
         <v>272</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C134" s="10"/>
-      <c r="D134" s="23"/>
-      <c r="E134" s="34"/>
-      <c r="F134" s="44"/>
-      <c r="G134" s="57"/>
-      <c r="H134" s="65">
+      <c r="C134" s="64">
+        <v>21</v>
+      </c>
+      <c r="D134" s="19"/>
+      <c r="E134" s="30"/>
+      <c r="F134" s="40"/>
+      <c r="G134" s="53"/>
+      <c r="H134" s="61">
         <v>75</v>
       </c>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="32" t="s">
+      <c r="A135" s="28" t="s">
         <v>274</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="C135" s="10"/>
-      <c r="D135" s="23"/>
-      <c r="E135" s="34"/>
-      <c r="F135" s="44"/>
-      <c r="G135" s="57"/>
-      <c r="H135" s="65">
+      <c r="C135" s="64">
+        <v>26</v>
+      </c>
+      <c r="D135" s="19"/>
+      <c r="E135" s="30"/>
+      <c r="F135" s="40"/>
+      <c r="G135" s="53"/>
+      <c r="H135" s="61">
         <v>87.5</v>
       </c>
     </row>
     <row r="136" spans="1:8">
-      <c r="A136" s="32" t="s">
+      <c r="A136" s="28" t="s">
         <v>276</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C136" s="10"/>
-      <c r="D136" s="23"/>
-      <c r="E136" s="34"/>
-      <c r="F136" s="44"/>
-      <c r="G136" s="57"/>
-      <c r="H136" s="65">
+      <c r="C136" s="64">
+        <v>15</v>
+      </c>
+      <c r="D136" s="19"/>
+      <c r="E136" s="30"/>
+      <c r="F136" s="40"/>
+      <c r="G136" s="53"/>
+      <c r="H136" s="61">
         <v>75</v>
       </c>
     </row>
     <row r="137" spans="1:8">
-      <c r="A137" s="32" t="s">
+      <c r="A137" s="28" t="s">
         <v>278</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C137" s="10"/>
-      <c r="D137" s="23"/>
-      <c r="E137" s="34"/>
-      <c r="F137" s="44"/>
-      <c r="G137" s="57"/>
-      <c r="H137" s="65">
+      <c r="C137" s="64">
+        <v>51</v>
+      </c>
+      <c r="D137" s="19"/>
+      <c r="E137" s="30"/>
+      <c r="F137" s="40"/>
+      <c r="G137" s="53"/>
+      <c r="H137" s="61">
         <v>93.75</v>
       </c>
     </row>
     <row r="138" spans="1:8">
-      <c r="A138" s="32" t="s">
+      <c r="A138" s="28" t="s">
         <v>280</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C138" s="10"/>
-      <c r="D138" s="10"/>
-      <c r="E138" s="35"/>
-      <c r="F138" s="45"/>
-      <c r="G138" s="58"/>
-      <c r="H138" s="65">
+      <c r="C138" s="64">
+        <v>50</v>
+      </c>
+      <c r="D138" s="9"/>
+      <c r="E138" s="31"/>
+      <c r="F138" s="41"/>
+      <c r="G138" s="54"/>
+      <c r="H138" s="61">
         <v>87.5</v>
       </c>
     </row>
     <row r="139" spans="1:8">
-      <c r="A139" s="32" t="s">
+      <c r="A139" s="28" t="s">
         <v>282</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C139" s="10"/>
-      <c r="D139" s="21"/>
-      <c r="E139" s="34"/>
-      <c r="F139" s="44"/>
-      <c r="G139" s="57"/>
-      <c r="H139" s="65">
+      <c r="C139" s="64">
+        <v>18</v>
+      </c>
+      <c r="D139" s="17"/>
+      <c r="E139" s="30"/>
+      <c r="F139" s="40"/>
+      <c r="G139" s="53"/>
+      <c r="H139" s="61">
         <v>87.5</v>
       </c>
     </row>
     <row r="140" spans="1:8">
-      <c r="A140" s="32" t="s">
+      <c r="A140" s="28" t="s">
         <v>284</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="C140" s="10"/>
-      <c r="D140" s="23"/>
-      <c r="E140" s="34"/>
-      <c r="F140" s="44"/>
-      <c r="G140" s="60"/>
-      <c r="H140" s="65">
+      <c r="C140" s="64">
+        <v>53</v>
+      </c>
+      <c r="D140" s="19"/>
+      <c r="E140" s="30"/>
+      <c r="F140" s="40"/>
+      <c r="G140" s="56"/>
+      <c r="H140" s="61">
         <v>100</v>
       </c>
     </row>
     <row r="141" spans="1:8">
-      <c r="A141" s="32" t="s">
+      <c r="A141" s="28" t="s">
         <v>286</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C141" s="10"/>
-      <c r="D141" s="21"/>
-      <c r="E141" s="34"/>
-      <c r="F141" s="44"/>
-      <c r="G141" s="61"/>
-      <c r="H141" s="65">
+      <c r="C141" s="64">
+        <v>8</v>
+      </c>
+      <c r="D141" s="17"/>
+      <c r="E141" s="30"/>
+      <c r="F141" s="40"/>
+      <c r="G141" s="57"/>
+      <c r="H141" s="61">
         <v>87.5</v>
       </c>
     </row>
     <row r="142" spans="1:8">
-      <c r="A142" s="32" t="s">
+      <c r="A142" s="28" t="s">
         <v>288</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="C142" s="10"/>
-      <c r="D142" s="23"/>
-      <c r="E142" s="34"/>
-      <c r="F142" s="44"/>
-      <c r="G142" s="56"/>
-      <c r="H142" s="65">
+      <c r="C142" s="64">
+        <v>42</v>
+      </c>
+      <c r="D142" s="19"/>
+      <c r="E142" s="30"/>
+      <c r="F142" s="40"/>
+      <c r="G142" s="52"/>
+      <c r="H142" s="61">
         <v>100</v>
       </c>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="32" t="s">
+      <c r="A143" s="28" t="s">
         <v>290</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="C143" s="10"/>
-      <c r="D143" s="10"/>
-      <c r="E143" s="35"/>
-      <c r="F143" s="45"/>
-      <c r="G143" s="58"/>
-      <c r="H143" s="65">
+      <c r="C143" s="64">
+        <v>37</v>
+      </c>
+      <c r="D143" s="9"/>
+      <c r="E143" s="31"/>
+      <c r="F143" s="41"/>
+      <c r="G143" s="54"/>
+      <c r="H143" s="61">
         <v>87.5</v>
       </c>
     </row>
     <row r="144" spans="1:8">
-      <c r="A144" s="32" t="s">
+      <c r="A144" s="28" t="s">
         <v>292</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="C144" s="10"/>
-      <c r="D144" s="23"/>
-      <c r="E144" s="34"/>
-      <c r="F144" s="44"/>
-      <c r="G144" s="57"/>
-      <c r="H144" s="65">
+      <c r="C144" s="64">
+        <v>46</v>
+      </c>
+      <c r="D144" s="19"/>
+      <c r="E144" s="30"/>
+      <c r="F144" s="40"/>
+      <c r="G144" s="53"/>
+      <c r="H144" s="61">
         <v>87.5</v>
       </c>
     </row>
     <row r="145" spans="1:8">
-      <c r="A145" s="32" t="s">
+      <c r="A145" s="28" t="s">
         <v>294</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="C145" s="10"/>
-      <c r="D145" s="23"/>
-      <c r="E145" s="34"/>
-      <c r="F145" s="44"/>
-      <c r="G145" s="57"/>
-      <c r="H145" s="65">
+      <c r="C145" s="64">
+        <v>43</v>
+      </c>
+      <c r="D145" s="19"/>
+      <c r="E145" s="30"/>
+      <c r="F145" s="40"/>
+      <c r="G145" s="53"/>
+      <c r="H145" s="61">
         <v>87.5</v>
       </c>
     </row>
     <row r="146" spans="1:8">
-      <c r="A146" s="32" t="s">
+      <c r="A146" s="28" t="s">
         <v>296</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="C146" s="10"/>
-      <c r="D146" s="23"/>
-      <c r="E146" s="34"/>
-      <c r="F146" s="44"/>
-      <c r="G146" s="57"/>
-      <c r="H146" s="65">
+      <c r="C146" s="64">
+        <v>40</v>
+      </c>
+      <c r="D146" s="19"/>
+      <c r="E146" s="30"/>
+      <c r="F146" s="40"/>
+      <c r="G146" s="53"/>
+      <c r="H146" s="61">
         <v>87.5</v>
       </c>
     </row>
     <row r="147" spans="1:8">
-      <c r="A147" s="32" t="s">
+      <c r="A147" s="28" t="s">
         <v>298</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="C147" s="10"/>
-      <c r="D147" s="23"/>
-      <c r="E147" s="34"/>
-      <c r="F147" s="44"/>
-      <c r="G147" s="57"/>
-      <c r="H147" s="65">
+      <c r="C147" s="64">
+        <v>32</v>
+      </c>
+      <c r="D147" s="19"/>
+      <c r="E147" s="30"/>
+      <c r="F147" s="40"/>
+      <c r="G147" s="53"/>
+      <c r="H147" s="61">
         <v>81.25</v>
       </c>
     </row>
     <row r="148" spans="1:8">
-      <c r="A148" s="32" t="s">
+      <c r="A148" s="28" t="s">
         <v>300</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="C148" s="10"/>
-      <c r="D148" s="23"/>
-      <c r="E148" s="34"/>
-      <c r="F148" s="44"/>
-      <c r="G148" s="57"/>
-      <c r="H148" s="65">
+      <c r="C148" s="64">
+        <v>32</v>
+      </c>
+      <c r="D148" s="19"/>
+      <c r="E148" s="30"/>
+      <c r="F148" s="40"/>
+      <c r="G148" s="53"/>
+      <c r="H148" s="61">
         <v>93.75</v>
       </c>
     </row>
     <row r="149" spans="1:8">
-      <c r="A149" s="32" t="s">
+      <c r="A149" s="28" t="s">
         <v>302</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="C149" s="10"/>
-      <c r="D149" s="23"/>
-      <c r="E149" s="34"/>
-      <c r="F149" s="44"/>
-      <c r="G149" s="57"/>
-      <c r="H149" s="65">
+      <c r="C149" s="64">
+        <v>67</v>
+      </c>
+      <c r="D149" s="19"/>
+      <c r="E149" s="30"/>
+      <c r="F149" s="40"/>
+      <c r="G149" s="53"/>
+      <c r="H149" s="61">
         <v>81.25</v>
       </c>
     </row>
     <row r="150" spans="1:8">
-      <c r="A150" s="32" t="s">
+      <c r="A150" s="28" t="s">
         <v>304</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="C150" s="10"/>
-      <c r="D150" s="23"/>
-      <c r="E150" s="34"/>
-      <c r="F150" s="44"/>
-      <c r="G150" s="57"/>
-      <c r="H150" s="65">
+      <c r="C150" s="64">
+        <v>61</v>
+      </c>
+      <c r="D150" s="19"/>
+      <c r="E150" s="30"/>
+      <c r="F150" s="40"/>
+      <c r="G150" s="53"/>
+      <c r="H150" s="61">
         <v>87.5</v>
       </c>
     </row>
     <row r="151" spans="1:8">
-      <c r="A151" s="32" t="s">
+      <c r="A151" s="28" t="s">
         <v>306</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="C151" s="10"/>
-      <c r="D151" s="23"/>
-      <c r="E151" s="34"/>
-      <c r="F151" s="44"/>
-      <c r="G151" s="57"/>
-      <c r="H151" s="65">
+      <c r="C151" s="64">
+        <v>71</v>
+      </c>
+      <c r="D151" s="19"/>
+      <c r="E151" s="30"/>
+      <c r="F151" s="40"/>
+      <c r="G151" s="53"/>
+      <c r="H151" s="61">
         <v>93.75</v>
       </c>
     </row>
     <row r="152" spans="1:8">
-      <c r="A152" s="32" t="s">
+      <c r="A152" s="28" t="s">
         <v>308</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="C152" s="10"/>
-      <c r="D152" s="23"/>
-      <c r="E152" s="34"/>
-      <c r="F152" s="44"/>
-      <c r="G152" s="57"/>
-      <c r="H152" s="65">
+      <c r="C152" s="64">
+        <v>96</v>
+      </c>
+      <c r="D152" s="19"/>
+      <c r="E152" s="30"/>
+      <c r="F152" s="40"/>
+      <c r="G152" s="53"/>
+      <c r="H152" s="61">
         <v>81.25</v>
       </c>
     </row>
     <row r="153" spans="1:8">
-      <c r="A153" s="32" t="s">
+      <c r="A153" s="28" t="s">
         <v>310</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="C153" s="10"/>
-      <c r="D153" s="23"/>
-      <c r="E153" s="34"/>
-      <c r="F153" s="44"/>
-      <c r="G153" s="57"/>
-      <c r="H153" s="65">
+      <c r="C153" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="D153" s="19"/>
+      <c r="E153" s="30"/>
+      <c r="F153" s="40"/>
+      <c r="G153" s="53"/>
+      <c r="H153" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
-      <c r="A154" s="32" t="s">
+      <c r="A154" s="28" t="s">
         <v>312</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="C154" s="10"/>
-      <c r="D154" s="23"/>
-      <c r="E154" s="34"/>
-      <c r="F154" s="44"/>
-      <c r="G154" s="57"/>
-      <c r="H154" s="65">
+      <c r="C154" s="64">
+        <v>21</v>
+      </c>
+      <c r="D154" s="19"/>
+      <c r="E154" s="30"/>
+      <c r="F154" s="40"/>
+      <c r="G154" s="53"/>
+      <c r="H154" s="61">
         <v>81.25</v>
       </c>
     </row>
     <row r="155" spans="1:8">
-      <c r="A155" s="32" t="s">
+      <c r="A155" s="28" t="s">
         <v>314</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="C155" s="10"/>
-      <c r="D155" s="23"/>
-      <c r="E155" s="34"/>
-      <c r="F155" s="44"/>
-      <c r="G155" s="57"/>
-      <c r="H155" s="65">
+      <c r="C155" s="64">
+        <v>47</v>
+      </c>
+      <c r="D155" s="19"/>
+      <c r="E155" s="30"/>
+      <c r="F155" s="40"/>
+      <c r="G155" s="53"/>
+      <c r="H155" s="61">
         <v>68.75</v>
       </c>
     </row>
     <row r="156" spans="1:8">
-      <c r="A156" s="32" t="s">
+      <c r="A156" s="28" t="s">
         <v>316</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="C156" s="10"/>
-      <c r="D156" s="23"/>
-      <c r="E156" s="34"/>
-      <c r="F156" s="44"/>
-      <c r="G156" s="57"/>
-      <c r="H156" s="65">
+      <c r="C156" s="64">
+        <v>67</v>
+      </c>
+      <c r="D156" s="19"/>
+      <c r="E156" s="30"/>
+      <c r="F156" s="40"/>
+      <c r="G156" s="53"/>
+      <c r="H156" s="61">
         <v>75</v>
       </c>
     </row>
     <row r="157" spans="1:8">
-      <c r="A157" s="32" t="s">
+      <c r="A157" s="28" t="s">
         <v>318</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="C157" s="10"/>
-      <c r="D157" s="10"/>
-      <c r="E157" s="35"/>
-      <c r="F157" s="46"/>
-      <c r="G157" s="58"/>
-      <c r="H157" s="65">
+      <c r="C157" s="64" t="s">
+        <v>406</v>
+      </c>
+      <c r="D157" s="9"/>
+      <c r="E157" s="31"/>
+      <c r="F157" s="42"/>
+      <c r="G157" s="54"/>
+      <c r="H157" s="61">
         <v>68.75</v>
       </c>
     </row>
     <row r="158" spans="1:8">
-      <c r="A158" s="32" t="s">
+      <c r="A158" s="28" t="s">
         <v>320</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="C158" s="10"/>
-      <c r="D158" s="21"/>
-      <c r="E158" s="34"/>
-      <c r="F158" s="44"/>
-      <c r="G158" s="57"/>
-      <c r="H158" s="65">
+      <c r="C158" s="64">
+        <v>52</v>
+      </c>
+      <c r="D158" s="17"/>
+      <c r="E158" s="30"/>
+      <c r="F158" s="40"/>
+      <c r="G158" s="53"/>
+      <c r="H158" s="61">
         <v>81.25</v>
       </c>
     </row>
     <row r="159" spans="1:8">
-      <c r="A159" s="32" t="s">
+      <c r="A159" s="28" t="s">
         <v>322</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="C159" s="10"/>
-      <c r="D159" s="23"/>
-      <c r="E159" s="34"/>
-      <c r="F159" s="44"/>
-      <c r="G159" s="57"/>
-      <c r="H159" s="65">
+      <c r="C159" s="64">
+        <v>36</v>
+      </c>
+      <c r="D159" s="19"/>
+      <c r="E159" s="30"/>
+      <c r="F159" s="40"/>
+      <c r="G159" s="53"/>
+      <c r="H159" s="61">
         <v>75</v>
       </c>
     </row>
     <row r="160" spans="1:8">
-      <c r="A160" s="32" t="s">
+      <c r="A160" s="28" t="s">
         <v>324</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="C160" s="10"/>
-      <c r="D160" s="23"/>
-      <c r="E160" s="34"/>
-      <c r="F160" s="44"/>
-      <c r="G160" s="57"/>
-      <c r="H160" s="65">
+      <c r="C160" s="64">
+        <v>78</v>
+      </c>
+      <c r="D160" s="19"/>
+      <c r="E160" s="30"/>
+      <c r="F160" s="40"/>
+      <c r="G160" s="53"/>
+      <c r="H160" s="61">
         <v>87.5</v>
       </c>
     </row>
     <row r="161" spans="1:8">
-      <c r="A161" s="32" t="s">
+      <c r="A161" s="28" t="s">
         <v>326</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="C161" s="10"/>
-      <c r="D161" s="23"/>
-      <c r="E161" s="34"/>
-      <c r="F161" s="44"/>
-      <c r="G161" s="57"/>
-      <c r="H161" s="65">
+      <c r="C161" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="D161" s="19"/>
+      <c r="E161" s="30"/>
+      <c r="F161" s="40"/>
+      <c r="G161" s="53"/>
+      <c r="H161" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
-      <c r="A162" s="32" t="s">
+      <c r="A162" s="28" t="s">
         <v>328</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="C162" s="10"/>
-      <c r="D162" s="23"/>
-      <c r="E162" s="34"/>
-      <c r="F162" s="44"/>
-      <c r="G162" s="57"/>
-      <c r="H162" s="65">
+      <c r="C162" s="64">
+        <v>31</v>
+      </c>
+      <c r="D162" s="19"/>
+      <c r="E162" s="30"/>
+      <c r="F162" s="40"/>
+      <c r="G162" s="53"/>
+      <c r="H162" s="61">
         <v>43.75</v>
       </c>
     </row>
     <row r="163" spans="1:8">
-      <c r="A163" s="32" t="s">
+      <c r="A163" s="28" t="s">
         <v>330</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="C163" s="10"/>
-      <c r="D163" s="21"/>
-      <c r="E163" s="34"/>
-      <c r="F163" s="44"/>
-      <c r="G163" s="57"/>
-      <c r="H163" s="65">
+      <c r="C163" s="64">
+        <v>60</v>
+      </c>
+      <c r="D163" s="17"/>
+      <c r="E163" s="30"/>
+      <c r="F163" s="40"/>
+      <c r="G163" s="53"/>
+      <c r="H163" s="61">
         <v>81.25</v>
       </c>
     </row>
     <row r="164" spans="1:8">
-      <c r="A164" s="32" t="s">
+      <c r="A164" s="28" t="s">
         <v>332</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="C164" s="10"/>
-      <c r="D164" s="10"/>
-      <c r="E164" s="35"/>
-      <c r="F164" s="46"/>
-      <c r="G164" s="58"/>
-      <c r="H164" s="65">
+      <c r="C164" s="64">
+        <v>95</v>
+      </c>
+      <c r="D164" s="9"/>
+      <c r="E164" s="31"/>
+      <c r="F164" s="42"/>
+      <c r="G164" s="54"/>
+      <c r="H164" s="61">
         <v>100</v>
       </c>
     </row>
     <row r="165" spans="1:8">
-      <c r="A165" s="32" t="s">
+      <c r="A165" s="28" t="s">
         <v>334</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="C165" s="10"/>
-      <c r="D165" s="23"/>
-      <c r="E165" s="34"/>
-      <c r="F165" s="44"/>
-      <c r="G165" s="57"/>
-      <c r="H165" s="65">
+      <c r="C165" s="64">
+        <v>69</v>
+      </c>
+      <c r="D165" s="19"/>
+      <c r="E165" s="30"/>
+      <c r="F165" s="40"/>
+      <c r="G165" s="53"/>
+      <c r="H165" s="61">
         <v>68.75</v>
       </c>
     </row>
     <row r="166" spans="1:8">
-      <c r="A166" s="32" t="s">
+      <c r="A166" s="28" t="s">
         <v>336</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="C166" s="10"/>
-      <c r="D166" s="23"/>
-      <c r="E166" s="34"/>
-      <c r="F166" s="44"/>
-      <c r="G166" s="57"/>
-      <c r="H166" s="65">
+      <c r="C166" s="64">
+        <v>47</v>
+      </c>
+      <c r="D166" s="19"/>
+      <c r="E166" s="30"/>
+      <c r="F166" s="40"/>
+      <c r="G166" s="53"/>
+      <c r="H166" s="61">
         <v>68.75</v>
       </c>
     </row>
     <row r="167" spans="1:8">
-      <c r="A167" s="32" t="s">
+      <c r="A167" s="28" t="s">
         <v>338</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="C167" s="10"/>
+      <c r="C167" s="64">
+        <v>58</v>
+      </c>
       <c r="D167" s="1"/>
-      <c r="E167" s="36"/>
-      <c r="F167" s="44"/>
-      <c r="G167" s="57"/>
-      <c r="H167" s="65">
+      <c r="E167" s="32"/>
+      <c r="F167" s="40"/>
+      <c r="G167" s="53"/>
+      <c r="H167" s="61">
         <v>93.75</v>
       </c>
     </row>
     <row r="168" spans="1:8">
-      <c r="A168" s="32" t="s">
+      <c r="A168" s="28" t="s">
         <v>340</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="C168" s="10"/>
-      <c r="D168" s="23"/>
-      <c r="E168" s="34"/>
-      <c r="F168" s="44"/>
-      <c r="G168" s="57"/>
-      <c r="H168" s="65">
+      <c r="C168" s="64">
+        <v>25</v>
+      </c>
+      <c r="D168" s="19"/>
+      <c r="E168" s="30"/>
+      <c r="F168" s="40"/>
+      <c r="G168" s="53"/>
+      <c r="H168" s="61">
         <v>87.5</v>
       </c>
     </row>
     <row r="169" spans="1:8">
-      <c r="A169" s="32" t="s">
+      <c r="A169" s="28" t="s">
         <v>342</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="C169" s="10"/>
-      <c r="D169" s="21"/>
-      <c r="E169" s="34"/>
-      <c r="F169" s="44"/>
-      <c r="G169" s="57"/>
-      <c r="H169" s="65">
+      <c r="C169" s="64">
+        <v>44</v>
+      </c>
+      <c r="D169" s="17"/>
+      <c r="E169" s="30"/>
+      <c r="F169" s="40"/>
+      <c r="G169" s="53"/>
+      <c r="H169" s="61">
         <v>75</v>
       </c>
     </row>
     <row r="170" spans="1:8">
-      <c r="A170" s="32" t="s">
+      <c r="A170" s="28" t="s">
         <v>344</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="C170" s="10"/>
-      <c r="D170" s="22"/>
-      <c r="E170" s="34"/>
-      <c r="F170" s="44"/>
-      <c r="G170" s="57"/>
-      <c r="H170" s="65">
+      <c r="C170" s="64">
+        <v>31</v>
+      </c>
+      <c r="D170" s="18"/>
+      <c r="E170" s="30"/>
+      <c r="F170" s="40"/>
+      <c r="G170" s="53"/>
+      <c r="H170" s="61">
         <v>75</v>
       </c>
     </row>
     <row r="171" spans="1:8">
-      <c r="A171" s="32" t="s">
+      <c r="A171" s="28" t="s">
         <v>346</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="C171" s="10"/>
-      <c r="D171" s="21"/>
-      <c r="E171" s="34"/>
-      <c r="F171" s="44"/>
-      <c r="G171" s="57"/>
-      <c r="H171" s="65">
+      <c r="C171" s="65">
+        <v>40</v>
+      </c>
+      <c r="D171" s="17"/>
+      <c r="E171" s="30"/>
+      <c r="F171" s="40"/>
+      <c r="G171" s="53"/>
+      <c r="H171" s="61">
         <v>62.5</v>
       </c>
     </row>
     <row r="172" spans="1:8">
-      <c r="A172" s="32" t="s">
+      <c r="A172" s="28" t="s">
         <v>348</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="C172" s="10"/>
-      <c r="D172" s="22"/>
-      <c r="E172" s="34"/>
-      <c r="F172" s="44"/>
-      <c r="G172" s="57"/>
-      <c r="H172" s="65">
+      <c r="C172" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="D172" s="18"/>
+      <c r="E172" s="30"/>
+      <c r="F172" s="40"/>
+      <c r="G172" s="53"/>
+      <c r="H172" s="61">
         <v>6.25</v>
       </c>
     </row>
     <row r="173" spans="1:8">
-      <c r="A173" s="32" t="s">
+      <c r="A173" s="28" t="s">
         <v>350</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="C173" s="10"/>
-      <c r="D173" s="24"/>
-      <c r="E173" s="34"/>
-      <c r="F173" s="44"/>
-      <c r="G173" s="60"/>
-      <c r="H173" s="65">
+      <c r="C173" s="65">
+        <v>19</v>
+      </c>
+      <c r="D173" s="20"/>
+      <c r="E173" s="30"/>
+      <c r="F173" s="40"/>
+      <c r="G173" s="56"/>
+      <c r="H173" s="61">
         <v>43.75</v>
       </c>
     </row>
     <row r="174" spans="1:8">
-      <c r="A174" s="32" t="s">
+      <c r="A174" s="28" t="s">
         <v>352</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="C174" s="10"/>
-      <c r="D174" s="20"/>
-      <c r="E174" s="34"/>
-      <c r="F174" s="44"/>
-      <c r="G174" s="55"/>
-      <c r="H174" s="65">
+      <c r="C174" s="65" t="s">
+        <v>406</v>
+      </c>
+      <c r="D174" s="16"/>
+      <c r="E174" s="30"/>
+      <c r="F174" s="40"/>
+      <c r="G174" s="51"/>
+      <c r="H174" s="61">
         <v>62.5</v>
       </c>
     </row>
     <row r="175" spans="1:8">
-      <c r="A175" s="32" t="s">
+      <c r="A175" s="28" t="s">
         <v>354</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="C175" s="10"/>
-      <c r="D175" s="25"/>
-      <c r="E175" s="34"/>
-      <c r="F175" s="44"/>
-      <c r="G175" s="55"/>
-      <c r="H175" s="65">
+      <c r="C175" s="65">
+        <v>18</v>
+      </c>
+      <c r="D175" s="21"/>
+      <c r="E175" s="30"/>
+      <c r="F175" s="40"/>
+      <c r="G175" s="51"/>
+      <c r="H175" s="61">
         <v>37.5</v>
       </c>
     </row>
     <row r="176" spans="1:8">
-      <c r="A176" s="32" t="s">
+      <c r="A176" s="28" t="s">
         <v>356</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="C176" s="10"/>
-      <c r="D176" s="25"/>
-      <c r="E176" s="34"/>
-      <c r="F176" s="44"/>
-      <c r="G176" s="55"/>
-      <c r="H176" s="65">
+      <c r="C176" s="65">
+        <v>44</v>
+      </c>
+      <c r="D176" s="21"/>
+      <c r="E176" s="30"/>
+      <c r="F176" s="40"/>
+      <c r="G176" s="51"/>
+      <c r="H176" s="61">
         <v>87.5</v>
       </c>
     </row>
     <row r="177" spans="1:8">
-      <c r="A177" s="32" t="s">
+      <c r="A177" s="28" t="s">
         <v>358</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="C177" s="10"/>
-      <c r="D177" s="20"/>
-      <c r="E177" s="34"/>
-      <c r="F177" s="44"/>
-      <c r="G177" s="55"/>
-      <c r="H177" s="65">
+      <c r="C177" s="65">
+        <v>82</v>
+      </c>
+      <c r="D177" s="16"/>
+      <c r="E177" s="30"/>
+      <c r="F177" s="40"/>
+      <c r="G177" s="51"/>
+      <c r="H177" s="61">
         <v>75</v>
       </c>
     </row>
     <row r="178" spans="1:8">
-      <c r="A178" s="32" t="s">
+      <c r="A178" s="28" t="s">
         <v>360</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="C178" s="10"/>
-      <c r="D178" s="20"/>
-      <c r="E178" s="34"/>
-      <c r="F178" s="44"/>
-      <c r="G178" s="55"/>
-      <c r="H178" s="65">
+      <c r="C178" s="65">
+        <v>55</v>
+      </c>
+      <c r="D178" s="16"/>
+      <c r="E178" s="30"/>
+      <c r="F178" s="40"/>
+      <c r="G178" s="51"/>
+      <c r="H178" s="61">
         <v>87.5</v>
       </c>
     </row>
     <row r="179" spans="1:8">
-      <c r="A179" s="32" t="s">
+      <c r="A179" s="28" t="s">
         <v>362</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="C179" s="12"/>
+      <c r="C179" s="65">
+        <v>24</v>
+      </c>
       <c r="D179" s="1"/>
-      <c r="E179" s="37"/>
-      <c r="F179" s="47"/>
-      <c r="G179" s="62"/>
-      <c r="H179" s="65">
+      <c r="E179" s="33"/>
+      <c r="F179" s="43"/>
+      <c r="G179" s="58"/>
+      <c r="H179" s="61">
         <v>43.75</v>
       </c>
     </row>
     <row r="180" spans="1:8">
-      <c r="A180" s="32" t="s">
+      <c r="A180" s="28" t="s">
         <v>364</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="C180" s="13"/>
-      <c r="D180" s="20"/>
-      <c r="E180" s="34"/>
-      <c r="F180" s="48"/>
-      <c r="G180" s="63"/>
-      <c r="H180" s="65">
+      <c r="C180" s="65" t="s">
+        <v>406</v>
+      </c>
+      <c r="D180" s="16"/>
+      <c r="E180" s="30"/>
+      <c r="F180" s="44"/>
+      <c r="G180" s="59"/>
+      <c r="H180" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
-      <c r="A181" s="32" t="s">
+      <c r="A181" s="28" t="s">
         <v>366</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="C181" s="13"/>
-      <c r="D181" s="20"/>
-      <c r="E181" s="34"/>
-      <c r="F181" s="48"/>
-      <c r="G181" s="63"/>
-      <c r="H181" s="65">
+      <c r="C181" s="65">
+        <v>36</v>
+      </c>
+      <c r="D181" s="16"/>
+      <c r="E181" s="30"/>
+      <c r="F181" s="44"/>
+      <c r="G181" s="59"/>
+      <c r="H181" s="61">
         <v>62.5</v>
       </c>
     </row>
     <row r="182" spans="1:8">
-      <c r="A182" s="32" t="s">
+      <c r="A182" s="28" t="s">
         <v>368</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="C182" s="13"/>
-      <c r="D182" s="20"/>
-      <c r="E182" s="34"/>
-      <c r="F182" s="48"/>
-      <c r="G182" s="63"/>
-      <c r="H182" s="65">
+      <c r="C182" s="65">
+        <v>55</v>
+      </c>
+      <c r="D182" s="16"/>
+      <c r="E182" s="30"/>
+      <c r="F182" s="44"/>
+      <c r="G182" s="59"/>
+      <c r="H182" s="61">
         <v>50</v>
       </c>
     </row>
     <row r="183" spans="1:8">
-      <c r="A183" s="32" t="s">
+      <c r="A183" s="28" t="s">
         <v>370</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="C183" s="13"/>
-      <c r="D183" s="20"/>
-      <c r="E183" s="34"/>
-      <c r="F183" s="48"/>
-      <c r="G183" s="63"/>
-      <c r="H183" s="65">
+      <c r="C183" s="65">
+        <v>27</v>
+      </c>
+      <c r="D183" s="16"/>
+      <c r="E183" s="30"/>
+      <c r="F183" s="44"/>
+      <c r="G183" s="59"/>
+      <c r="H183" s="61">
         <v>43.75</v>
       </c>
     </row>
     <row r="184" spans="1:8">
-      <c r="A184" s="32" t="s">
+      <c r="A184" s="28" t="s">
         <v>372</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="C184" s="13"/>
-      <c r="D184" s="20"/>
-      <c r="E184" s="34"/>
-      <c r="F184" s="48"/>
-      <c r="G184" s="63"/>
-      <c r="H184" s="65">
+      <c r="C184" s="65">
+        <v>14</v>
+      </c>
+      <c r="D184" s="16"/>
+      <c r="E184" s="30"/>
+      <c r="F184" s="44"/>
+      <c r="G184" s="59"/>
+      <c r="H184" s="61">
         <v>68.75</v>
       </c>
     </row>
     <row r="185" spans="1:8">
-      <c r="A185" s="32" t="s">
+      <c r="A185" s="28" t="s">
         <v>374</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="C185" s="13"/>
-      <c r="D185" s="20"/>
-      <c r="E185" s="34"/>
-      <c r="F185" s="48"/>
-      <c r="G185" s="63"/>
-      <c r="H185" s="65">
+      <c r="C185" s="65">
+        <v>17</v>
+      </c>
+      <c r="D185" s="16"/>
+      <c r="E185" s="30"/>
+      <c r="F185" s="44"/>
+      <c r="G185" s="59"/>
+      <c r="H185" s="61">
         <v>37.5</v>
       </c>
     </row>
     <row r="186" spans="1:8">
-      <c r="A186" s="32" t="s">
+      <c r="A186" s="28" t="s">
         <v>376</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="C186" s="13"/>
-      <c r="D186" s="20"/>
-      <c r="E186" s="34"/>
-      <c r="F186" s="48"/>
-      <c r="G186" s="63"/>
-      <c r="H186" s="65">
+      <c r="C186" s="65">
+        <v>33</v>
+      </c>
+      <c r="D186" s="16"/>
+      <c r="E186" s="30"/>
+      <c r="F186" s="44"/>
+      <c r="G186" s="59"/>
+      <c r="H186" s="61">
         <v>81.25</v>
       </c>
     </row>
     <row r="187" spans="1:8">
-      <c r="A187" s="32" t="s">
+      <c r="A187" s="28" t="s">
         <v>378</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="C187" s="13"/>
-      <c r="D187" s="20"/>
-      <c r="E187" s="34"/>
-      <c r="F187" s="48"/>
-      <c r="G187" s="63"/>
-      <c r="H187" s="65">
+      <c r="C187" s="65">
+        <v>64</v>
+      </c>
+      <c r="D187" s="16"/>
+      <c r="E187" s="30"/>
+      <c r="F187" s="44"/>
+      <c r="G187" s="59"/>
+      <c r="H187" s="61">
         <v>87.5</v>
       </c>
     </row>
     <row r="188" spans="1:8">
-      <c r="A188" s="32" t="s">
+      <c r="A188" s="28" t="s">
         <v>380</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="C188" s="13"/>
-      <c r="D188" s="20"/>
-      <c r="E188" s="34"/>
-      <c r="F188" s="48"/>
-      <c r="G188" s="63"/>
-      <c r="H188" s="65">
+      <c r="C188" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="D188" s="16"/>
+      <c r="E188" s="30"/>
+      <c r="F188" s="44"/>
+      <c r="G188" s="59"/>
+      <c r="H188" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
-      <c r="A189" s="32" t="s">
+      <c r="A189" s="28" t="s">
         <v>382</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="C189" s="13"/>
-      <c r="D189" s="20"/>
-      <c r="E189" s="34"/>
-      <c r="F189" s="48"/>
-      <c r="G189" s="63"/>
-      <c r="H189" s="65">
+      <c r="C189" s="65">
+        <v>32</v>
+      </c>
+      <c r="D189" s="16"/>
+      <c r="E189" s="30"/>
+      <c r="F189" s="44"/>
+      <c r="G189" s="59"/>
+      <c r="H189" s="61">
         <v>100</v>
       </c>
     </row>
     <row r="190" spans="1:8">
-      <c r="A190" s="32" t="s">
+      <c r="A190" s="28" t="s">
         <v>384</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="C190" s="13"/>
-      <c r="D190" s="20"/>
-      <c r="E190" s="34"/>
-      <c r="F190" s="48"/>
-      <c r="G190" s="63"/>
-      <c r="H190" s="65">
+      <c r="C190" s="65">
+        <v>64</v>
+      </c>
+      <c r="D190" s="16"/>
+      <c r="E190" s="30"/>
+      <c r="F190" s="44"/>
+      <c r="G190" s="59"/>
+      <c r="H190" s="61">
         <v>93.75</v>
       </c>
     </row>
     <row r="191" spans="1:8">
-      <c r="A191" s="32" t="s">
+      <c r="A191" s="28" t="s">
         <v>386</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="C191" s="13"/>
-      <c r="D191" s="20"/>
-      <c r="E191" s="34"/>
-      <c r="F191" s="48"/>
-      <c r="G191" s="63"/>
-      <c r="H191" s="65">
+      <c r="C191" s="65">
+        <v>12</v>
+      </c>
+      <c r="D191" s="16"/>
+      <c r="E191" s="30"/>
+      <c r="F191" s="44"/>
+      <c r="G191" s="59"/>
+      <c r="H191" s="61">
         <v>68.75</v>
       </c>
     </row>
     <row r="192" spans="1:8">
-      <c r="A192" s="32" t="s">
+      <c r="A192" s="28" t="s">
         <v>388</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="C192" s="13"/>
-      <c r="D192" s="20"/>
-      <c r="E192" s="34"/>
-      <c r="F192" s="48"/>
-      <c r="G192" s="63"/>
-      <c r="H192" s="65">
+      <c r="C192" s="65" t="s">
+        <v>406</v>
+      </c>
+      <c r="D192" s="16"/>
+      <c r="E192" s="30"/>
+      <c r="F192" s="44"/>
+      <c r="G192" s="59"/>
+      <c r="H192" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
-      <c r="A193" s="32" t="s">
+      <c r="A193" s="28" t="s">
         <v>390</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="C193" s="13"/>
-      <c r="D193" s="20"/>
-      <c r="E193" s="34"/>
-      <c r="F193" s="48"/>
-      <c r="G193" s="63"/>
-      <c r="H193" s="65">
+      <c r="C193" s="65">
+        <v>36</v>
+      </c>
+      <c r="D193" s="16"/>
+      <c r="E193" s="30"/>
+      <c r="F193" s="44"/>
+      <c r="G193" s="59"/>
+      <c r="H193" s="61">
         <v>87.5</v>
       </c>
     </row>
     <row r="194" spans="1:8">
-      <c r="A194" s="32" t="s">
+      <c r="A194" s="28" t="s">
         <v>392</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="C194" s="13"/>
-      <c r="D194" s="20"/>
-      <c r="E194" s="38"/>
-      <c r="F194" s="48"/>
-      <c r="G194" s="63"/>
-      <c r="H194" s="65">
+      <c r="C194" s="65">
+        <v>1</v>
+      </c>
+      <c r="D194" s="16"/>
+      <c r="E194" s="34"/>
+      <c r="F194" s="44"/>
+      <c r="G194" s="59"/>
+      <c r="H194" s="61">
         <v>87.5</v>
       </c>
     </row>
     <row r="195" spans="1:8">
-      <c r="A195" s="32" t="s">
+      <c r="A195" s="28" t="s">
         <v>394</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="C195" s="13"/>
-      <c r="D195" s="20"/>
-      <c r="E195" s="38"/>
-      <c r="F195" s="48"/>
-      <c r="G195" s="63"/>
-      <c r="H195" s="65">
+      <c r="C195" s="65">
+        <v>38</v>
+      </c>
+      <c r="D195" s="16"/>
+      <c r="E195" s="34"/>
+      <c r="F195" s="44"/>
+      <c r="G195" s="59"/>
+      <c r="H195" s="61">
         <v>75</v>
       </c>
     </row>
     <row r="196" spans="1:8">
-      <c r="A196" s="32" t="s">
+      <c r="A196" s="28" t="s">
         <v>396</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="C196" s="13"/>
-      <c r="D196" s="20"/>
-      <c r="E196" s="34"/>
-      <c r="F196" s="48"/>
-      <c r="G196" s="63"/>
-      <c r="H196" s="65">
+      <c r="C196" s="65">
+        <v>41</v>
+      </c>
+      <c r="D196" s="16"/>
+      <c r="E196" s="30"/>
+      <c r="F196" s="44"/>
+      <c r="G196" s="59"/>
+      <c r="H196" s="61">
         <v>100</v>
       </c>
     </row>
     <row r="197" spans="1:8">
-      <c r="A197" s="32" t="s">
+      <c r="A197" s="28" t="s">
         <v>398</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="C197" s="13"/>
-      <c r="D197" s="20"/>
-      <c r="E197" s="34"/>
-      <c r="F197" s="48"/>
-      <c r="G197" s="63"/>
-      <c r="H197" s="65">
+      <c r="C197" s="65">
+        <v>77</v>
+      </c>
+      <c r="D197" s="16"/>
+      <c r="E197" s="30"/>
+      <c r="F197" s="44"/>
+      <c r="G197" s="59"/>
+      <c r="H197" s="61">
         <v>68.75</v>
       </c>
     </row>
     <row r="198" spans="1:8">
-      <c r="A198" s="32" t="s">
+      <c r="A198" s="28" t="s">
         <v>400</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="C198" s="13"/>
-      <c r="D198" s="20"/>
-      <c r="E198" s="34"/>
-      <c r="F198" s="48"/>
-      <c r="G198" s="63"/>
-      <c r="H198" s="65">
+      <c r="C198" s="65">
+        <v>74</v>
+      </c>
+      <c r="D198" s="16"/>
+      <c r="E198" s="30"/>
+      <c r="F198" s="44"/>
+      <c r="G198" s="59"/>
+      <c r="H198" s="61">
         <v>93.75</v>
       </c>
     </row>
     <row r="199" spans="1:8">
-      <c r="A199" s="66" t="s">
+      <c r="A199" s="62" t="s">
         <v>404</v>
       </c>
-      <c r="B199" s="67" t="s">
+      <c r="B199" s="63" t="s">
         <v>405</v>
       </c>
-      <c r="C199" s="14"/>
-      <c r="D199" s="20"/>
-      <c r="E199" s="39"/>
-      <c r="F199" s="48"/>
-      <c r="G199" s="64"/>
-      <c r="H199" s="65">
+      <c r="C199" s="65">
+        <v>37</v>
+      </c>
+      <c r="D199" s="16"/>
+      <c r="E199" s="35"/>
+      <c r="F199" s="44"/>
+      <c r="G199" s="60"/>
+      <c r="H199" s="61">
         <v>62.5</v>
       </c>
     </row>
     <row r="200" spans="1:8">
-      <c r="A200" s="53" t="s">
+      <c r="A200" s="49" t="s">
         <v>402</v>
       </c>
-      <c r="B200" s="54" t="s">
+      <c r="B200" s="50" t="s">
         <v>403</v>
       </c>
-      <c r="C200" s="13"/>
-      <c r="D200" s="20"/>
-      <c r="E200" s="38"/>
-      <c r="F200" s="48"/>
-      <c r="G200" s="28"/>
-      <c r="H200" s="65">
+      <c r="C200" s="65">
+        <v>0</v>
+      </c>
+      <c r="D200" s="16"/>
+      <c r="E200" s="34"/>
+      <c r="F200" s="44"/>
+      <c r="G200" s="24"/>
+      <c r="H200" s="61">
         <v>43.75</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="15.75">
-      <c r="A201" s="6"/>
+      <c r="A201" s="66" t="s">
+        <v>407</v>
+      </c>
       <c r="B201" s="6"/>
-      <c r="C201" s="13"/>
-      <c r="D201" s="20"/>
-      <c r="E201" s="36"/>
-      <c r="F201" s="48"/>
-      <c r="G201" s="28"/>
-      <c r="H201" s="17"/>
+      <c r="C201" s="65">
+        <v>38</v>
+      </c>
+      <c r="D201" s="16"/>
+      <c r="E201" s="32"/>
+      <c r="F201" s="44"/>
+      <c r="G201" s="24"/>
+      <c r="H201" s="13"/>
     </row>
     <row r="202" spans="1:8" ht="15.75">
-      <c r="A202" s="7"/>
+      <c r="A202" s="67" t="s">
+        <v>408</v>
+      </c>
       <c r="B202" s="7"/>
-      <c r="C202" s="13"/>
-      <c r="D202" s="20"/>
-      <c r="E202" s="21"/>
-      <c r="F202" s="49"/>
-      <c r="G202" s="29"/>
-      <c r="H202" s="17"/>
+      <c r="C202" s="65">
+        <v>53</v>
+      </c>
+      <c r="D202" s="16"/>
+      <c r="E202" s="17"/>
+      <c r="F202" s="45"/>
+      <c r="G202" s="25"/>
+      <c r="H202" s="13"/>
     </row>
     <row r="203" spans="1:8" ht="15.75">
-      <c r="A203" s="8"/>
-      <c r="B203" s="9"/>
-      <c r="C203" s="13"/>
-      <c r="D203" s="20"/>
-      <c r="E203" s="40"/>
-      <c r="F203" s="49"/>
-      <c r="G203" s="31"/>
-      <c r="H203" s="17"/>
+      <c r="A203" s="67" t="s">
+        <v>409</v>
+      </c>
+      <c r="B203" s="8"/>
+      <c r="C203" s="65">
+        <v>75</v>
+      </c>
+      <c r="D203" s="16"/>
+      <c r="E203" s="36"/>
+      <c r="F203" s="45"/>
+      <c r="G203" s="27"/>
+      <c r="H203" s="13"/>
     </row>
     <row r="204" spans="1:8" ht="15.75">
-      <c r="A204" s="8"/>
-      <c r="B204" s="9"/>
-      <c r="C204" s="13"/>
-      <c r="D204" s="21"/>
-      <c r="E204" s="36"/>
-      <c r="F204" s="50"/>
-      <c r="G204" s="31"/>
-      <c r="H204" s="17"/>
+      <c r="A204" s="67" t="s">
+        <v>410</v>
+      </c>
+      <c r="B204" s="8"/>
+      <c r="C204" s="65">
+        <v>22</v>
+      </c>
+      <c r="D204" s="17"/>
+      <c r="E204" s="32"/>
+      <c r="F204" s="46"/>
+      <c r="G204" s="27"/>
+      <c r="H204" s="13"/>
     </row>
     <row r="205" spans="1:8" ht="15.75">
-      <c r="A205" s="8"/>
-      <c r="B205" s="9"/>
-      <c r="C205" s="13"/>
-      <c r="D205" s="21"/>
-      <c r="E205" s="21"/>
-      <c r="F205" s="49"/>
-      <c r="G205" s="31"/>
-      <c r="H205" s="17"/>
+      <c r="A205" s="67" t="s">
+        <v>411</v>
+      </c>
+      <c r="B205" s="8"/>
+      <c r="C205" s="65">
+        <v>7</v>
+      </c>
+      <c r="D205" s="17"/>
+      <c r="E205" s="17"/>
+      <c r="F205" s="45"/>
+      <c r="G205" s="27"/>
+      <c r="H205" s="13"/>
     </row>
     <row r="206" spans="1:8" ht="15.75">
-      <c r="A206" s="8"/>
-      <c r="B206" s="9"/>
-      <c r="C206" s="13"/>
-      <c r="D206" s="21"/>
-      <c r="E206" s="41"/>
-      <c r="F206" s="51"/>
-      <c r="G206" s="31"/>
-      <c r="H206" s="17"/>
+      <c r="A206" s="67" t="s">
+        <v>412</v>
+      </c>
+      <c r="B206" s="8"/>
+      <c r="C206" s="65">
+        <v>41</v>
+      </c>
+      <c r="D206" s="17"/>
+      <c r="E206" s="37"/>
+      <c r="F206" s="47"/>
+      <c r="G206" s="27"/>
+      <c r="H206" s="13"/>
     </row>
     <row r="207" spans="1:8" ht="15.75">
-      <c r="A207" s="15"/>
+      <c r="A207" s="67" t="s">
+        <v>413</v>
+      </c>
       <c r="B207" s="2"/>
-      <c r="C207" s="13"/>
-      <c r="D207" s="21"/>
-      <c r="E207" s="40"/>
-      <c r="F207" s="52"/>
-      <c r="G207" s="31"/>
-      <c r="H207" s="18"/>
+      <c r="C207" s="65">
+        <v>35</v>
+      </c>
+      <c r="D207" s="17"/>
+      <c r="E207" s="36"/>
+      <c r="F207" s="48"/>
+      <c r="G207" s="27"/>
+      <c r="H207" s="14"/>
     </row>
     <row r="208" spans="1:8" ht="15.75">
-      <c r="A208" s="15"/>
+      <c r="A208" s="67" t="s">
+        <v>414</v>
+      </c>
       <c r="B208" s="2"/>
-      <c r="C208" s="13"/>
-      <c r="D208" s="26"/>
-      <c r="E208" s="21"/>
-      <c r="F208" s="52"/>
-      <c r="G208" s="31"/>
-      <c r="H208" s="18"/>
+      <c r="C208" s="65">
+        <v>37</v>
+      </c>
+      <c r="D208" s="22"/>
+      <c r="E208" s="17"/>
+      <c r="F208" s="48"/>
+      <c r="G208" s="27"/>
+      <c r="H208" s="14"/>
     </row>
     <row r="209" spans="1:8" ht="15.75">
-      <c r="A209" s="15"/>
+      <c r="A209" s="11"/>
       <c r="B209" s="2"/>
-      <c r="C209" s="13"/>
-      <c r="D209" s="21"/>
-      <c r="E209" s="21"/>
-      <c r="F209" s="52"/>
-      <c r="G209" s="31"/>
-      <c r="H209" s="18"/>
+      <c r="C209" s="10"/>
+      <c r="D209" s="17"/>
+      <c r="E209" s="17"/>
+      <c r="F209" s="48"/>
+      <c r="G209" s="27"/>
+      <c r="H209" s="14"/>
     </row>
     <row r="210" spans="1:8" ht="15.75">
-      <c r="A210" s="15"/>
+      <c r="A210" s="11"/>
       <c r="B210" s="2"/>
-      <c r="C210" s="13"/>
-      <c r="D210" s="21"/>
-      <c r="E210" s="21"/>
-      <c r="F210" s="52"/>
-      <c r="G210" s="31"/>
-      <c r="H210" s="18"/>
+      <c r="C210" s="10"/>
+      <c r="D210" s="17"/>
+      <c r="E210" s="17"/>
+      <c r="F210" s="48"/>
+      <c r="G210" s="27"/>
+      <c r="H210" s="14"/>
     </row>
     <row r="211" spans="1:8" ht="15.75">
-      <c r="A211" s="15"/>
+      <c r="A211" s="11"/>
       <c r="B211" s="2"/>
-      <c r="C211" s="13"/>
-      <c r="D211" s="26"/>
-      <c r="E211" s="21"/>
-      <c r="F211" s="52"/>
-      <c r="G211" s="31"/>
-      <c r="H211" s="18"/>
+      <c r="C211" s="10"/>
+      <c r="D211" s="22"/>
+      <c r="E211" s="17"/>
+      <c r="F211" s="48"/>
+      <c r="G211" s="27"/>
+      <c r="H211" s="14"/>
     </row>
     <row r="212" spans="1:8" ht="15.75">
-      <c r="A212" s="15"/>
+      <c r="A212" s="11"/>
       <c r="B212" s="2"/>
-      <c r="C212" s="13"/>
-      <c r="D212" s="27"/>
-      <c r="E212" s="21"/>
-      <c r="F212" s="52"/>
-      <c r="G212" s="31"/>
-      <c r="H212" s="18"/>
+      <c r="C212" s="10"/>
+      <c r="D212" s="23"/>
+      <c r="E212" s="17"/>
+      <c r="F212" s="48"/>
+      <c r="G212" s="27"/>
+      <c r="H212" s="14"/>
     </row>
     <row r="213" spans="1:8" ht="15.75">
-      <c r="A213" s="15"/>
+      <c r="A213" s="11"/>
       <c r="B213" s="2"/>
-      <c r="C213" s="13"/>
-      <c r="D213" s="27"/>
-      <c r="E213" s="21"/>
-      <c r="F213" s="52"/>
-      <c r="G213" s="31"/>
-      <c r="H213" s="18"/>
+      <c r="C213" s="10"/>
+      <c r="D213" s="23"/>
+      <c r="E213" s="17"/>
+      <c r="F213" s="48"/>
+      <c r="G213" s="27"/>
+      <c r="H213" s="14"/>
     </row>
     <row r="214" spans="1:8" ht="15.75">
-      <c r="A214" s="15"/>
+      <c r="A214" s="11"/>
       <c r="B214" s="2"/>
-      <c r="C214" s="13"/>
-      <c r="D214" s="13"/>
-      <c r="E214" s="21"/>
-      <c r="F214" s="52"/>
-      <c r="G214" s="31"/>
-      <c r="H214" s="18"/>
+      <c r="C214" s="10"/>
+      <c r="D214" s="10"/>
+      <c r="E214" s="17"/>
+      <c r="F214" s="48"/>
+      <c r="G214" s="27"/>
+      <c r="H214" s="14"/>
     </row>
     <row r="215" spans="1:8" ht="15.75">
-      <c r="A215" s="15"/>
+      <c r="A215" s="11"/>
       <c r="B215" s="2"/>
-      <c r="C215" s="13"/>
-      <c r="D215" s="20"/>
-      <c r="E215" s="40"/>
-      <c r="F215" s="52"/>
-      <c r="G215" s="31"/>
-      <c r="H215" s="18"/>
+      <c r="C215" s="10"/>
+      <c r="D215" s="16"/>
+      <c r="E215" s="36"/>
+      <c r="F215" s="48"/>
+      <c r="G215" s="27"/>
+      <c r="H215" s="14"/>
     </row>
     <row r="216" spans="1:8" ht="15.75">
-      <c r="A216" s="15"/>
+      <c r="A216" s="11"/>
       <c r="B216" s="2"/>
-      <c r="C216" s="13"/>
-      <c r="D216" s="26"/>
-      <c r="E216" s="21"/>
-      <c r="F216" s="49"/>
-      <c r="G216" s="31"/>
-      <c r="H216" s="18"/>
+      <c r="C216" s="10"/>
+      <c r="D216" s="22"/>
+      <c r="E216" s="17"/>
+      <c r="F216" s="45"/>
+      <c r="G216" s="27"/>
+      <c r="H216" s="14"/>
     </row>
     <row r="217" spans="1:8" ht="15.75">
-      <c r="A217" s="15"/>
-      <c r="B217" s="9"/>
-      <c r="C217" s="13"/>
-      <c r="D217" s="27"/>
-      <c r="E217" s="36"/>
-      <c r="F217" s="50"/>
-      <c r="G217" s="31"/>
-      <c r="H217" s="18"/>
+      <c r="A217" s="11"/>
+      <c r="B217" s="8"/>
+      <c r="C217" s="10"/>
+      <c r="D217" s="23"/>
+      <c r="E217" s="32"/>
+      <c r="F217" s="46"/>
+      <c r="G217" s="27"/>
+      <c r="H217" s="14"/>
     </row>
     <row r="218" spans="1:8">
-      <c r="A218" s="15"/>
-      <c r="B218" s="15"/>
-      <c r="C218" s="15"/>
-      <c r="D218" s="15"/>
-      <c r="E218" s="21"/>
-      <c r="F218" s="49"/>
-      <c r="G218" s="31"/>
-      <c r="H218" s="18"/>
+      <c r="A218" s="11"/>
+      <c r="B218" s="11"/>
+      <c r="C218" s="11"/>
+      <c r="D218" s="11"/>
+      <c r="E218" s="17"/>
+      <c r="F218" s="45"/>
+      <c r="G218" s="27"/>
+      <c r="H218" s="14"/>
     </row>
     <row r="219" spans="1:8">
-      <c r="A219" s="15"/>
-      <c r="B219" s="15"/>
-      <c r="C219" s="15"/>
-      <c r="D219" s="15"/>
-      <c r="E219" s="21"/>
-      <c r="F219" s="50"/>
-      <c r="G219" s="31"/>
-      <c r="H219" s="18"/>
+      <c r="A219" s="11"/>
+      <c r="B219" s="11"/>
+      <c r="C219" s="11"/>
+      <c r="D219" s="11"/>
+      <c r="E219" s="17"/>
+      <c r="F219" s="46"/>
+      <c r="G219" s="27"/>
+      <c r="H219" s="14"/>
     </row>
     <row r="220" spans="1:8">
-      <c r="A220" s="15"/>
-      <c r="B220" s="15"/>
-      <c r="C220" s="15"/>
-      <c r="D220" s="15"/>
-      <c r="E220" s="21"/>
-      <c r="F220" s="50"/>
-      <c r="G220" s="31"/>
-      <c r="H220" s="18"/>
+      <c r="A220" s="11"/>
+      <c r="B220" s="11"/>
+      <c r="C220" s="11"/>
+      <c r="D220" s="11"/>
+      <c r="E220" s="17"/>
+      <c r="F220" s="46"/>
+      <c r="G220" s="27"/>
+      <c r="H220" s="14"/>
     </row>
     <row r="221" spans="1:8">
-      <c r="A221" s="15"/>
-      <c r="B221" s="15"/>
-      <c r="C221" s="15"/>
-      <c r="D221" s="15"/>
-      <c r="E221" s="21"/>
-      <c r="F221" s="50"/>
-      <c r="G221" s="31"/>
-      <c r="H221" s="18"/>
+      <c r="A221" s="11"/>
+      <c r="B221" s="11"/>
+      <c r="C221" s="11"/>
+      <c r="D221" s="11"/>
+      <c r="E221" s="17"/>
+      <c r="F221" s="46"/>
+      <c r="G221" s="27"/>
+      <c r="H221" s="14"/>
     </row>
     <row r="222" spans="1:8">
-      <c r="A222" s="15"/>
-      <c r="B222" s="15"/>
-      <c r="C222" s="15"/>
-      <c r="D222" s="32"/>
-      <c r="E222" s="21"/>
-      <c r="F222" s="50"/>
-      <c r="G222" s="31"/>
-      <c r="H222" s="18"/>
+      <c r="A222" s="11"/>
+      <c r="B222" s="11"/>
+      <c r="C222" s="11"/>
+      <c r="D222" s="28"/>
+      <c r="E222" s="17"/>
+      <c r="F222" s="46"/>
+      <c r="G222" s="27"/>
+      <c r="H222" s="14"/>
     </row>
     <row r="223" spans="1:8">
-      <c r="A223" s="15"/>
-      <c r="B223" s="15"/>
-      <c r="C223" s="15"/>
-      <c r="D223" s="15"/>
-      <c r="E223" s="21"/>
-      <c r="F223" s="50"/>
-      <c r="G223" s="31"/>
-      <c r="H223" s="18"/>
+      <c r="A223" s="11"/>
+      <c r="B223" s="11"/>
+      <c r="C223" s="11"/>
+      <c r="D223" s="11"/>
+      <c r="E223" s="17"/>
+      <c r="F223" s="46"/>
+      <c r="G223" s="27"/>
+      <c r="H223" s="14"/>
     </row>
     <row r="224" spans="1:8">
-      <c r="A224" s="15"/>
-      <c r="B224" s="15"/>
-      <c r="C224" s="15"/>
-      <c r="D224" s="15"/>
-      <c r="E224" s="21"/>
-      <c r="F224" s="50"/>
-      <c r="G224" s="31"/>
-      <c r="H224" s="18"/>
+      <c r="A224" s="11"/>
+      <c r="B224" s="11"/>
+      <c r="C224" s="11"/>
+      <c r="D224" s="11"/>
+      <c r="E224" s="17"/>
+      <c r="F224" s="46"/>
+      <c r="G224" s="27"/>
+      <c r="H224" s="14"/>
     </row>
     <row r="225" spans="1:8" ht="15.75">
-      <c r="A225" s="30"/>
-      <c r="B225" s="15"/>
-      <c r="C225" s="15"/>
-      <c r="D225" s="15"/>
-      <c r="E225" s="21"/>
-      <c r="F225" s="50"/>
-      <c r="G225" s="31"/>
-      <c r="H225" s="18"/>
+      <c r="A225" s="26"/>
+      <c r="B225" s="11"/>
+      <c r="C225" s="11"/>
+      <c r="D225" s="11"/>
+      <c r="E225" s="17"/>
+      <c r="F225" s="46"/>
+      <c r="G225" s="27"/>
+      <c r="H225" s="14"/>
     </row>
     <row r="226" spans="1:8">
-      <c r="A226" s="15"/>
-      <c r="B226" s="15"/>
-      <c r="C226" s="15"/>
-      <c r="D226" s="15"/>
-      <c r="E226" s="21"/>
-      <c r="F226" s="50"/>
-      <c r="G226" s="31"/>
-      <c r="H226" s="18"/>
+      <c r="A226" s="11"/>
+      <c r="B226" s="11"/>
+      <c r="C226" s="11"/>
+      <c r="D226" s="11"/>
+      <c r="E226" s="17"/>
+      <c r="F226" s="46"/>
+      <c r="G226" s="27"/>
+      <c r="H226" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5669,9 +6150,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5819,15 +6303,24 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FD49CE-D196-4C00-BC5E-382EDDDD004F}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F334BD5B-9873-472F-B0A9-4AE19CD21D29}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B92832D-94CC-4C5E-A4E8-2D2A44869573}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -5841,16 +6334,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F334BD5B-9873-472F-B0A9-4AE19CD21D29}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FD49CE-D196-4C00-BC5E-382EDDDD004F}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
 </file>
--- a/MC3020_E24.xlsx
+++ b/MC3020_E24.xlsx
@@ -1756,7 +1756,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1939,6 +1939,8 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="60% - Accent1 2" xfId="1"/>
@@ -2228,10 +2230,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H226"/>
+  <dimension ref="A1:K226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="M151" sqref="M151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2243,7 +2245,7 @@
     <col min="8" max="8" width="15.5703125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1">
+    <row r="1" spans="1:11" ht="18.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2269,7 +2271,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:11">
       <c r="A2" s="28" t="s">
         <v>9</v>
       </c>
@@ -2284,10 +2286,12 @@
       <c r="F2" s="39"/>
       <c r="G2" s="51"/>
       <c r="H2" s="61">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="J2" s="69"/>
+      <c r="K2" s="68"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="28" t="s">
         <v>11</v>
       </c>
@@ -2302,10 +2306,12 @@
       <c r="F3" s="40"/>
       <c r="G3" s="52"/>
       <c r="H3" s="61">
-        <v>93.75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="J3" s="69"/>
+      <c r="K3" s="68"/>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="28" t="s">
         <v>13</v>
       </c>
@@ -2320,10 +2326,12 @@
       <c r="F4" s="40"/>
       <c r="G4" s="53"/>
       <c r="H4" s="61">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="J4" s="69"/>
+      <c r="K4" s="68"/>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="28" t="s">
         <v>15</v>
       </c>
@@ -2340,8 +2348,10 @@
       <c r="H5" s="61">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="J5" s="69"/>
+      <c r="K5" s="68"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="28" t="s">
         <v>17</v>
       </c>
@@ -2356,10 +2366,12 @@
       <c r="F6" s="40"/>
       <c r="G6" s="53"/>
       <c r="H6" s="61">
-        <v>43.75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="J6" s="69"/>
+      <c r="K6" s="68"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="28" t="s">
         <v>19</v>
       </c>
@@ -2374,10 +2386,12 @@
       <c r="F7" s="40"/>
       <c r="G7" s="53"/>
       <c r="H7" s="61">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="J7" s="69"/>
+      <c r="K7" s="68"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="28" t="s">
         <v>21</v>
       </c>
@@ -2392,10 +2406,12 @@
       <c r="F8" s="40"/>
       <c r="G8" s="53"/>
       <c r="H8" s="61">
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="J8" s="69"/>
+      <c r="K8" s="68"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="28" t="s">
         <v>23</v>
       </c>
@@ -2410,10 +2426,12 @@
       <c r="F9" s="40"/>
       <c r="G9" s="53"/>
       <c r="H9" s="61">
-        <v>68.75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="J9" s="69"/>
+      <c r="K9" s="68"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="28" t="s">
         <v>25</v>
       </c>
@@ -2428,10 +2446,12 @@
       <c r="F10" s="40"/>
       <c r="G10" s="53"/>
       <c r="H10" s="61">
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="J10" s="69"/>
+      <c r="K10" s="68"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="28" t="s">
         <v>27</v>
       </c>
@@ -2446,10 +2466,12 @@
       <c r="F11" s="40"/>
       <c r="G11" s="53"/>
       <c r="H11" s="61">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="J11" s="69"/>
+      <c r="K11" s="68"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="28" t="s">
         <v>29</v>
       </c>
@@ -2464,10 +2486,12 @@
       <c r="F12" s="40"/>
       <c r="G12" s="53"/>
       <c r="H12" s="61">
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="J12" s="69"/>
+      <c r="K12" s="68"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="28" t="s">
         <v>31</v>
       </c>
@@ -2482,10 +2506,12 @@
       <c r="F13" s="40"/>
       <c r="G13" s="53"/>
       <c r="H13" s="61">
-        <v>93.33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>89.47</v>
+      </c>
+      <c r="J13" s="69"/>
+      <c r="K13" s="68"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="28" t="s">
         <v>33</v>
       </c>
@@ -2500,10 +2526,12 @@
       <c r="F14" s="40"/>
       <c r="G14" s="53"/>
       <c r="H14" s="61">
-        <v>81.25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="J14" s="69"/>
+      <c r="K14" s="68"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="28" t="s">
         <v>35</v>
       </c>
@@ -2518,10 +2546,12 @@
       <c r="F15" s="40"/>
       <c r="G15" s="53"/>
       <c r="H15" s="61">
-        <v>81.25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="J15" s="69"/>
+      <c r="K15" s="68"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="28" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2568,10 @@
       <c r="H16" s="61">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="J16" s="69"/>
+      <c r="K16" s="68"/>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="28" t="s">
         <v>39</v>
       </c>
@@ -2554,10 +2586,12 @@
       <c r="F17" s="38"/>
       <c r="G17" s="54"/>
       <c r="H17" s="61">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="J17" s="69"/>
+      <c r="K17" s="68"/>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="28" t="s">
         <v>41</v>
       </c>
@@ -2572,10 +2606,12 @@
       <c r="F18" s="40"/>
       <c r="G18" s="53"/>
       <c r="H18" s="61">
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="J18" s="69"/>
+      <c r="K18" s="68"/>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="28" t="s">
         <v>43</v>
       </c>
@@ -2592,8 +2628,10 @@
       <c r="H19" s="61">
         <v>75</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="J19" s="69"/>
+      <c r="K19" s="68"/>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="28" t="s">
         <v>45</v>
       </c>
@@ -2608,10 +2646,12 @@
       <c r="F20" s="40"/>
       <c r="G20" s="53"/>
       <c r="H20" s="61">
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="J20" s="69"/>
+      <c r="K20" s="68"/>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="28" t="s">
         <v>47</v>
       </c>
@@ -2626,10 +2666,12 @@
       <c r="F21" s="40"/>
       <c r="G21" s="53"/>
       <c r="H21" s="61">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="J21" s="69"/>
+      <c r="K21" s="68"/>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="28" t="s">
         <v>49</v>
       </c>
@@ -2644,10 +2686,12 @@
       <c r="F22" s="40"/>
       <c r="G22" s="53"/>
       <c r="H22" s="61">
-        <v>81.25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="J22" s="69"/>
+      <c r="K22" s="68"/>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="28" t="s">
         <v>51</v>
       </c>
@@ -2662,10 +2706,12 @@
       <c r="F23" s="40"/>
       <c r="G23" s="53"/>
       <c r="H23" s="61">
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="J23" s="69"/>
+      <c r="K23" s="68"/>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="28" t="s">
         <v>53</v>
       </c>
@@ -2680,10 +2726,12 @@
       <c r="F24" s="40"/>
       <c r="G24" s="53"/>
       <c r="H24" s="61">
-        <v>81.25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="J24" s="69"/>
+      <c r="K24" s="68"/>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="28" t="s">
         <v>55</v>
       </c>
@@ -2698,10 +2746,12 @@
       <c r="F25" s="40"/>
       <c r="G25" s="53"/>
       <c r="H25" s="61">
-        <v>81.25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="J25" s="69"/>
+      <c r="K25" s="68"/>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="28" t="s">
         <v>57</v>
       </c>
@@ -2716,10 +2766,12 @@
       <c r="F26" s="40"/>
       <c r="G26" s="53"/>
       <c r="H26" s="61">
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="J26" s="69"/>
+      <c r="K26" s="68"/>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="28" t="s">
         <v>59</v>
       </c>
@@ -2734,10 +2786,12 @@
       <c r="F27" s="40"/>
       <c r="G27" s="53"/>
       <c r="H27" s="61">
-        <v>81.25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="J27" s="69"/>
+      <c r="K27" s="68"/>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="28" t="s">
         <v>61</v>
       </c>
@@ -2752,10 +2806,12 @@
       <c r="F28" s="40"/>
       <c r="G28" s="53"/>
       <c r="H28" s="61">
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="J28" s="69"/>
+      <c r="K28" s="68"/>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="28" t="s">
         <v>63</v>
       </c>
@@ -2772,8 +2828,10 @@
       <c r="H29" s="61">
         <v>100</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="J29" s="69"/>
+      <c r="K29" s="68"/>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="28" t="s">
         <v>65</v>
       </c>
@@ -2788,10 +2846,12 @@
       <c r="F30" s="40"/>
       <c r="G30" s="53"/>
       <c r="H30" s="61">
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="J30" s="69"/>
+      <c r="K30" s="68"/>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="28" t="s">
         <v>67</v>
       </c>
@@ -2806,10 +2866,12 @@
       <c r="F31" s="40"/>
       <c r="G31" s="53"/>
       <c r="H31" s="61">
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="J31" s="69"/>
+      <c r="K31" s="68"/>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="28" t="s">
         <v>69</v>
       </c>
@@ -2824,10 +2886,12 @@
       <c r="F32" s="40"/>
       <c r="G32" s="55"/>
       <c r="H32" s="61">
-        <v>56.25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="J32" s="69"/>
+      <c r="K32" s="68"/>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="28" t="s">
         <v>71</v>
       </c>
@@ -2842,10 +2906,12 @@
       <c r="F33" s="40"/>
       <c r="G33" s="53"/>
       <c r="H33" s="61">
-        <v>68.75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="J33" s="69"/>
+      <c r="K33" s="68"/>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="28" t="s">
         <v>73</v>
       </c>
@@ -2860,10 +2926,12 @@
       <c r="F34" s="40"/>
       <c r="G34" s="53"/>
       <c r="H34" s="61">
-        <v>93.75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="J34" s="69"/>
+      <c r="K34" s="68"/>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="28" t="s">
         <v>75</v>
       </c>
@@ -2878,10 +2946,12 @@
       <c r="F35" s="40"/>
       <c r="G35" s="53"/>
       <c r="H35" s="61">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="J35" s="69"/>
+      <c r="K35" s="68"/>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="28" t="s">
         <v>77</v>
       </c>
@@ -2896,10 +2966,12 @@
       <c r="F36" s="40"/>
       <c r="G36" s="53"/>
       <c r="H36" s="61">
-        <v>81.25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="J36" s="69"/>
+      <c r="K36" s="68"/>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="28" t="s">
         <v>79</v>
       </c>
@@ -2914,10 +2986,12 @@
       <c r="F37" s="40"/>
       <c r="G37" s="53"/>
       <c r="H37" s="61">
-        <v>81.25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="J37" s="69"/>
+      <c r="K37" s="68"/>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="28" t="s">
         <v>81</v>
       </c>
@@ -2932,10 +3006,12 @@
       <c r="F38" s="40"/>
       <c r="G38" s="53"/>
       <c r="H38" s="61">
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="J38" s="69"/>
+      <c r="K38" s="68"/>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="28" t="s">
         <v>83</v>
       </c>
@@ -2950,10 +3026,12 @@
       <c r="F39" s="40"/>
       <c r="G39" s="53"/>
       <c r="H39" s="61">
-        <v>81.25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="J39" s="69"/>
+      <c r="K39" s="68"/>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="28" t="s">
         <v>85</v>
       </c>
@@ -2968,10 +3046,12 @@
       <c r="F40" s="40"/>
       <c r="G40" s="53"/>
       <c r="H40" s="61">
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="J40" s="69"/>
+      <c r="K40" s="68"/>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="28" t="s">
         <v>87</v>
       </c>
@@ -2986,10 +3066,12 @@
       <c r="F41" s="40"/>
       <c r="G41" s="53"/>
       <c r="H41" s="61">
-        <v>43.75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="J41" s="69"/>
+      <c r="K41" s="68"/>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="28" t="s">
         <v>89</v>
       </c>
@@ -3004,10 +3086,12 @@
       <c r="F42" s="40"/>
       <c r="G42" s="53"/>
       <c r="H42" s="61">
-        <v>68.75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="J42" s="69"/>
+      <c r="K42" s="68"/>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="28" t="s">
         <v>91</v>
       </c>
@@ -3022,10 +3106,12 @@
       <c r="F43" s="40"/>
       <c r="G43" s="53"/>
       <c r="H43" s="61">
-        <v>56.25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>55.000000000000007</v>
+      </c>
+      <c r="J43" s="69"/>
+      <c r="K43" s="68"/>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="28" t="s">
         <v>93</v>
       </c>
@@ -3040,10 +3126,12 @@
       <c r="F44" s="40"/>
       <c r="G44" s="53"/>
       <c r="H44" s="61">
-        <v>68.75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="J44" s="69"/>
+      <c r="K44" s="68"/>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="28" t="s">
         <v>95</v>
       </c>
@@ -3058,10 +3146,12 @@
       <c r="F45" s="40"/>
       <c r="G45" s="53"/>
       <c r="H45" s="61">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="J45" s="69"/>
+      <c r="K45" s="68"/>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="28" t="s">
         <v>97</v>
       </c>
@@ -3076,10 +3166,12 @@
       <c r="F46" s="40"/>
       <c r="G46" s="53"/>
       <c r="H46" s="61">
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="J46" s="69"/>
+      <c r="K46" s="68"/>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="28" t="s">
         <v>99</v>
       </c>
@@ -3094,10 +3186,12 @@
       <c r="F47" s="40"/>
       <c r="G47" s="53"/>
       <c r="H47" s="61">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="J47" s="69"/>
+      <c r="K47" s="68"/>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="28" t="s">
         <v>101</v>
       </c>
@@ -3112,10 +3206,12 @@
       <c r="F48" s="40"/>
       <c r="G48" s="53"/>
       <c r="H48" s="61">
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="J48" s="69"/>
+      <c r="K48" s="68"/>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="28" t="s">
         <v>103</v>
       </c>
@@ -3130,10 +3226,12 @@
       <c r="F49" s="40"/>
       <c r="G49" s="55"/>
       <c r="H49" s="61">
-        <v>18.75</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="J49" s="69"/>
+      <c r="K49" s="68"/>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="28" t="s">
         <v>105</v>
       </c>
@@ -3148,10 +3246,12 @@
       <c r="F50" s="40"/>
       <c r="G50" s="53"/>
       <c r="H50" s="61">
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="J50" s="69"/>
+      <c r="K50" s="68"/>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="28" t="s">
         <v>107</v>
       </c>
@@ -3166,10 +3266,12 @@
       <c r="F51" s="40"/>
       <c r="G51" s="53"/>
       <c r="H51" s="61">
-        <v>81.25</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="J51" s="69"/>
+      <c r="K51" s="68"/>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="28" t="s">
         <v>109</v>
       </c>
@@ -3184,10 +3286,12 @@
       <c r="F52" s="40"/>
       <c r="G52" s="53"/>
       <c r="H52" s="61">
-        <v>81.25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="J52" s="69"/>
+      <c r="K52" s="68"/>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="28" t="s">
         <v>111</v>
       </c>
@@ -3202,10 +3306,12 @@
       <c r="F53" s="40"/>
       <c r="G53" s="53"/>
       <c r="H53" s="61">
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="J53" s="69"/>
+      <c r="K53" s="68"/>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="28" t="s">
         <v>113</v>
       </c>
@@ -3222,8 +3328,10 @@
       <c r="H54" s="61">
         <v>75</v>
       </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="J54" s="69"/>
+      <c r="K54" s="68"/>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="28" t="s">
         <v>115</v>
       </c>
@@ -3238,10 +3346,12 @@
       <c r="F55" s="40"/>
       <c r="G55" s="53"/>
       <c r="H55" s="61">
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="J55" s="69"/>
+      <c r="K55" s="68"/>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="28" t="s">
         <v>117</v>
       </c>
@@ -3258,8 +3368,10 @@
       <c r="H56" s="61">
         <v>100</v>
       </c>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="J56" s="69"/>
+      <c r="K56" s="68"/>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="28" t="s">
         <v>119</v>
       </c>
@@ -3274,10 +3386,12 @@
       <c r="F57" s="40"/>
       <c r="G57" s="53"/>
       <c r="H57" s="61">
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="J57" s="69"/>
+      <c r="K57" s="68"/>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="28" t="s">
         <v>121</v>
       </c>
@@ -3292,10 +3406,12 @@
       <c r="F58" s="40"/>
       <c r="G58" s="53"/>
       <c r="H58" s="61">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="J58" s="69"/>
+      <c r="K58" s="68"/>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="28" t="s">
         <v>123</v>
       </c>
@@ -3310,10 +3426,12 @@
       <c r="F59" s="40"/>
       <c r="G59" s="53"/>
       <c r="H59" s="61">
-        <v>81.25</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="J59" s="69"/>
+      <c r="K59" s="68"/>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="28" t="s">
         <v>125</v>
       </c>
@@ -3328,10 +3446,12 @@
       <c r="F60" s="40"/>
       <c r="G60" s="53"/>
       <c r="H60" s="61">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="J60" s="69"/>
+      <c r="K60" s="68"/>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="28" t="s">
         <v>127</v>
       </c>
@@ -3346,10 +3466,12 @@
       <c r="F61" s="41"/>
       <c r="G61" s="54"/>
       <c r="H61" s="61">
-        <v>68.75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="J61" s="69"/>
+      <c r="K61" s="68"/>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="28" t="s">
         <v>129</v>
       </c>
@@ -3364,10 +3486,12 @@
       <c r="F62" s="40"/>
       <c r="G62" s="53"/>
       <c r="H62" s="61">
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="J62" s="69"/>
+      <c r="K62" s="68"/>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="28" t="s">
         <v>131</v>
       </c>
@@ -3382,10 +3506,12 @@
       <c r="F63" s="40"/>
       <c r="G63" s="53"/>
       <c r="H63" s="61">
-        <v>68.75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="J63" s="69"/>
+      <c r="K63" s="68"/>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="28" t="s">
         <v>133</v>
       </c>
@@ -3402,8 +3528,10 @@
       <c r="H64" s="61">
         <v>100</v>
       </c>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="J64" s="69"/>
+      <c r="K64" s="68"/>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="28" t="s">
         <v>135</v>
       </c>
@@ -3418,10 +3546,12 @@
       <c r="F65" s="40"/>
       <c r="G65" s="53"/>
       <c r="H65" s="61">
-        <v>93.75</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="J65" s="69"/>
+      <c r="K65" s="68"/>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="28" t="s">
         <v>137</v>
       </c>
@@ -3436,10 +3566,12 @@
       <c r="F66" s="40"/>
       <c r="G66" s="53"/>
       <c r="H66" s="61">
-        <v>81.25</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="J66" s="69"/>
+      <c r="K66" s="68"/>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="28" t="s">
         <v>139</v>
       </c>
@@ -3454,10 +3586,12 @@
       <c r="F67" s="40"/>
       <c r="G67" s="53"/>
       <c r="H67" s="61">
-        <v>93.75</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="J67" s="69"/>
+      <c r="K67" s="68"/>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="28" t="s">
         <v>141</v>
       </c>
@@ -3472,10 +3606,12 @@
       <c r="F68" s="40"/>
       <c r="G68" s="53"/>
       <c r="H68" s="61">
-        <v>56.25</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="J68" s="69"/>
+      <c r="K68" s="68"/>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="28" t="s">
         <v>143</v>
       </c>
@@ -3492,8 +3628,10 @@
       <c r="H69" s="61">
         <v>50</v>
       </c>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="J69" s="69"/>
+      <c r="K69" s="68"/>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="28" t="s">
         <v>145</v>
       </c>
@@ -3510,8 +3648,10 @@
       <c r="H70" s="61">
         <v>75</v>
       </c>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="J70" s="69"/>
+      <c r="K70" s="68"/>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="28" t="s">
         <v>147</v>
       </c>
@@ -3526,10 +3666,12 @@
       <c r="F71" s="40"/>
       <c r="G71" s="53"/>
       <c r="H71" s="61">
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="J71" s="69"/>
+      <c r="K71" s="68"/>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="28" t="s">
         <v>149</v>
       </c>
@@ -3544,10 +3686,12 @@
       <c r="F72" s="40"/>
       <c r="G72" s="53"/>
       <c r="H72" s="61">
-        <v>68.75</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="J72" s="69"/>
+      <c r="K72" s="68"/>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="28" t="s">
         <v>151</v>
       </c>
@@ -3562,10 +3706,12 @@
       <c r="F73" s="40"/>
       <c r="G73" s="53"/>
       <c r="H73" s="61">
-        <v>81.25</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="J73" s="69"/>
+      <c r="K73" s="68"/>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="28" t="s">
         <v>153</v>
       </c>
@@ -3582,8 +3728,10 @@
       <c r="H74" s="61">
         <v>100</v>
       </c>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="J74" s="69"/>
+      <c r="K74" s="68"/>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="28" t="s">
         <v>155</v>
       </c>
@@ -3600,8 +3748,10 @@
       <c r="H75" s="61">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="J75" s="69"/>
+      <c r="K75" s="68"/>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="28" t="s">
         <v>157</v>
       </c>
@@ -3618,8 +3768,10 @@
       <c r="H76" s="61">
         <v>50</v>
       </c>
-    </row>
-    <row r="77" spans="1:8">
+      <c r="J76" s="69"/>
+      <c r="K76" s="68"/>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="28" t="s">
         <v>159</v>
       </c>
@@ -3634,10 +3786,12 @@
       <c r="F77" s="40"/>
       <c r="G77" s="53"/>
       <c r="H77" s="61">
-        <v>56.25</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="J77" s="69"/>
+      <c r="K77" s="68"/>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="28" t="s">
         <v>161</v>
       </c>
@@ -3652,10 +3806,12 @@
       <c r="F78" s="40"/>
       <c r="G78" s="53"/>
       <c r="H78" s="61">
-        <v>81.25</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="J78" s="69"/>
+      <c r="K78" s="68"/>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="28" t="s">
         <v>163</v>
       </c>
@@ -3672,8 +3828,10 @@
       <c r="H79" s="61">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:8">
+      <c r="J79" s="69"/>
+      <c r="K79" s="68"/>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="28" t="s">
         <v>165</v>
       </c>
@@ -3688,10 +3846,12 @@
       <c r="F80" s="40"/>
       <c r="G80" s="53"/>
       <c r="H80" s="61">
-        <v>81.25</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="J80" s="69"/>
+      <c r="K80" s="68"/>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="28" t="s">
         <v>167</v>
       </c>
@@ -3706,10 +3866,12 @@
       <c r="F81" s="40"/>
       <c r="G81" s="53"/>
       <c r="H81" s="61">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="J81" s="69"/>
+      <c r="K81" s="68"/>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="28" t="s">
         <v>169</v>
       </c>
@@ -3724,10 +3886,12 @@
       <c r="F82" s="40"/>
       <c r="G82" s="53"/>
       <c r="H82" s="61">
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="J82" s="69"/>
+      <c r="K82" s="68"/>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="28" t="s">
         <v>171</v>
       </c>
@@ -3742,10 +3906,12 @@
       <c r="F83" s="40"/>
       <c r="G83" s="53"/>
       <c r="H83" s="61">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="J83" s="69"/>
+      <c r="K83" s="68"/>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="28" t="s">
         <v>173</v>
       </c>
@@ -3760,10 +3926,12 @@
       <c r="F84" s="40"/>
       <c r="G84" s="53"/>
       <c r="H84" s="61">
-        <v>93.75</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="J84" s="69"/>
+      <c r="K84" s="68"/>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="28" t="s">
         <v>175</v>
       </c>
@@ -3778,10 +3946,12 @@
       <c r="F85" s="40"/>
       <c r="G85" s="53"/>
       <c r="H85" s="61">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="J85" s="69"/>
+      <c r="K85" s="68"/>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="28" t="s">
         <v>177</v>
       </c>
@@ -3796,10 +3966,12 @@
       <c r="F86" s="40"/>
       <c r="G86" s="55"/>
       <c r="H86" s="61">
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="J86" s="69"/>
+      <c r="K86" s="68"/>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="28" t="s">
         <v>179</v>
       </c>
@@ -3814,10 +3986,12 @@
       <c r="F87" s="40"/>
       <c r="G87" s="53"/>
       <c r="H87" s="61">
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="J87" s="69"/>
+      <c r="K87" s="68"/>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="28" t="s">
         <v>181</v>
       </c>
@@ -3834,8 +4008,10 @@
       <c r="H88" s="61">
         <v>75</v>
       </c>
-    </row>
-    <row r="89" spans="1:8">
+      <c r="J88" s="69"/>
+      <c r="K88" s="68"/>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="28" t="s">
         <v>183</v>
       </c>
@@ -3850,10 +4026,12 @@
       <c r="F89" s="40"/>
       <c r="G89" s="53"/>
       <c r="H89" s="61">
-        <v>81.25</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="J89" s="69"/>
+      <c r="K89" s="68"/>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="28" t="s">
         <v>185</v>
       </c>
@@ -3870,8 +4048,10 @@
       <c r="H90" s="61">
         <v>50</v>
       </c>
-    </row>
-    <row r="91" spans="1:8">
+      <c r="J90" s="69"/>
+      <c r="K90" s="68"/>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="28" t="s">
         <v>187</v>
       </c>
@@ -3886,10 +4066,12 @@
       <c r="F91" s="40"/>
       <c r="G91" s="53"/>
       <c r="H91" s="61">
-        <v>81.25</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="J91" s="69"/>
+      <c r="K91" s="68"/>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="28" t="s">
         <v>189</v>
       </c>
@@ -3904,10 +4086,12 @@
       <c r="F92" s="40"/>
       <c r="G92" s="53"/>
       <c r="H92" s="61">
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="J92" s="69"/>
+      <c r="K92" s="68"/>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="28" t="s">
         <v>191</v>
       </c>
@@ -3922,10 +4106,12 @@
       <c r="F93" s="40"/>
       <c r="G93" s="55"/>
       <c r="H93" s="61">
-        <v>56.25</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>55.000000000000007</v>
+      </c>
+      <c r="J93" s="69"/>
+      <c r="K93" s="68"/>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="28" t="s">
         <v>193</v>
       </c>
@@ -3940,10 +4126,12 @@
       <c r="F94" s="40"/>
       <c r="G94" s="53"/>
       <c r="H94" s="61">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="J94" s="69"/>
+      <c r="K94" s="68"/>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="28" t="s">
         <v>195</v>
       </c>
@@ -3958,10 +4146,12 @@
       <c r="F95" s="40"/>
       <c r="G95" s="53"/>
       <c r="H95" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>10</v>
+      </c>
+      <c r="J95" s="69"/>
+      <c r="K95" s="68"/>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="28" t="s">
         <v>197</v>
       </c>
@@ -3976,10 +4166,12 @@
       <c r="F96" s="40"/>
       <c r="G96" s="53"/>
       <c r="H96" s="61">
-        <v>81.25</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="J96" s="69"/>
+      <c r="K96" s="68"/>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="28" t="s">
         <v>199</v>
       </c>
@@ -3994,10 +4186,12 @@
       <c r="F97" s="40"/>
       <c r="G97" s="53"/>
       <c r="H97" s="61">
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="J97" s="69"/>
+      <c r="K97" s="68"/>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="28" t="s">
         <v>201</v>
       </c>
@@ -4012,10 +4206,12 @@
       <c r="F98" s="40"/>
       <c r="G98" s="53"/>
       <c r="H98" s="61">
-        <v>68.75</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="J98" s="69"/>
+      <c r="K98" s="68"/>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="28" t="s">
         <v>203</v>
       </c>
@@ -4030,10 +4226,12 @@
       <c r="F99" s="40"/>
       <c r="G99" s="53"/>
       <c r="H99" s="61">
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="J99" s="69"/>
+      <c r="K99" s="68"/>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="28" t="s">
         <v>205</v>
       </c>
@@ -4048,10 +4246,12 @@
       <c r="F100" s="41"/>
       <c r="G100" s="54"/>
       <c r="H100" s="61">
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="J100" s="69"/>
+      <c r="K100" s="68"/>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="28" t="s">
         <v>207</v>
       </c>
@@ -4068,8 +4268,10 @@
       <c r="H101" s="61">
         <v>50</v>
       </c>
-    </row>
-    <row r="102" spans="1:8">
+      <c r="J101" s="69"/>
+      <c r="K101" s="68"/>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="28" t="s">
         <v>209</v>
       </c>
@@ -4086,8 +4288,10 @@
       <c r="H102" s="61">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="J102" s="69"/>
+      <c r="K102" s="68"/>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="28" t="s">
         <v>211</v>
       </c>
@@ -4102,10 +4306,12 @@
       <c r="F103" s="40"/>
       <c r="G103" s="53"/>
       <c r="H103" s="61">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="J103" s="69"/>
+      <c r="K103" s="68"/>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="28" t="s">
         <v>213</v>
       </c>
@@ -4120,10 +4326,12 @@
       <c r="F104" s="40"/>
       <c r="G104" s="55"/>
       <c r="H104" s="61">
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="J104" s="69"/>
+      <c r="K104" s="68"/>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" s="28" t="s">
         <v>215</v>
       </c>
@@ -4138,10 +4346,12 @@
       <c r="F105" s="40"/>
       <c r="G105" s="53"/>
       <c r="H105" s="61">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="J105" s="69"/>
+      <c r="K105" s="68"/>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" s="28" t="s">
         <v>217</v>
       </c>
@@ -4156,10 +4366,12 @@
       <c r="F106" s="40"/>
       <c r="G106" s="53"/>
       <c r="H106" s="61">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="J106" s="69"/>
+      <c r="K106" s="68"/>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" s="28" t="s">
         <v>219</v>
       </c>
@@ -4174,10 +4386,12 @@
       <c r="F107" s="40"/>
       <c r="G107" s="53"/>
       <c r="H107" s="61">
-        <v>93.75</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="J107" s="69"/>
+      <c r="K107" s="68"/>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108" s="28" t="s">
         <v>221</v>
       </c>
@@ -4192,10 +4406,12 @@
       <c r="F108" s="40"/>
       <c r="G108" s="53"/>
       <c r="H108" s="61">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="J108" s="69"/>
+      <c r="K108" s="68"/>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109" s="28" t="s">
         <v>223</v>
       </c>
@@ -4210,10 +4426,12 @@
       <c r="F109" s="40"/>
       <c r="G109" s="53"/>
       <c r="H109" s="61">
-        <v>81.25</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="J109" s="69"/>
+      <c r="K109" s="68"/>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110" s="28" t="s">
         <v>225</v>
       </c>
@@ -4230,8 +4448,10 @@
       <c r="H110" s="61">
         <v>100</v>
       </c>
-    </row>
-    <row r="111" spans="1:8">
+      <c r="J110" s="69"/>
+      <c r="K110" s="68"/>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111" s="28" t="s">
         <v>227</v>
       </c>
@@ -4248,8 +4468,10 @@
       <c r="H111" s="61">
         <v>100</v>
       </c>
-    </row>
-    <row r="112" spans="1:8">
+      <c r="J111" s="69"/>
+      <c r="K111" s="68"/>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112" s="28" t="s">
         <v>229</v>
       </c>
@@ -4264,10 +4486,12 @@
       <c r="F112" s="40"/>
       <c r="G112" s="53"/>
       <c r="H112" s="61">
-        <v>68.75</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="J112" s="69"/>
+      <c r="K112" s="68"/>
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113" s="28" t="s">
         <v>231</v>
       </c>
@@ -4282,10 +4506,12 @@
       <c r="F113" s="40"/>
       <c r="G113" s="53"/>
       <c r="H113" s="61">
-        <v>81.25</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="J113" s="69"/>
+      <c r="K113" s="68"/>
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114" s="28" t="s">
         <v>233</v>
       </c>
@@ -4300,10 +4526,12 @@
       <c r="F114" s="40"/>
       <c r="G114" s="53"/>
       <c r="H114" s="61">
-        <v>68.75</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="J114" s="69"/>
+      <c r="K114" s="68"/>
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115" s="28" t="s">
         <v>234</v>
       </c>
@@ -4320,8 +4548,10 @@
       <c r="H115" s="61">
         <v>75</v>
       </c>
-    </row>
-    <row r="116" spans="1:8">
+      <c r="J115" s="69"/>
+      <c r="K115" s="68"/>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116" s="28" t="s">
         <v>236</v>
       </c>
@@ -4336,10 +4566,12 @@
       <c r="F116" s="40"/>
       <c r="G116" s="53"/>
       <c r="H116" s="61">
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="17.25" customHeight="1">
+        <v>90</v>
+      </c>
+      <c r="J116" s="69"/>
+      <c r="K116" s="68"/>
+    </row>
+    <row r="117" spans="1:11" ht="17.25" customHeight="1">
       <c r="A117" s="28" t="s">
         <v>238</v>
       </c>
@@ -4354,10 +4586,12 @@
       <c r="F117" s="40"/>
       <c r="G117" s="53"/>
       <c r="H117" s="61">
-        <v>68.75</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="J117" s="69"/>
+      <c r="K117" s="68"/>
+    </row>
+    <row r="118" spans="1:11">
       <c r="A118" s="28" t="s">
         <v>240</v>
       </c>
@@ -4372,10 +4606,12 @@
       <c r="F118" s="40"/>
       <c r="G118" s="53"/>
       <c r="H118" s="61">
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="J118" s="69"/>
+      <c r="K118" s="68"/>
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119" s="28" t="s">
         <v>242</v>
       </c>
@@ -4390,10 +4626,12 @@
       <c r="F119" s="40"/>
       <c r="G119" s="53"/>
       <c r="H119" s="61">
-        <v>81.25</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="J119" s="69"/>
+      <c r="K119" s="68"/>
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120" s="28" t="s">
         <v>244</v>
       </c>
@@ -4408,10 +4646,12 @@
       <c r="F120" s="40"/>
       <c r="G120" s="53"/>
       <c r="H120" s="61">
-        <v>81.25</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="J120" s="69"/>
+      <c r="K120" s="68"/>
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121" s="28" t="s">
         <v>246</v>
       </c>
@@ -4426,10 +4666,12 @@
       <c r="F121" s="40"/>
       <c r="G121" s="53"/>
       <c r="H121" s="61">
-        <v>68.75</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="J121" s="69"/>
+      <c r="K121" s="68"/>
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122" s="28" t="s">
         <v>248</v>
       </c>
@@ -4446,8 +4688,10 @@
       <c r="H122" s="61">
         <v>75</v>
       </c>
-    </row>
-    <row r="123" spans="1:8">
+      <c r="J122" s="69"/>
+      <c r="K122" s="68"/>
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123" s="28" t="s">
         <v>250</v>
       </c>
@@ -4464,8 +4708,10 @@
       <c r="H123" s="61">
         <v>100</v>
       </c>
-    </row>
-    <row r="124" spans="1:8">
+      <c r="J123" s="69"/>
+      <c r="K123" s="68"/>
+    </row>
+    <row r="124" spans="1:11">
       <c r="A124" s="28" t="s">
         <v>252</v>
       </c>
@@ -4480,10 +4726,12 @@
       <c r="F124" s="40"/>
       <c r="G124" s="53"/>
       <c r="H124" s="61">
-        <v>81.25</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="J124" s="69"/>
+      <c r="K124" s="68"/>
+    </row>
+    <row r="125" spans="1:11">
       <c r="A125" s="28" t="s">
         <v>254</v>
       </c>
@@ -4500,8 +4748,10 @@
       <c r="H125" s="61">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:8">
+      <c r="J125" s="69"/>
+      <c r="K125" s="68"/>
+    </row>
+    <row r="126" spans="1:11">
       <c r="A126" s="28" t="s">
         <v>256</v>
       </c>
@@ -4516,10 +4766,12 @@
       <c r="F126" s="40"/>
       <c r="G126" s="53"/>
       <c r="H126" s="61">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="J126" s="69"/>
+      <c r="K126" s="68"/>
+    </row>
+    <row r="127" spans="1:11">
       <c r="A127" s="28" t="s">
         <v>258</v>
       </c>
@@ -4534,10 +4786,12 @@
       <c r="F127" s="40"/>
       <c r="G127" s="53"/>
       <c r="H127" s="61">
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="J127" s="69"/>
+      <c r="K127" s="68"/>
+    </row>
+    <row r="128" spans="1:11">
       <c r="A128" s="28" t="s">
         <v>260</v>
       </c>
@@ -4552,10 +4806,12 @@
       <c r="F128" s="40"/>
       <c r="G128" s="53"/>
       <c r="H128" s="61">
-        <v>81.25</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="J128" s="69"/>
+      <c r="K128" s="68"/>
+    </row>
+    <row r="129" spans="1:11">
       <c r="A129" s="28" t="s">
         <v>262</v>
       </c>
@@ -4572,8 +4828,10 @@
       <c r="H129" s="61">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:8">
+      <c r="J129" s="69"/>
+      <c r="K129" s="68"/>
+    </row>
+    <row r="130" spans="1:11">
       <c r="A130" s="28" t="s">
         <v>264</v>
       </c>
@@ -4588,10 +4846,12 @@
       <c r="F130" s="40"/>
       <c r="G130" s="53"/>
       <c r="H130" s="61">
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="J130" s="69"/>
+      <c r="K130" s="68"/>
+    </row>
+    <row r="131" spans="1:11">
       <c r="A131" s="28" t="s">
         <v>266</v>
       </c>
@@ -4606,10 +4866,12 @@
       <c r="F131" s="40"/>
       <c r="G131" s="53"/>
       <c r="H131" s="61">
-        <v>81.25</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="J131" s="69"/>
+      <c r="K131" s="68"/>
+    </row>
+    <row r="132" spans="1:11">
       <c r="A132" s="28" t="s">
         <v>268</v>
       </c>
@@ -4624,10 +4886,12 @@
       <c r="F132" s="40"/>
       <c r="G132" s="53"/>
       <c r="H132" s="61">
-        <v>81.25</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="J132" s="69"/>
+      <c r="K132" s="68"/>
+    </row>
+    <row r="133" spans="1:11">
       <c r="A133" s="28" t="s">
         <v>270</v>
       </c>
@@ -4642,10 +4906,12 @@
       <c r="F133" s="40"/>
       <c r="G133" s="53"/>
       <c r="H133" s="61">
-        <v>68.75</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="J133" s="69"/>
+      <c r="K133" s="68"/>
+    </row>
+    <row r="134" spans="1:11">
       <c r="A134" s="28" t="s">
         <v>272</v>
       </c>
@@ -4660,10 +4926,12 @@
       <c r="F134" s="40"/>
       <c r="G134" s="53"/>
       <c r="H134" s="61">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="J134" s="69"/>
+      <c r="K134" s="68"/>
+    </row>
+    <row r="135" spans="1:11">
       <c r="A135" s="28" t="s">
         <v>274</v>
       </c>
@@ -4678,10 +4946,12 @@
       <c r="F135" s="40"/>
       <c r="G135" s="53"/>
       <c r="H135" s="61">
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="J135" s="69"/>
+      <c r="K135" s="68"/>
+    </row>
+    <row r="136" spans="1:11">
       <c r="A136" s="28" t="s">
         <v>276</v>
       </c>
@@ -4696,10 +4966,12 @@
       <c r="F136" s="40"/>
       <c r="G136" s="53"/>
       <c r="H136" s="61">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="J136" s="69"/>
+      <c r="K136" s="68"/>
+    </row>
+    <row r="137" spans="1:11">
       <c r="A137" s="28" t="s">
         <v>278</v>
       </c>
@@ -4714,10 +4986,12 @@
       <c r="F137" s="40"/>
       <c r="G137" s="53"/>
       <c r="H137" s="61">
-        <v>93.75</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="J137" s="69"/>
+      <c r="K137" s="68"/>
+    </row>
+    <row r="138" spans="1:11">
       <c r="A138" s="28" t="s">
         <v>280</v>
       </c>
@@ -4732,10 +5006,12 @@
       <c r="F138" s="41"/>
       <c r="G138" s="54"/>
       <c r="H138" s="61">
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="J138" s="69"/>
+      <c r="K138" s="68"/>
+    </row>
+    <row r="139" spans="1:11">
       <c r="A139" s="28" t="s">
         <v>282</v>
       </c>
@@ -4750,10 +5026,12 @@
       <c r="F139" s="40"/>
       <c r="G139" s="53"/>
       <c r="H139" s="61">
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="J139" s="69"/>
+      <c r="K139" s="68"/>
+    </row>
+    <row r="140" spans="1:11">
       <c r="A140" s="28" t="s">
         <v>284</v>
       </c>
@@ -4770,8 +5048,10 @@
       <c r="H140" s="61">
         <v>100</v>
       </c>
-    </row>
-    <row r="141" spans="1:8">
+      <c r="J140" s="69"/>
+      <c r="K140" s="68"/>
+    </row>
+    <row r="141" spans="1:11">
       <c r="A141" s="28" t="s">
         <v>286</v>
       </c>
@@ -4786,10 +5066,12 @@
       <c r="F141" s="40"/>
       <c r="G141" s="57"/>
       <c r="H141" s="61">
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="J141" s="69"/>
+      <c r="K141" s="68"/>
+    </row>
+    <row r="142" spans="1:11">
       <c r="A142" s="28" t="s">
         <v>288</v>
       </c>
@@ -4806,8 +5088,10 @@
       <c r="H142" s="61">
         <v>100</v>
       </c>
-    </row>
-    <row r="143" spans="1:8">
+      <c r="J142" s="69"/>
+      <c r="K142" s="68"/>
+    </row>
+    <row r="143" spans="1:11">
       <c r="A143" s="28" t="s">
         <v>290</v>
       </c>
@@ -4822,10 +5106,12 @@
       <c r="F143" s="41"/>
       <c r="G143" s="54"/>
       <c r="H143" s="61">
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="J143" s="69"/>
+      <c r="K143" s="68"/>
+    </row>
+    <row r="144" spans="1:11">
       <c r="A144" s="28" t="s">
         <v>292</v>
       </c>
@@ -4840,10 +5126,12 @@
       <c r="F144" s="40"/>
       <c r="G144" s="53"/>
       <c r="H144" s="61">
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="J144" s="69"/>
+      <c r="K144" s="68"/>
+    </row>
+    <row r="145" spans="1:11">
       <c r="A145" s="28" t="s">
         <v>294</v>
       </c>
@@ -4858,10 +5146,12 @@
       <c r="F145" s="40"/>
       <c r="G145" s="53"/>
       <c r="H145" s="61">
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="J145" s="69"/>
+      <c r="K145" s="68"/>
+    </row>
+    <row r="146" spans="1:11">
       <c r="A146" s="28" t="s">
         <v>296</v>
       </c>
@@ -4876,10 +5166,12 @@
       <c r="F146" s="40"/>
       <c r="G146" s="53"/>
       <c r="H146" s="61">
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="J146" s="69"/>
+      <c r="K146" s="68"/>
+    </row>
+    <row r="147" spans="1:11">
       <c r="A147" s="28" t="s">
         <v>298</v>
       </c>
@@ -4894,10 +5186,12 @@
       <c r="F147" s="40"/>
       <c r="G147" s="53"/>
       <c r="H147" s="61">
-        <v>81.25</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="J147" s="69"/>
+      <c r="K147" s="68"/>
+    </row>
+    <row r="148" spans="1:11">
       <c r="A148" s="28" t="s">
         <v>300</v>
       </c>
@@ -4912,10 +5206,12 @@
       <c r="F148" s="40"/>
       <c r="G148" s="53"/>
       <c r="H148" s="61">
-        <v>93.75</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="J148" s="69"/>
+      <c r="K148" s="68"/>
+    </row>
+    <row r="149" spans="1:11">
       <c r="A149" s="28" t="s">
         <v>302</v>
       </c>
@@ -4930,10 +5226,12 @@
       <c r="F149" s="40"/>
       <c r="G149" s="53"/>
       <c r="H149" s="61">
-        <v>81.25</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="J149" s="69"/>
+      <c r="K149" s="68"/>
+    </row>
+    <row r="150" spans="1:11">
       <c r="A150" s="28" t="s">
         <v>304</v>
       </c>
@@ -4948,10 +5246,12 @@
       <c r="F150" s="40"/>
       <c r="G150" s="53"/>
       <c r="H150" s="61">
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="J150" s="69"/>
+      <c r="K150" s="68"/>
+    </row>
+    <row r="151" spans="1:11">
       <c r="A151" s="28" t="s">
         <v>306</v>
       </c>
@@ -4966,10 +5266,12 @@
       <c r="F151" s="40"/>
       <c r="G151" s="53"/>
       <c r="H151" s="61">
-        <v>93.75</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="J151" s="69"/>
+      <c r="K151" s="68"/>
+    </row>
+    <row r="152" spans="1:11">
       <c r="A152" s="28" t="s">
         <v>308</v>
       </c>
@@ -4984,10 +5286,12 @@
       <c r="F152" s="40"/>
       <c r="G152" s="53"/>
       <c r="H152" s="61">
-        <v>81.25</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="J152" s="69"/>
+      <c r="K152" s="68"/>
+    </row>
+    <row r="153" spans="1:11">
       <c r="A153" s="28" t="s">
         <v>310</v>
       </c>
@@ -5004,8 +5308,10 @@
       <c r="H153" s="61">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:8">
+      <c r="J153" s="69"/>
+      <c r="K153" s="68"/>
+    </row>
+    <row r="154" spans="1:11">
       <c r="A154" s="28" t="s">
         <v>312</v>
       </c>
@@ -5020,10 +5326,12 @@
       <c r="F154" s="40"/>
       <c r="G154" s="53"/>
       <c r="H154" s="61">
-        <v>81.25</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="J154" s="69"/>
+      <c r="K154" s="68"/>
+    </row>
+    <row r="155" spans="1:11">
       <c r="A155" s="28" t="s">
         <v>314</v>
       </c>
@@ -5038,10 +5346,12 @@
       <c r="F155" s="40"/>
       <c r="G155" s="53"/>
       <c r="H155" s="61">
-        <v>68.75</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="J155" s="69"/>
+      <c r="K155" s="68"/>
+    </row>
+    <row r="156" spans="1:11">
       <c r="A156" s="28" t="s">
         <v>316</v>
       </c>
@@ -5056,10 +5366,12 @@
       <c r="F156" s="40"/>
       <c r="G156" s="53"/>
       <c r="H156" s="61">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="J156" s="69"/>
+      <c r="K156" s="68"/>
+    </row>
+    <row r="157" spans="1:11">
       <c r="A157" s="28" t="s">
         <v>318</v>
       </c>
@@ -5074,10 +5386,12 @@
       <c r="F157" s="42"/>
       <c r="G157" s="54"/>
       <c r="H157" s="61">
-        <v>68.75</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="J157" s="69"/>
+      <c r="K157" s="68"/>
+    </row>
+    <row r="158" spans="1:11">
       <c r="A158" s="28" t="s">
         <v>320</v>
       </c>
@@ -5092,10 +5406,12 @@
       <c r="F158" s="40"/>
       <c r="G158" s="53"/>
       <c r="H158" s="61">
-        <v>81.25</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="J158" s="69"/>
+      <c r="K158" s="68"/>
+    </row>
+    <row r="159" spans="1:11">
       <c r="A159" s="28" t="s">
         <v>322</v>
       </c>
@@ -5110,10 +5426,12 @@
       <c r="F159" s="40"/>
       <c r="G159" s="53"/>
       <c r="H159" s="61">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="J159" s="69"/>
+      <c r="K159" s="68"/>
+    </row>
+    <row r="160" spans="1:11">
       <c r="A160" s="28" t="s">
         <v>324</v>
       </c>
@@ -5128,10 +5446,12 @@
       <c r="F160" s="40"/>
       <c r="G160" s="53"/>
       <c r="H160" s="61">
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="J160" s="69"/>
+      <c r="K160" s="68"/>
+    </row>
+    <row r="161" spans="1:11">
       <c r="A161" s="28" t="s">
         <v>326</v>
       </c>
@@ -5148,8 +5468,10 @@
       <c r="H161" s="61">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:8">
+      <c r="J161" s="69"/>
+      <c r="K161" s="68"/>
+    </row>
+    <row r="162" spans="1:11">
       <c r="A162" s="28" t="s">
         <v>328</v>
       </c>
@@ -5164,10 +5486,12 @@
       <c r="F162" s="40"/>
       <c r="G162" s="53"/>
       <c r="H162" s="61">
-        <v>43.75</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="J162" s="69"/>
+      <c r="K162" s="68"/>
+    </row>
+    <row r="163" spans="1:11">
       <c r="A163" s="28" t="s">
         <v>330</v>
       </c>
@@ -5182,10 +5506,12 @@
       <c r="F163" s="40"/>
       <c r="G163" s="53"/>
       <c r="H163" s="61">
-        <v>81.25</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="J163" s="69"/>
+      <c r="K163" s="68"/>
+    </row>
+    <row r="164" spans="1:11">
       <c r="A164" s="28" t="s">
         <v>332</v>
       </c>
@@ -5202,8 +5528,10 @@
       <c r="H164" s="61">
         <v>100</v>
       </c>
-    </row>
-    <row r="165" spans="1:8">
+      <c r="J164" s="69"/>
+      <c r="K164" s="68"/>
+    </row>
+    <row r="165" spans="1:11">
       <c r="A165" s="28" t="s">
         <v>334</v>
       </c>
@@ -5218,10 +5546,12 @@
       <c r="F165" s="40"/>
       <c r="G165" s="53"/>
       <c r="H165" s="61">
-        <v>68.75</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="J165" s="69"/>
+      <c r="K165" s="68"/>
+    </row>
+    <row r="166" spans="1:11">
       <c r="A166" s="28" t="s">
         <v>336</v>
       </c>
@@ -5236,10 +5566,12 @@
       <c r="F166" s="40"/>
       <c r="G166" s="53"/>
       <c r="H166" s="61">
-        <v>68.75</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="J166" s="69"/>
+      <c r="K166" s="68"/>
+    </row>
+    <row r="167" spans="1:11">
       <c r="A167" s="28" t="s">
         <v>338</v>
       </c>
@@ -5254,10 +5586,12 @@
       <c r="F167" s="40"/>
       <c r="G167" s="53"/>
       <c r="H167" s="61">
-        <v>93.75</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="J167" s="69"/>
+      <c r="K167" s="68"/>
+    </row>
+    <row r="168" spans="1:11">
       <c r="A168" s="28" t="s">
         <v>340</v>
       </c>
@@ -5272,10 +5606,12 @@
       <c r="F168" s="40"/>
       <c r="G168" s="53"/>
       <c r="H168" s="61">
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="J168" s="69"/>
+      <c r="K168" s="68"/>
+    </row>
+    <row r="169" spans="1:11">
       <c r="A169" s="28" t="s">
         <v>342</v>
       </c>
@@ -5290,10 +5626,12 @@
       <c r="F169" s="40"/>
       <c r="G169" s="53"/>
       <c r="H169" s="61">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="J169" s="69"/>
+      <c r="K169" s="68"/>
+    </row>
+    <row r="170" spans="1:11">
       <c r="A170" s="28" t="s">
         <v>344</v>
       </c>
@@ -5308,10 +5646,12 @@
       <c r="F170" s="40"/>
       <c r="G170" s="53"/>
       <c r="H170" s="61">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="J170" s="69"/>
+      <c r="K170" s="68"/>
+    </row>
+    <row r="171" spans="1:11">
       <c r="A171" s="28" t="s">
         <v>346</v>
       </c>
@@ -5326,10 +5666,12 @@
       <c r="F171" s="40"/>
       <c r="G171" s="53"/>
       <c r="H171" s="61">
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="J171" s="69"/>
+      <c r="K171" s="68"/>
+    </row>
+    <row r="172" spans="1:11">
       <c r="A172" s="28" t="s">
         <v>348</v>
       </c>
@@ -5344,10 +5686,12 @@
       <c r="F172" s="40"/>
       <c r="G172" s="53"/>
       <c r="H172" s="61">
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>5</v>
+      </c>
+      <c r="J172" s="69"/>
+      <c r="K172" s="68"/>
+    </row>
+    <row r="173" spans="1:11">
       <c r="A173" s="28" t="s">
         <v>350</v>
       </c>
@@ -5362,10 +5706,12 @@
       <c r="F173" s="40"/>
       <c r="G173" s="56"/>
       <c r="H173" s="61">
-        <v>43.75</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="J173" s="69"/>
+      <c r="K173" s="68"/>
+    </row>
+    <row r="174" spans="1:11">
       <c r="A174" s="28" t="s">
         <v>352</v>
       </c>
@@ -5380,10 +5726,12 @@
       <c r="F174" s="40"/>
       <c r="G174" s="51"/>
       <c r="H174" s="61">
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="J174" s="69"/>
+      <c r="K174" s="68"/>
+    </row>
+    <row r="175" spans="1:11">
       <c r="A175" s="28" t="s">
         <v>354</v>
       </c>
@@ -5398,10 +5746,12 @@
       <c r="F175" s="40"/>
       <c r="G175" s="51"/>
       <c r="H175" s="61">
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="J175" s="69"/>
+      <c r="K175" s="68"/>
+    </row>
+    <row r="176" spans="1:11">
       <c r="A176" s="28" t="s">
         <v>356</v>
       </c>
@@ -5416,10 +5766,12 @@
       <c r="F176" s="40"/>
       <c r="G176" s="51"/>
       <c r="H176" s="61">
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="J176" s="69"/>
+      <c r="K176" s="68"/>
+    </row>
+    <row r="177" spans="1:11">
       <c r="A177" s="28" t="s">
         <v>358</v>
       </c>
@@ -5434,10 +5786,12 @@
       <c r="F177" s="40"/>
       <c r="G177" s="51"/>
       <c r="H177" s="61">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="J177" s="69"/>
+      <c r="K177" s="68"/>
+    </row>
+    <row r="178" spans="1:11">
       <c r="A178" s="28" t="s">
         <v>360</v>
       </c>
@@ -5452,10 +5806,12 @@
       <c r="F178" s="40"/>
       <c r="G178" s="51"/>
       <c r="H178" s="61">
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="J178" s="69"/>
+      <c r="K178" s="68"/>
+    </row>
+    <row r="179" spans="1:11">
       <c r="A179" s="28" t="s">
         <v>362</v>
       </c>
@@ -5470,10 +5826,12 @@
       <c r="F179" s="43"/>
       <c r="G179" s="58"/>
       <c r="H179" s="61">
-        <v>43.75</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="J179" s="69"/>
+      <c r="K179" s="68"/>
+    </row>
+    <row r="180" spans="1:11">
       <c r="A180" s="28" t="s">
         <v>364</v>
       </c>
@@ -5490,8 +5848,10 @@
       <c r="H180" s="61">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:8">
+      <c r="J180" s="69"/>
+      <c r="K180" s="68"/>
+    </row>
+    <row r="181" spans="1:11">
       <c r="A181" s="28" t="s">
         <v>366</v>
       </c>
@@ -5506,10 +5866,12 @@
       <c r="F181" s="44"/>
       <c r="G181" s="59"/>
       <c r="H181" s="61">
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="J181" s="69"/>
+      <c r="K181" s="68"/>
+    </row>
+    <row r="182" spans="1:11">
       <c r="A182" s="28" t="s">
         <v>368</v>
       </c>
@@ -5524,10 +5886,12 @@
       <c r="F182" s="44"/>
       <c r="G182" s="59"/>
       <c r="H182" s="61">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="J182" s="69"/>
+      <c r="K182" s="68"/>
+    </row>
+    <row r="183" spans="1:11">
       <c r="A183" s="28" t="s">
         <v>370</v>
       </c>
@@ -5542,10 +5906,12 @@
       <c r="F183" s="44"/>
       <c r="G183" s="59"/>
       <c r="H183" s="61">
-        <v>43.75</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="J183" s="69"/>
+      <c r="K183" s="68"/>
+    </row>
+    <row r="184" spans="1:11">
       <c r="A184" s="28" t="s">
         <v>372</v>
       </c>
@@ -5560,10 +5926,12 @@
       <c r="F184" s="44"/>
       <c r="G184" s="59"/>
       <c r="H184" s="61">
-        <v>68.75</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="J184" s="69"/>
+      <c r="K184" s="68"/>
+    </row>
+    <row r="185" spans="1:11">
       <c r="A185" s="28" t="s">
         <v>374</v>
       </c>
@@ -5578,10 +5946,12 @@
       <c r="F185" s="44"/>
       <c r="G185" s="59"/>
       <c r="H185" s="61">
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="J185" s="69"/>
+      <c r="K185" s="68"/>
+    </row>
+    <row r="186" spans="1:11">
       <c r="A186" s="28" t="s">
         <v>376</v>
       </c>
@@ -5596,10 +5966,12 @@
       <c r="F186" s="44"/>
       <c r="G186" s="59"/>
       <c r="H186" s="61">
-        <v>81.25</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="J186" s="69"/>
+      <c r="K186" s="68"/>
+    </row>
+    <row r="187" spans="1:11">
       <c r="A187" s="28" t="s">
         <v>378</v>
       </c>
@@ -5614,10 +5986,12 @@
       <c r="F187" s="44"/>
       <c r="G187" s="59"/>
       <c r="H187" s="61">
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="J187" s="69"/>
+      <c r="K187" s="68"/>
+    </row>
+    <row r="188" spans="1:11">
       <c r="A188" s="28" t="s">
         <v>380</v>
       </c>
@@ -5634,8 +6008,10 @@
       <c r="H188" s="61">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:8">
+      <c r="J188" s="69"/>
+      <c r="K188" s="68"/>
+    </row>
+    <row r="189" spans="1:11">
       <c r="A189" s="28" t="s">
         <v>382</v>
       </c>
@@ -5652,8 +6028,10 @@
       <c r="H189" s="61">
         <v>100</v>
       </c>
-    </row>
-    <row r="190" spans="1:8">
+      <c r="J189" s="69"/>
+      <c r="K189" s="68"/>
+    </row>
+    <row r="190" spans="1:11">
       <c r="A190" s="28" t="s">
         <v>384</v>
       </c>
@@ -5668,10 +6046,12 @@
       <c r="F190" s="44"/>
       <c r="G190" s="59"/>
       <c r="H190" s="61">
-        <v>93.75</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="J190" s="69"/>
+      <c r="K190" s="68"/>
+    </row>
+    <row r="191" spans="1:11">
       <c r="A191" s="28" t="s">
         <v>386</v>
       </c>
@@ -5686,10 +6066,12 @@
       <c r="F191" s="44"/>
       <c r="G191" s="59"/>
       <c r="H191" s="61">
-        <v>68.75</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="J191" s="69"/>
+      <c r="K191" s="68"/>
+    </row>
+    <row r="192" spans="1:11">
       <c r="A192" s="28" t="s">
         <v>388</v>
       </c>
@@ -5706,8 +6088,10 @@
       <c r="H192" s="61">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:8">
+      <c r="J192" s="69"/>
+      <c r="K192" s="68"/>
+    </row>
+    <row r="193" spans="1:11">
       <c r="A193" s="28" t="s">
         <v>390</v>
       </c>
@@ -5722,10 +6106,12 @@
       <c r="F193" s="44"/>
       <c r="G193" s="59"/>
       <c r="H193" s="61">
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="J193" s="69"/>
+      <c r="K193" s="68"/>
+    </row>
+    <row r="194" spans="1:11">
       <c r="A194" s="28" t="s">
         <v>392</v>
       </c>
@@ -5740,10 +6126,12 @@
       <c r="F194" s="44"/>
       <c r="G194" s="59"/>
       <c r="H194" s="61">
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="J194" s="69"/>
+      <c r="K194" s="68"/>
+    </row>
+    <row r="195" spans="1:11">
       <c r="A195" s="28" t="s">
         <v>394</v>
       </c>
@@ -5760,8 +6148,10 @@
       <c r="H195" s="61">
         <v>75</v>
       </c>
-    </row>
-    <row r="196" spans="1:8">
+      <c r="J195" s="69"/>
+      <c r="K195" s="68"/>
+    </row>
+    <row r="196" spans="1:11">
       <c r="A196" s="28" t="s">
         <v>396</v>
       </c>
@@ -5778,8 +6168,10 @@
       <c r="H196" s="61">
         <v>100</v>
       </c>
-    </row>
-    <row r="197" spans="1:8">
+      <c r="J196" s="69"/>
+      <c r="K196" s="68"/>
+    </row>
+    <row r="197" spans="1:11">
       <c r="A197" s="28" t="s">
         <v>398</v>
       </c>
@@ -5794,10 +6186,12 @@
       <c r="F197" s="44"/>
       <c r="G197" s="59"/>
       <c r="H197" s="61">
-        <v>68.75</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="J197" s="69"/>
+      <c r="K197" s="68"/>
+    </row>
+    <row r="198" spans="1:11">
       <c r="A198" s="28" t="s">
         <v>400</v>
       </c>
@@ -5812,10 +6206,12 @@
       <c r="F198" s="44"/>
       <c r="G198" s="59"/>
       <c r="H198" s="61">
-        <v>93.75</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="J198" s="69"/>
+      <c r="K198" s="68"/>
+    </row>
+    <row r="199" spans="1:11">
       <c r="A199" s="62" t="s">
         <v>404</v>
       </c>
@@ -5830,10 +6226,12 @@
       <c r="F199" s="44"/>
       <c r="G199" s="60"/>
       <c r="H199" s="61">
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="J199" s="69"/>
+      <c r="K199" s="68"/>
+    </row>
+    <row r="200" spans="1:11">
       <c r="A200" s="49" t="s">
         <v>402</v>
       </c>
@@ -5848,10 +6246,12 @@
       <c r="F200" s="44"/>
       <c r="G200" s="24"/>
       <c r="H200" s="61">
-        <v>43.75</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" ht="15.75">
+        <v>55.000000000000007</v>
+      </c>
+      <c r="J200" s="69"/>
+      <c r="K200" s="68"/>
+    </row>
+    <row r="201" spans="1:11" ht="15.75">
       <c r="A201" s="66" t="s">
         <v>407</v>
       </c>
@@ -5865,7 +6265,7 @@
       <c r="G201" s="24"/>
       <c r="H201" s="13"/>
     </row>
-    <row r="202" spans="1:8" ht="15.75">
+    <row r="202" spans="1:11" ht="15.75">
       <c r="A202" s="67" t="s">
         <v>408</v>
       </c>
@@ -5879,7 +6279,7 @@
       <c r="G202" s="25"/>
       <c r="H202" s="13"/>
     </row>
-    <row r="203" spans="1:8" ht="15.75">
+    <row r="203" spans="1:11" ht="15.75">
       <c r="A203" s="67" t="s">
         <v>409</v>
       </c>
@@ -5893,7 +6293,7 @@
       <c r="G203" s="27"/>
       <c r="H203" s="13"/>
     </row>
-    <row r="204" spans="1:8" ht="15.75">
+    <row r="204" spans="1:11" ht="15.75">
       <c r="A204" s="67" t="s">
         <v>410</v>
       </c>
@@ -5907,7 +6307,7 @@
       <c r="G204" s="27"/>
       <c r="H204" s="13"/>
     </row>
-    <row r="205" spans="1:8" ht="15.75">
+    <row r="205" spans="1:11" ht="15.75">
       <c r="A205" s="67" t="s">
         <v>411</v>
       </c>
@@ -5921,7 +6321,7 @@
       <c r="G205" s="27"/>
       <c r="H205" s="13"/>
     </row>
-    <row r="206" spans="1:8" ht="15.75">
+    <row r="206" spans="1:11" ht="15.75">
       <c r="A206" s="67" t="s">
         <v>412</v>
       </c>
@@ -5935,7 +6335,7 @@
       <c r="G206" s="27"/>
       <c r="H206" s="13"/>
     </row>
-    <row r="207" spans="1:8" ht="15.75">
+    <row r="207" spans="1:11" ht="15.75">
       <c r="A207" s="67" t="s">
         <v>413</v>
       </c>
@@ -5949,7 +6349,7 @@
       <c r="G207" s="27"/>
       <c r="H207" s="14"/>
     </row>
-    <row r="208" spans="1:8" ht="15.75">
+    <row r="208" spans="1:11" ht="15.75">
       <c r="A208" s="67" t="s">
         <v>414</v>
       </c>
@@ -6150,15 +6550,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FDB710AC8133AA498CBE2CD8804BFA17" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4eb3d0237cfa0d187f5d6a045860a182">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a5132194-61b6-4507-86ae-3af00c68c385" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="53ffbac00c82fc65a20b2fe1c6581f58" ns2:_="">
     <xsd:import namespace="a5132194-61b6-4507-86ae-3af00c68c385"/>
@@ -6302,6 +6693,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -6309,13 +6709,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FD49CE-D196-4C00-BC5E-382EDDDD004F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F334BD5B-9873-472F-B0A9-4AE19CD21D29}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F334BD5B-9873-472F-B0A9-4AE19CD21D29}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FD49CE-D196-4C00-BC5E-382EDDDD004F}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
